--- a/exo_control/neural_network_parameters/excel/PV_cp_lstm.xlsx
+++ b/exo_control/neural_network_parameters/excel/PV_cp_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,5306 +477,5306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.265805322580739</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>36.60826110839844</v>
+        <v>35.7794189453125</v>
       </c>
       <c r="D2" t="n">
-        <v>27.27024459838867</v>
+        <v>25.66837310791016</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.22271919250488</v>
+        <v>-20.65994262695312</v>
       </c>
       <c r="F2" t="n">
-        <v>32.63117980957031</v>
+        <v>40.69371795654297</v>
       </c>
       <c r="G2" t="n">
-        <v>37.35383605957031</v>
+        <v>50.92035675048828</v>
       </c>
       <c r="H2" t="n">
-        <v>2.489508867263794</v>
+        <v>-54.76684951782227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.422459055185318</v>
+        <v>0.04648830235004425</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2021738690137863</v>
+        <v>-0.1197062104940415</v>
       </c>
       <c r="C3" t="n">
-        <v>37.65890502929688</v>
+        <v>35.7794189453125</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01186370849609</v>
+        <v>26.13063430786133</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.174654006958008</v>
+        <v>-20.65994262695312</v>
       </c>
       <c r="F3" t="n">
-        <v>34.77795028686523</v>
+        <v>41.50815963745117</v>
       </c>
       <c r="G3" t="n">
-        <v>41.07441711425781</v>
+        <v>47.85140991210938</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417813777923584</v>
+        <v>-54.76684951782227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6907237398624421</v>
+        <v>0.0829056839644909</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3983776462078095</v>
+        <v>-0.2344335746765137</v>
       </c>
       <c r="C4" t="n">
-        <v>39.35334777832031</v>
+        <v>34.36673355102539</v>
       </c>
       <c r="D4" t="n">
-        <v>27.82561492919922</v>
+        <v>26.80419921875</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.122828483581543</v>
+        <v>-21.57056617736816</v>
       </c>
       <c r="F4" t="n">
-        <v>37.81447601318359</v>
+        <v>42.28872680664062</v>
       </c>
       <c r="G4" t="n">
-        <v>43.59294128417969</v>
+        <v>46.68174743652344</v>
       </c>
       <c r="H4" t="n">
-        <v>8.076778411865234</v>
+        <v>-54.12808990478516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.8626402962207794</v>
+        <v>0.118123646825552</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5436720359325409</v>
+        <v>-0.3513150608539581</v>
       </c>
       <c r="C5" t="n">
-        <v>40.72517395019531</v>
+        <v>34.00942230224609</v>
       </c>
       <c r="D5" t="n">
-        <v>29.54940986633301</v>
+        <v>27.60887336730957</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.612159252166748</v>
+        <v>-20.8062686920166</v>
       </c>
       <c r="F5" t="n">
-        <v>40.4652099609375</v>
+        <v>43.08395004272461</v>
       </c>
       <c r="G5" t="n">
-        <v>43.59294128417969</v>
+        <v>46.68174743652344</v>
       </c>
       <c r="H5" t="n">
-        <v>9.891489028930664</v>
+        <v>-55.61592483520508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9573947489261627</v>
+        <v>0.1528182426095009</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6274873435497285</v>
+        <v>-0.4707168340682983</v>
       </c>
       <c r="C6" t="n">
-        <v>40.72517395019531</v>
+        <v>33.65742111206055</v>
       </c>
       <c r="D6" t="n">
-        <v>30.40863609313965</v>
+        <v>28.5016975402832</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.612159252166748</v>
+        <v>-20.05403137207031</v>
       </c>
       <c r="F6" t="n">
-        <v>42.13976669311523</v>
+        <v>43.89632034301758</v>
       </c>
       <c r="G6" t="n">
-        <v>43.54428482055664</v>
+        <v>46.30809783935547</v>
       </c>
       <c r="H6" t="n">
-        <v>9.891489028930664</v>
+        <v>-57.11036682128906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9697769463062287</v>
+        <v>0.187180814743042</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.653331310749054</v>
+        <v>-0.5923562860488892</v>
       </c>
       <c r="C7" t="n">
-        <v>42.23411178588867</v>
+        <v>33.30878829956055</v>
       </c>
       <c r="D7" t="n">
-        <v>29.98387336730957</v>
+        <v>29.43852615356445</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.103540897369385</v>
+        <v>-19.30731391906738</v>
       </c>
       <c r="F7" t="n">
-        <v>42.13976669311523</v>
+        <v>44.72391510009766</v>
       </c>
       <c r="G7" t="n">
-        <v>40.8128662109375</v>
+        <v>47.15426254272461</v>
       </c>
       <c r="H7" t="n">
-        <v>11.69138622283936</v>
+        <v>-58.55677795410156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9027598667144776</v>
+        <v>0.2210749161243439</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6318795549869538</v>
+        <v>-0.7151877093315124</v>
       </c>
       <c r="C8" t="n">
-        <v>41.49203109741211</v>
+        <v>32.96490859985352</v>
       </c>
       <c r="D8" t="n">
-        <v>28.4366512298584</v>
+        <v>30.38314628601074</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.622177600860596</v>
+        <v>-18.56386375427246</v>
       </c>
       <c r="F8" t="n">
-        <v>43.23463439941406</v>
+        <v>45.55961990356445</v>
       </c>
       <c r="G8" t="n">
-        <v>37.49369049072266</v>
+        <v>48.03530502319336</v>
       </c>
       <c r="H8" t="n">
-        <v>11.10668087005615</v>
+        <v>-59.91529846191406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7857355916500092</v>
+        <v>0.2544911327958107</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5795237350463868</v>
+        <v>-0.8378005266189575</v>
       </c>
       <c r="C9" t="n">
-        <v>40.19622039794922</v>
+        <v>32.62587738037109</v>
       </c>
       <c r="D9" t="n">
-        <v>26.50568008422852</v>
+        <v>31.30863952636719</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.097094535827637</v>
+        <v>-17.82549095153809</v>
       </c>
       <c r="F9" t="n">
-        <v>41.81982421875</v>
+        <v>46.39383697509766</v>
       </c>
       <c r="G9" t="n">
-        <v>34.39604949951172</v>
+        <v>48.93630599975586</v>
       </c>
       <c r="H9" t="n">
-        <v>10.26662731170654</v>
+        <v>-61.15761184692383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6677067399024964</v>
+        <v>0.2870986020565033</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5147572231292725</v>
+        <v>-0.9583981883525848</v>
       </c>
       <c r="C10" t="n">
-        <v>38.88928604125977</v>
+        <v>32.29505157470703</v>
       </c>
       <c r="D10" t="n">
-        <v>25.13191223144531</v>
+        <v>32.19624710083008</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.06432056427002</v>
+        <v>-17.09530258178711</v>
       </c>
       <c r="F10" t="n">
-        <v>40.06964111328125</v>
+        <v>47.2143440246582</v>
       </c>
       <c r="G10" t="n">
-        <v>32.12517547607422</v>
+        <v>49.84849548339844</v>
       </c>
       <c r="H10" t="n">
-        <v>9.453907012939453</v>
+        <v>-62.26981353759766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5924460029602051</v>
+        <v>0.3185512030124664</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4523628389835358</v>
+        <v>-1.075111486911774</v>
       </c>
       <c r="C11" t="n">
-        <v>38.05592346191406</v>
+        <v>31.97594261169434</v>
       </c>
       <c r="D11" t="n">
-        <v>24.93863487243652</v>
+        <v>33.03340530395508</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.330896854400635</v>
+        <v>-16.38033676147461</v>
       </c>
       <c r="F11" t="n">
-        <v>38.38356018066406</v>
+        <v>48.0084228515625</v>
       </c>
       <c r="G11" t="n">
-        <v>30.87856674194336</v>
+        <v>50.76608657836914</v>
       </c>
       <c r="H11" t="n">
-        <v>8.93734073638916</v>
+        <v>-63.24966049194336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5754578530788422</v>
+        <v>0.3485116916894913</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3997358149290085</v>
+        <v>-1.18608283996582</v>
       </c>
       <c r="C12" t="n">
-        <v>37.86781311035156</v>
+        <v>31.67197227478027</v>
       </c>
       <c r="D12" t="n">
-        <v>25.92842292785645</v>
+        <v>33.80932998657227</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.012994766235352</v>
+        <v>-15.68970108032227</v>
       </c>
       <c r="F12" t="n">
-        <v>36.96142196655273</v>
+        <v>48.76343536376953</v>
       </c>
       <c r="G12" t="n">
-        <v>30.87856674194336</v>
+        <v>51.68393325805664</v>
       </c>
       <c r="H12" t="n">
-        <v>8.910542488098145</v>
+        <v>-64.09918212890625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6003985857963562</v>
+        <v>0.3768289077281952</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3582296127080917</v>
+        <v>-1.289502935409546</v>
       </c>
       <c r="C13" t="n">
-        <v>38.14398193359375</v>
+        <v>31.38467407226562</v>
       </c>
       <c r="D13" t="n">
-        <v>27.57050704956055</v>
+        <v>34.51605224609375</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4161978363990784</v>
+        <v>-15.03331661224365</v>
       </c>
       <c r="F13" t="n">
-        <v>35.83980178833008</v>
+        <v>49.46707153320312</v>
       </c>
       <c r="G13" t="n">
-        <v>30.16499519348145</v>
+        <v>52.59360504150391</v>
       </c>
       <c r="H13" t="n">
-        <v>9.434359550476074</v>
+        <v>-64.82260894775391</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.6354243206977844</v>
+        <v>0.4035363054275513</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3249811571836472</v>
+        <v>-1.384589087963104</v>
       </c>
       <c r="C14" t="n">
-        <v>38.53182220458984</v>
+        <v>31.11370849609375</v>
       </c>
       <c r="D14" t="n">
-        <v>29.19942474365234</v>
+        <v>35.1509895324707</v>
       </c>
       <c r="E14" t="n">
-        <v>1.150439739227295</v>
+        <v>-14.41633987426758</v>
       </c>
       <c r="F14" t="n">
-        <v>34.94132995605469</v>
+        <v>50.11400604248047</v>
       </c>
       <c r="G14" t="n">
-        <v>31.02016258239746</v>
+        <v>53.48921203613281</v>
       </c>
       <c r="H14" t="n">
-        <v>10.37574481964111</v>
+        <v>-65.42723846435547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6514947044849396</v>
+        <v>0.4285440415143967</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2949899309873581</v>
+        <v>-1.47105849981308</v>
       </c>
       <c r="C15" t="n">
-        <v>38.70977020263672</v>
+        <v>30.85998725891113</v>
       </c>
       <c r="D15" t="n">
-        <v>30.33856964111328</v>
+        <v>35.71693801879883</v>
       </c>
       <c r="E15" t="n">
-        <v>2.453539371490479</v>
+        <v>-13.84376430511475</v>
       </c>
       <c r="F15" t="n">
-        <v>34.13087844848633</v>
+        <v>50.70231628417969</v>
       </c>
       <c r="G15" t="n">
-        <v>31.94457244873047</v>
+        <v>54.36482238769531</v>
       </c>
       <c r="H15" t="n">
-        <v>11.55452823638916</v>
+        <v>-65.92564392089844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6323747670650482</v>
+        <v>0.4515046840906143</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2626390078663826</v>
+        <v>-1.549024770259857</v>
       </c>
       <c r="C16" t="n">
-        <v>38.49805450439453</v>
+        <v>30.62703514099121</v>
       </c>
       <c r="D16" t="n">
-        <v>30.84496879577637</v>
+        <v>36.21617889404297</v>
       </c>
       <c r="E16" t="n">
-        <v>3.393747806549072</v>
+        <v>-13.31615161895752</v>
       </c>
       <c r="F16" t="n">
-        <v>33.25666046142578</v>
+        <v>51.23277282714844</v>
       </c>
       <c r="G16" t="n">
-        <v>32.81770706176758</v>
+        <v>55.22113800048828</v>
       </c>
       <c r="H16" t="n">
-        <v>12.81215572357178</v>
+        <v>-66.32833862304688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5755505394935608</v>
+        <v>0.4720067358016968</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2230698853731156</v>
+        <v>-1.618333485126495</v>
       </c>
       <c r="C17" t="n">
-        <v>37.86883926391602</v>
+        <v>30.41902732849121</v>
       </c>
       <c r="D17" t="n">
-        <v>30.8449592590332</v>
+        <v>36.6513786315918</v>
       </c>
       <c r="E17" t="n">
-        <v>3.989676952362061</v>
+        <v>-12.83436679840088</v>
       </c>
       <c r="F17" t="n">
-        <v>32.18738555908203</v>
+        <v>51.70432662963867</v>
       </c>
       <c r="G17" t="n">
-        <v>33.58247375488281</v>
+        <v>56.05633544921875</v>
       </c>
       <c r="H17" t="n">
-        <v>14.03953456878662</v>
+        <v>-66.64374542236328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.489178141951561</v>
+        <v>0.4897059553861619</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1725842681527138</v>
+        <v>-1.679211211204529</v>
       </c>
       <c r="C18" t="n">
-        <v>36.91243743896484</v>
+        <v>30.23945617675781</v>
       </c>
       <c r="D18" t="n">
-        <v>30.60814094543457</v>
+        <v>37.02646636962891</v>
       </c>
       <c r="E18" t="n">
-        <v>4.361286640167236</v>
+        <v>-12.3963098526001</v>
       </c>
       <c r="F18" t="n">
-        <v>30.8231143951416</v>
+        <v>52.1185188293457</v>
       </c>
       <c r="G18" t="n">
-        <v>34.19651794433594</v>
+        <v>56.87337493896484</v>
       </c>
       <c r="H18" t="n">
-        <v>15.15795230865479</v>
+        <v>-66.88105010986328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3855736845731735</v>
+        <v>0.5043825995922089</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1099367101490498</v>
+        <v>-1.731706218719482</v>
       </c>
       <c r="C19" t="n">
-        <v>35.76522445678711</v>
+        <v>30.09055137634277</v>
       </c>
       <c r="D19" t="n">
-        <v>30.41726493835449</v>
+        <v>37.34532928466797</v>
       </c>
       <c r="E19" t="n">
-        <v>4.682252407073975</v>
+        <v>-12.00195693969727</v>
       </c>
       <c r="F19" t="n">
-        <v>29.13019180297852</v>
+        <v>52.47567749023438</v>
       </c>
       <c r="G19" t="n">
-        <v>34.64398193359375</v>
+        <v>57.67108535766602</v>
       </c>
       <c r="H19" t="n">
-        <v>16.11032676696777</v>
+        <v>-67.04742431640625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2749403178691864</v>
+        <v>0.5158777683973312</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.03609618164598942</v>
+        <v>-1.776233985424042</v>
       </c>
       <c r="C20" t="n">
-        <v>34.54018020629883</v>
+        <v>29.97392463684082</v>
       </c>
       <c r="D20" t="n">
-        <v>30.48383140563965</v>
+        <v>37.61220169067383</v>
       </c>
       <c r="E20" t="n">
-        <v>5.115525722503662</v>
+        <v>-11.64888763427734</v>
       </c>
       <c r="F20" t="n">
-        <v>26.02565002441406</v>
+        <v>52.77862930297852</v>
       </c>
       <c r="G20" t="n">
-        <v>34.93779373168945</v>
+        <v>58.45061874389648</v>
       </c>
       <c r="H20" t="n">
-        <v>16.86883926391602</v>
+        <v>-67.14987945556641</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1625041624903679</v>
+        <v>0.5240380901098252</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04599347330629826</v>
+        <v>-1.81306960105896</v>
       </c>
       <c r="C21" t="n">
-        <v>33.29517364501953</v>
+        <v>29.89113235473633</v>
       </c>
       <c r="D21" t="n">
-        <v>30.92743301391602</v>
+        <v>37.83013153076172</v>
       </c>
       <c r="E21" t="n">
-        <v>5.752022266387939</v>
+        <v>-11.33530616760254</v>
       </c>
       <c r="F21" t="n">
-        <v>24.3066577911377</v>
+        <v>53.02924728393555</v>
       </c>
       <c r="G21" t="n">
-        <v>35.11938095092773</v>
+        <v>59.21246719360352</v>
       </c>
       <c r="H21" t="n">
-        <v>17.43233680725098</v>
+        <v>-67.19306182861328</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.05126032195985317</v>
+        <v>0.5287552726268768</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1321731650829315</v>
+        <v>-1.841989657878876</v>
       </c>
       <c r="C22" t="n">
-        <v>32.06336975097656</v>
+        <v>29.8432731628418</v>
       </c>
       <c r="D22" t="n">
-        <v>31.76310157775879</v>
+        <v>37.99984359741211</v>
       </c>
       <c r="E22" t="n">
-        <v>6.58294153213501</v>
+        <v>-11.06344318389893</v>
       </c>
       <c r="F22" t="n">
-        <v>22.29981994628906</v>
+        <v>53.22600936889648</v>
       </c>
       <c r="G22" t="n">
-        <v>35.25644683837891</v>
+        <v>59.95191192626953</v>
       </c>
       <c r="H22" t="n">
-        <v>17.86770248413086</v>
+        <v>-67.18061828613281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05653089039027691</v>
+        <v>0.53</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2170892897248268</v>
+        <v>-1.862631750106812</v>
       </c>
       <c r="C23" t="n">
-        <v>30.86979675292969</v>
+        <v>29.83064460754395</v>
       </c>
       <c r="D23" t="n">
-        <v>32.91049957275391</v>
+        <v>38.12072372436523</v>
       </c>
       <c r="E23" t="n">
-        <v>7.575903415679932</v>
+        <v>-10.83699035644531</v>
       </c>
       <c r="F23" t="n">
-        <v>20.25187301635742</v>
+        <v>53.36645126342773</v>
       </c>
       <c r="G23" t="n">
-        <v>35.42691421508789</v>
+        <v>60.66220855712891</v>
       </c>
       <c r="H23" t="n">
-        <v>18.31691741943359</v>
+        <v>-67.11587524414062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1565468174219131</v>
+        <v>0.5277350270748139</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2943958407640457</v>
+        <v>-1.87489883184433</v>
       </c>
       <c r="C24" t="n">
-        <v>29.76231956481934</v>
+        <v>29.85362434387207</v>
       </c>
       <c r="D24" t="n">
-        <v>34.2430534362793</v>
+        <v>38.19165420532227</v>
       </c>
       <c r="E24" t="n">
-        <v>8.74177360534668</v>
+        <v>-10.6569242477417</v>
       </c>
       <c r="F24" t="n">
-        <v>18.3708381652832</v>
+        <v>53.44991302490234</v>
       </c>
       <c r="G24" t="n">
-        <v>35.69547653198242</v>
+        <v>61.33956527709961</v>
       </c>
       <c r="H24" t="n">
-        <v>18.89045906066895</v>
+        <v>-67.00209045410156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2413895732164383</v>
+        <v>0.5219586795568466</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3578279399871827</v>
+        <v>-1.878814659118653</v>
       </c>
       <c r="C25" t="n">
-        <v>28.82285499572754</v>
+        <v>29.91222953796387</v>
       </c>
       <c r="D25" t="n">
-        <v>35.67253875732422</v>
+        <v>38.21173477172852</v>
       </c>
       <c r="E25" t="n">
-        <v>10.10919380187988</v>
+        <v>-10.52358913421631</v>
       </c>
       <c r="F25" t="n">
-        <v>16.80587387084961</v>
+        <v>53.47655487060547</v>
       </c>
       <c r="G25" t="n">
-        <v>36.09590530395508</v>
+        <v>61.98174285888672</v>
       </c>
       <c r="H25" t="n">
-        <v>19.57411766052246</v>
+        <v>-66.84300231933594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3054678553342819</v>
+        <v>0.5126042068004608</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4040440905094147</v>
+        <v>-1.874682500362396</v>
       </c>
       <c r="C26" t="n">
-        <v>28.11331558227539</v>
+        <v>30.00713729858398</v>
       </c>
       <c r="D26" t="n">
-        <v>37.18181991577148</v>
+        <v>38.18119430541992</v>
       </c>
       <c r="E26" t="n">
-        <v>11.64831352233887</v>
+        <v>-10.43312358856201</v>
       </c>
       <c r="F26" t="n">
-        <v>15.60197162628174</v>
+        <v>53.44844055175781</v>
       </c>
       <c r="G26" t="n">
-        <v>36.58527755737305</v>
+        <v>62.59115219116211</v>
       </c>
       <c r="H26" t="n">
-        <v>20.18265533447266</v>
+        <v>-66.64242553710938</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3499634945392609</v>
+        <v>0.4995469844341278</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4352337956428528</v>
+        <v>-1.86312064409256</v>
       </c>
       <c r="C27" t="n">
-        <v>27.62061500549316</v>
+        <v>30.13961219787598</v>
       </c>
       <c r="D27" t="n">
-        <v>38.7418098449707</v>
+        <v>38.10185623168945</v>
       </c>
       <c r="E27" t="n">
-        <v>13.19118881225586</v>
+        <v>-10.37775325775146</v>
       </c>
       <c r="F27" t="n">
-        <v>15.60197162628174</v>
+        <v>53.36977767944336</v>
       </c>
       <c r="G27" t="n">
-        <v>37.04113006591797</v>
+        <v>63.17276382446289</v>
       </c>
       <c r="H27" t="n">
-        <v>20.4545783996582</v>
+        <v>-66.40379333496094</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.3860475730895996</v>
+        <v>0.4824662429094315</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4575729274749756</v>
+        <v>-1.844166746139526</v>
       </c>
       <c r="C28" t="n">
-        <v>27.22105598449707</v>
+        <v>30.31290817260742</v>
       </c>
       <c r="D28" t="n">
-        <v>40.24690246582031</v>
+        <v>37.97348785400391</v>
       </c>
       <c r="E28" t="n">
-        <v>14.49913024902344</v>
+        <v>-10.35079669952393</v>
       </c>
       <c r="F28" t="n">
-        <v>13.79440021514893</v>
+        <v>53.24082183837891</v>
       </c>
       <c r="G28" t="n">
-        <v>37.29516220092773</v>
+        <v>63.73369598388672</v>
       </c>
       <c r="H28" t="n">
-        <v>20.0853157043457</v>
+        <v>-66.12705993652344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4246120399236679</v>
+        <v>0.4610086113214493</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4785204362869263</v>
+        <v>-1.817462570667267</v>
       </c>
       <c r="C29" t="n">
-        <v>26.79403114318848</v>
+        <v>30.53061103820801</v>
       </c>
       <c r="D29" t="n">
-        <v>41.5245475769043</v>
+        <v>37.79484176635742</v>
       </c>
       <c r="E29" t="n">
-        <v>15.2365837097168</v>
+        <v>-10.34605979919434</v>
       </c>
       <c r="F29" t="n">
-        <v>13.22833633422852</v>
+        <v>53.05913543701172</v>
       </c>
       <c r="G29" t="n">
-        <v>37.24628829956055</v>
+        <v>64.27677917480469</v>
       </c>
       <c r="H29" t="n">
-        <v>18.95427131652832</v>
+        <v>-65.80976104736328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4693423014879227</v>
+        <v>0.4349120151996613</v>
       </c>
       <c r="B30" t="n">
-        <v>0.501168617606163</v>
+        <v>-1.7823521733284</v>
       </c>
       <c r="C30" t="n">
-        <v>26.29873275756836</v>
+        <v>30.79537963867188</v>
       </c>
       <c r="D30" t="n">
-        <v>42.46045303344727</v>
+        <v>37.56378936767578</v>
       </c>
       <c r="E30" t="n">
-        <v>15.06781196594238</v>
+        <v>-10.36087894439697</v>
       </c>
       <c r="F30" t="n">
-        <v>12.61631488800049</v>
+        <v>52.82025527954102</v>
       </c>
       <c r="G30" t="n">
-        <v>36.88393783569336</v>
+        <v>64.80049896240234</v>
       </c>
       <c r="H30" t="n">
-        <v>15.59688758850098</v>
+        <v>-65.45148468017578</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.511477564573288</v>
+        <v>0.4040662670135498</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5213844597339631</v>
+        <v>-1.738325684070587</v>
       </c>
       <c r="C31" t="n">
-        <v>25.83216857910156</v>
+        <v>31.10833168029785</v>
       </c>
       <c r="D31" t="n">
-        <v>43.07968139648438</v>
+        <v>37.27889251708984</v>
       </c>
       <c r="E31" t="n">
-        <v>12.46804618835449</v>
+        <v>-10.39456367492676</v>
       </c>
       <c r="F31" t="n">
-        <v>12.07002353668213</v>
+        <v>52.52071380615234</v>
       </c>
       <c r="G31" t="n">
-        <v>36.3405647277832</v>
+        <v>65.30088043212891</v>
       </c>
       <c r="H31" t="n">
-        <v>13.00671005249023</v>
+        <v>-65.05499267578125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.53</v>
+        <v>0.3691915661096573</v>
       </c>
       <c r="B32" t="n">
-        <v>0.53</v>
+        <v>-1.685780258178711</v>
       </c>
       <c r="C32" t="n">
-        <v>25.6270694732666</v>
+        <v>31.46216011047363</v>
       </c>
       <c r="D32" t="n">
-        <v>43.53989028930664</v>
+        <v>36.94229125976562</v>
       </c>
       <c r="E32" t="n">
-        <v>9.810553550720215</v>
+        <v>-10.45570755004883</v>
       </c>
       <c r="F32" t="n">
-        <v>11.83720588684082</v>
+        <v>52.16321182250977</v>
       </c>
       <c r="G32" t="n">
-        <v>35.91814422607422</v>
+        <v>65.76460266113281</v>
       </c>
       <c r="H32" t="n">
-        <v>9.367259979248047</v>
+        <v>-64.63706207275391</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.5034070229530335</v>
+        <v>0.3311390227079392</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5149721014499664</v>
+        <v>3.549878848092125</v>
       </c>
       <c r="C33" t="n">
-        <v>25.92153358459473</v>
+        <v>31.84823036193848</v>
       </c>
       <c r="D33" t="n">
-        <v>44.06046295166016</v>
+        <v>36.56010818481445</v>
       </c>
       <c r="E33" t="n">
-        <v>5.907320022583008</v>
+        <v>-10.54804229736328</v>
       </c>
       <c r="F33" t="n">
-        <v>12.24330425262451</v>
+        <v>51.75467300415039</v>
       </c>
       <c r="G33" t="n">
-        <v>36.05953598022461</v>
+        <v>66.18471527099609</v>
       </c>
       <c r="H33" t="n">
-        <v>4.977194786071777</v>
+        <v>-64.21340942382812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4193581986427307</v>
+        <v>0.2907773113250733</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5697509320823906</v>
+        <v>-8.568577827044006</v>
       </c>
       <c r="C34" t="n">
-        <v>26.85220718383789</v>
+        <v>32.25772857666016</v>
       </c>
       <c r="D34" t="n">
-        <v>44.81106567382812</v>
+        <v>36.14013671875</v>
       </c>
       <c r="E34" t="n">
-        <v>1.215548753738403</v>
+        <v>-10.67277431488037</v>
       </c>
       <c r="F34" t="n">
-        <v>14.4575138092041</v>
+        <v>51.3032112121582</v>
       </c>
       <c r="G34" t="n">
-        <v>38.22765350341797</v>
+        <v>66.55873870849609</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4509902000427246</v>
+        <v>-63.79631805419922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.69215993797746</v>
+        <v>0.667030876385454</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6785909208886534</v>
+        <v>25.1024059614723</v>
       </c>
       <c r="C35" t="n">
-        <v>28.38434600830078</v>
+        <v>32.68334579467773</v>
       </c>
       <c r="D35" t="n">
-        <v>45.92138671875</v>
+        <v>35.69026947021484</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.352808952331543</v>
+        <v>-10.8283052444458</v>
       </c>
       <c r="F35" t="n">
-        <v>16.27376937866211</v>
+        <v>50.81634521484375</v>
       </c>
       <c r="G35" t="n">
-        <v>40.33536529541016</v>
+        <v>66.88861083984375</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.472568988800049</v>
+        <v>-63.39295959472656</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9397546583697587</v>
+        <v>0.8707335041036637</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8189126854783796</v>
+        <v>-59.56196049160141</v>
       </c>
       <c r="C36" t="n">
-        <v>31.47142028808594</v>
+        <v>33.12030410766602</v>
       </c>
       <c r="D36" t="n">
-        <v>48.589599609375</v>
+        <v>35.2166748046875</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.843827724456787</v>
+        <v>-11.01097679138184</v>
       </c>
       <c r="F36" t="n">
-        <v>18.68611526489258</v>
+        <v>50.29981231689453</v>
       </c>
       <c r="G36" t="n">
-        <v>43.22617340087891</v>
+        <v>67.17951965332031</v>
       </c>
       <c r="H36" t="n">
-        <v>-6.394634246826172</v>
+        <v>-63.00619506835938</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.011290418816163</v>
+        <v>0.9605209236738963</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9360105945343407</v>
+        <v>141.9036671344607</v>
       </c>
       <c r="C37" t="n">
-        <v>33.28260803222656</v>
+        <v>33.56562042236328</v>
       </c>
       <c r="D37" t="n">
-        <v>50.42059707641602</v>
+        <v>34.72363662719727</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.771267890930176</v>
+        <v>-11.21633911132812</v>
       </c>
       <c r="F37" t="n">
-        <v>21.48652076721191</v>
+        <v>49.7580680847168</v>
       </c>
       <c r="G37" t="n">
-        <v>46.52231979370117</v>
+        <v>67.43780517578125</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.18766975402832</v>
+        <v>-62.63649368286133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9930779756136348</v>
+        <v>0.9912546021092511</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9916341621344453</v>
+        <v>-304.4994798243903</v>
       </c>
       <c r="C38" t="n">
-        <v>35.53347015380859</v>
+        <v>34.01670837402344</v>
       </c>
       <c r="D38" t="n">
-        <v>52.68246459960938</v>
+        <v>34.21457672119141</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.771267890930176</v>
+        <v>-11.44033718109131</v>
       </c>
       <c r="F38" t="n">
-        <v>24.54178237915039</v>
+        <v>49.1946907043457</v>
       </c>
       <c r="G38" t="n">
-        <v>49.80998229980469</v>
+        <v>67.66914367675781</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.18766975402832</v>
+        <v>-62.28370666503906</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.007417263300755</v>
+        <v>0.9988014289984156</v>
       </c>
       <c r="B39" t="n">
-        <v>1.000839766595214</v>
+        <v>611.6810683141252</v>
       </c>
       <c r="C39" t="n">
-        <v>38.04576873779297</v>
+        <v>34.47091293334961</v>
       </c>
       <c r="D39" t="n">
-        <v>54.99908828735352</v>
+        <v>33.69296646118164</v>
       </c>
       <c r="E39" t="n">
-        <v>-9.731437683105469</v>
+        <v>-11.67935562133789</v>
       </c>
       <c r="F39" t="n">
-        <v>27.79990577697754</v>
+        <v>48.61300277709961</v>
       </c>
       <c r="G39" t="n">
-        <v>52.82770538330078</v>
+        <v>67.87834167480469</v>
       </c>
       <c r="H39" t="n">
-        <v>-7.972246646881104</v>
+        <v>-61.94760131835938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9885464364477499</v>
+        <v>0.9999370651537728</v>
       </c>
       <c r="B40" t="n">
-        <v>0.999712772219399</v>
+        <v>-1115.046669300508</v>
       </c>
       <c r="C40" t="n">
-        <v>40.63346481323242</v>
+        <v>34.92552185058594</v>
       </c>
       <c r="D40" t="n">
-        <v>56.98291397094727</v>
+        <v>33.16229629516602</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.007014751434326</v>
+        <v>-11.92999458312988</v>
       </c>
       <c r="F40" t="n">
-        <v>31.25284576416016</v>
+        <v>48.01618194580078</v>
       </c>
       <c r="G40" t="n">
-        <v>55.57541275024414</v>
+        <v>68.06945037841797</v>
       </c>
       <c r="H40" t="n">
-        <v>-5.601594924926758</v>
+        <v>-61.62774658203125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.022883724042426</v>
+        <v>1.000001990589664</v>
       </c>
       <c r="B41" t="n">
-        <v>1.000171396211015</v>
+        <v>1846.089208923913</v>
       </c>
       <c r="C41" t="n">
-        <v>43.12964630126953</v>
+        <v>35.37794876098633</v>
       </c>
       <c r="D41" t="n">
-        <v>58.35125732421875</v>
+        <v>32.62591171264648</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.35905933380127</v>
+        <v>-12.18891143798828</v>
       </c>
       <c r="F41" t="n">
-        <v>34.88146209716797</v>
+        <v>47.40741729736328</v>
       </c>
       <c r="G41" t="n">
-        <v>58.24571228027344</v>
+        <v>68.24596405029297</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.757727861404419</v>
+        <v>-61.32371139526367</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9449028087019788</v>
+        <v>0.9999997712839332</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9998521967772158</v>
+        <v>-2725.489956129723</v>
       </c>
       <c r="C42" t="n">
-        <v>45.44768524169922</v>
+        <v>35.82570648193359</v>
       </c>
       <c r="D42" t="n">
-        <v>58.35125732421875</v>
+        <v>32.08683395385742</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.630953788757324</v>
+        <v>-12.45292472839355</v>
       </c>
       <c r="F42" t="n">
-        <v>38.60908126831055</v>
+        <v>46.79022216796875</v>
       </c>
       <c r="G42" t="n">
-        <v>60.98226928710938</v>
+        <v>68.41075897216797</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1428477764129639</v>
+        <v>-61.03569030761719</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.152747625639968</v>
+        <v>1.000000045020935</v>
       </c>
       <c r="B43" t="n">
-        <v>1.000166948208535</v>
+        <v>3551.220665994673</v>
       </c>
       <c r="C43" t="n">
-        <v>47.52757263183594</v>
+        <v>36.26633453369141</v>
       </c>
       <c r="D43" t="n">
-        <v>59.62979888916016</v>
+        <v>31.5477466583252</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.271372318267822</v>
+        <v>-12.71909618377686</v>
       </c>
       <c r="F43" t="n">
-        <v>42.27911376953125</v>
+        <v>46.16920852661133</v>
       </c>
       <c r="G43" t="n">
-        <v>63.64759063720703</v>
+        <v>68.56582641601562</v>
       </c>
       <c r="H43" t="n">
-        <v>1.832094669342041</v>
+        <v>-60.76520156860352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.554028096255445</v>
+        <v>0.9999999875168497</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9997693180146239</v>
+        <v>-4004.938623308213</v>
       </c>
       <c r="C44" t="n">
-        <v>49.34334945678711</v>
+        <v>36.69883728027344</v>
       </c>
       <c r="D44" t="n">
-        <v>58.87858963012695</v>
+        <v>31.00944328308105</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.271372318267822</v>
+        <v>-12.98559188842773</v>
       </c>
       <c r="F44" t="n">
-        <v>45.66146087646484</v>
+        <v>45.54916381835938</v>
       </c>
       <c r="G44" t="n">
-        <v>65.79772186279297</v>
+        <v>68.71248626708984</v>
       </c>
       <c r="H44" t="n">
-        <v>3.081522941589355</v>
+        <v>-60.51450729370117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.540772793089328</v>
+        <v>1.000000004445664</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000368591155942</v>
+        <v>3843.062301778264</v>
       </c>
       <c r="C45" t="n">
-        <v>50.88942718505859</v>
+        <v>37.12287902832031</v>
       </c>
       <c r="D45" t="n">
-        <v>56.46244812011719</v>
+        <v>30.47298240661621</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.212027788162231</v>
+        <v>-13.25053119659424</v>
       </c>
       <c r="F45" t="n">
-        <v>48.49114990234375</v>
+        <v>44.93637466430664</v>
       </c>
       <c r="G45" t="n">
-        <v>65.79772186279297</v>
+        <v>68.85084533691406</v>
       </c>
       <c r="H45" t="n">
-        <v>3.081522941589355</v>
+        <v>-60.28802108764648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.20042948719719</v>
+        <v>0.9999999980751348</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9993524521018927</v>
+        <v>-3055.790117088241</v>
       </c>
       <c r="C46" t="n">
-        <v>52.0965461730957</v>
+        <v>37.53607940673828</v>
       </c>
       <c r="D46" t="n">
-        <v>54.14835357666016</v>
+        <v>29.94160652160645</v>
       </c>
       <c r="E46" t="n">
-        <v>-5.094081878662109</v>
+        <v>-13.51146602630615</v>
       </c>
       <c r="F46" t="n">
-        <v>50.51103210449219</v>
+        <v>44.33957290649414</v>
       </c>
       <c r="G46" t="n">
-        <v>66.34538269042969</v>
+        <v>68.97999572753906</v>
       </c>
       <c r="H46" t="n">
-        <v>4.122815608978271</v>
+        <v>-60.09235382080078</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-33.54296581601031</v>
+        <v>1.000000000976188</v>
       </c>
       <c r="B47" t="n">
-        <v>1.001192335817121</v>
+        <v>1949.413071058995</v>
       </c>
       <c r="C47" t="n">
-        <v>52.0965461730957</v>
+        <v>37.93490982055664</v>
       </c>
       <c r="D47" t="n">
-        <v>50.25579833984375</v>
+        <v>29.41988372802734</v>
       </c>
       <c r="E47" t="n">
-        <v>-9.953422546386719</v>
+        <v>-13.76687431335449</v>
       </c>
       <c r="F47" t="n">
-        <v>50.51103210449219</v>
+        <v>43.7646598815918</v>
       </c>
       <c r="G47" t="n">
-        <v>62.61628723144531</v>
+        <v>69.09963989257812</v>
       </c>
       <c r="H47" t="n">
-        <v>1.47193717956543</v>
+        <v>-59.93006896972656</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>123.0074925474468</v>
+        <v>0.9999999994356727</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9978112977101785</v>
+        <v>-940.2807184365136</v>
       </c>
       <c r="C48" t="n">
-        <v>53.43477630615234</v>
+        <v>38.31640625</v>
       </c>
       <c r="D48" t="n">
-        <v>44.88137054443359</v>
+        <v>28.91374015808105</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.56287384033203</v>
+        <v>-14.01546382904053</v>
       </c>
       <c r="F48" t="n">
-        <v>52.44976043701172</v>
+        <v>43.21232604980469</v>
       </c>
       <c r="G48" t="n">
-        <v>56.60286712646484</v>
+        <v>69.210693359375</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.8144980669021606</v>
+        <v>-59.79650497436523</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-384.1751252525251</v>
+        <v>1.0000000003643</v>
       </c>
       <c r="B49" t="n">
-        <v>1.003823700013231</v>
+        <v>314.4681173546441</v>
       </c>
       <c r="C49" t="n">
-        <v>51.33689117431641</v>
+        <v>38.67912673950195</v>
       </c>
       <c r="D49" t="n">
-        <v>39.20606994628906</v>
+        <v>28.42815589904785</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.46679878234863</v>
+        <v>-14.25522327423096</v>
       </c>
       <c r="F49" t="n">
-        <v>51.18045043945312</v>
+        <v>42.68035125732422</v>
       </c>
       <c r="G49" t="n">
-        <v>49.84775161743164</v>
+        <v>69.31559753417969</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.443813562393188</v>
+        <v>-59.68195724487305</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1074.200060015862</v>
+        <v>0.9999999997415485</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9937682277568245</v>
+        <v>-58.25894877588064</v>
       </c>
       <c r="C50" t="n">
-        <v>49.74092864990234</v>
+        <v>39.02272415161133</v>
       </c>
       <c r="D50" t="n">
-        <v>34.85330963134766</v>
+        <v>27.96530914306641</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.46679878234863</v>
+        <v>-14.48331165313721</v>
       </c>
       <c r="F50" t="n">
-        <v>49.50129699707031</v>
+        <v>42.16981887817383</v>
       </c>
       <c r="G50" t="n">
-        <v>44.52861785888672</v>
+        <v>69.41623687744141</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.443813562393188</v>
+        <v>-59.58099746704102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-2719.983764569248</v>
+        <v>1.000000000198889</v>
       </c>
       <c r="B51" t="n">
-        <v>1.009547498212916</v>
+        <v>3.985509267483209</v>
       </c>
       <c r="C51" t="n">
-        <v>48.17007446289062</v>
+        <v>39.34586715698242</v>
       </c>
       <c r="D51" t="n">
-        <v>32.60281753540039</v>
+        <v>27.52589225769043</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.70123481750488</v>
+        <v>-14.69736194610596</v>
       </c>
       <c r="F51" t="n">
-        <v>48.10191345214844</v>
+        <v>41.6870231628418</v>
       </c>
       <c r="G51" t="n">
-        <v>41.61091613769531</v>
+        <v>69.51213836669922</v>
       </c>
       <c r="H51" t="n">
-        <v>1.297515392303467</v>
+        <v>-59.49745559692383</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1359.894392090035</v>
+        <v>0.9999999998358482</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9861927042389994</v>
+        <v>1.983331247380155</v>
       </c>
       <c r="C52" t="n">
-        <v>38.75341033935547</v>
+        <v>39.64592742919922</v>
       </c>
       <c r="D52" t="n">
-        <v>28.17514419555664</v>
+        <v>27.11117172241211</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.05789375305176</v>
+        <v>-14.89572620391846</v>
       </c>
       <c r="F52" t="n">
-        <v>34.39659118652344</v>
+        <v>41.23821640014648</v>
       </c>
       <c r="G52" t="n">
-        <v>36.10720062255859</v>
+        <v>69.60213470458984</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.648133397102356</v>
+        <v>-59.43792343139648</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-680.0201140491131</v>
+        <v>-0.4645205861330032</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1568239763379097</v>
+        <v>1.983331247380155</v>
       </c>
       <c r="C53" t="n">
-        <v>35.9320068359375</v>
+        <v>39.92076110839844</v>
       </c>
       <c r="D53" t="n">
-        <v>25.90976333618164</v>
+        <v>26.72349739074707</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.22920799255371</v>
+        <v>-15.07673835754395</v>
       </c>
       <c r="F53" t="n">
-        <v>29.37184906005859</v>
+        <v>40.82194519042969</v>
       </c>
       <c r="G53" t="n">
-        <v>36.10720062255859</v>
+        <v>69.68777465820312</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5793798565864563</v>
+        <v>-59.40068817138672</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-340.1967766343536</v>
+        <v>-0.4909798091650009</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06706411778926849</v>
+        <v>0.04674127086997033</v>
       </c>
       <c r="C54" t="n">
-        <v>35.9320068359375</v>
+        <v>40.189208984375</v>
       </c>
       <c r="D54" t="n">
-        <v>25.90976333618164</v>
+        <v>26.3587818145752</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.181601524353027</v>
+        <v>-15.23126220703125</v>
       </c>
       <c r="F54" t="n">
-        <v>29.37184906005859</v>
+        <v>40.37570571899414</v>
       </c>
       <c r="G54" t="n">
-        <v>40.11625289916992</v>
+        <v>69.79701232910156</v>
       </c>
       <c r="H54" t="n">
-        <v>3.180503129959106</v>
+        <v>-59.30298233032227</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-170.363114522645</v>
+        <v>-0.5147150182724</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1114513385295868</v>
+        <v>0.1076868690550327</v>
       </c>
       <c r="C55" t="n">
-        <v>35.630859375</v>
+        <v>40.43001937866211</v>
       </c>
       <c r="D55" t="n">
-        <v>25.89208030700684</v>
+        <v>26.02416038513184</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.645411014556885</v>
+        <v>-15.37374401092529</v>
       </c>
       <c r="F55" t="n">
-        <v>31.74197769165039</v>
+        <v>39.96105194091797</v>
       </c>
       <c r="G55" t="n">
-        <v>43.26409912109375</v>
+        <v>69.90036010742188</v>
       </c>
       <c r="H55" t="n">
-        <v>6.005832672119141</v>
+        <v>-59.22306060791016</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-85.51330019888734</v>
+        <v>-0.5358750677108765</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.3017232483625412</v>
+        <v>0.1640774780511856</v>
       </c>
       <c r="C56" t="n">
-        <v>37.35839462280273</v>
+        <v>40.64470291137695</v>
       </c>
       <c r="D56" t="n">
-        <v>27.48486709594727</v>
+        <v>25.71967124938965</v>
       </c>
       <c r="E56" t="n">
-        <v>-4.181203842163086</v>
+        <v>-15.50413227081299</v>
       </c>
       <c r="F56" t="n">
-        <v>35.13711166381836</v>
+        <v>39.57738876342773</v>
       </c>
       <c r="G56" t="n">
-        <v>45.24698638916016</v>
+        <v>69.99872589111328</v>
       </c>
       <c r="H56" t="n">
-        <v>8.425971984863281</v>
+        <v>-59.15814208984375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-43.14644594399857</v>
+        <v>-0.5545407342910766</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.4578650128841401</v>
+        <v>0.2159647008776665</v>
       </c>
       <c r="C57" t="n">
-        <v>38.84254837036133</v>
+        <v>40.83407974243164</v>
       </c>
       <c r="D57" t="n">
-        <v>28.97357749938965</v>
+        <v>25.44484710693359</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.434081792831421</v>
+        <v>-15.62246608734131</v>
       </c>
       <c r="F57" t="n">
-        <v>38.22810745239258</v>
+        <v>39.224365234375</v>
       </c>
       <c r="G57" t="n">
-        <v>45.24698638916016</v>
+        <v>70.09249114990234</v>
       </c>
       <c r="H57" t="n">
-        <v>10.13196754455566</v>
+        <v>-59.10659027099609</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-21.99653424307072</v>
+        <v>-0.570802366733551</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5609942865371704</v>
+        <v>0.2633905607461929</v>
       </c>
       <c r="C58" t="n">
-        <v>40.12818908691406</v>
+        <v>40.99906539916992</v>
       </c>
       <c r="D58" t="n">
-        <v>28.97357749938965</v>
+        <v>25.19892883300781</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.434081792831421</v>
+        <v>-15.72880077362061</v>
       </c>
       <c r="F58" t="n">
-        <v>40.40447998046875</v>
+        <v>38.90169525146484</v>
       </c>
       <c r="G58" t="n">
-        <v>43.36338043212891</v>
+        <v>70.18207550048828</v>
       </c>
       <c r="H58" t="n">
-        <v>10.13196754455566</v>
+        <v>-59.06702041625977</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-11.41341263733488</v>
+        <v>-0.58478133559227</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.6076861262321472</v>
+        <v>0.3064089035987854</v>
       </c>
       <c r="C59" t="n">
-        <v>40.87042236328125</v>
+        <v>41.14089202880859</v>
       </c>
       <c r="D59" t="n">
-        <v>30.32114791870117</v>
+        <v>24.98067855834961</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.074871063232422</v>
+        <v>-15.82329559326172</v>
       </c>
       <c r="F59" t="n">
-        <v>41.46860504150391</v>
+        <v>38.60901260375977</v>
       </c>
       <c r="G59" t="n">
-        <v>39.51853942871094</v>
+        <v>70.26789093017578</v>
       </c>
       <c r="H59" t="n">
-        <v>11.92928791046143</v>
+        <v>-59.03834915161133</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-6.074465604832679</v>
+        <v>-0.5966450071334839</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.6059050559997559</v>
+        <v>0.3451010274887085</v>
       </c>
       <c r="C60" t="n">
-        <v>40.68958282470703</v>
+        <v>41.26125717163086</v>
       </c>
       <c r="D60" t="n">
-        <v>27.24909591674805</v>
+        <v>24.78825187683105</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.304449081420898</v>
+        <v>-15.90608406066895</v>
       </c>
       <c r="F60" t="n">
-        <v>41.46860504150391</v>
+        <v>38.34576416015625</v>
       </c>
       <c r="G60" t="n">
-        <v>34.90322113037109</v>
+        <v>70.35048675537109</v>
       </c>
       <c r="H60" t="n">
-        <v>11.32400798797607</v>
+        <v>-59.01935195922852</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-3.34763404538776</v>
+        <v>-0.6065072333812714</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5732674336433411</v>
+        <v>0.3795157080888749</v>
       </c>
       <c r="C61" t="n">
-        <v>39.64016723632812</v>
+        <v>41.3613166809082</v>
       </c>
       <c r="D61" t="n">
-        <v>25.70441055297852</v>
+        <v>24.6201171875</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.425769805908203</v>
+        <v>-15.97741222381592</v>
       </c>
       <c r="F61" t="n">
-        <v>41.65076065063477</v>
+        <v>38.11161804199219</v>
       </c>
       <c r="G61" t="n">
-        <v>30.89745330810547</v>
+        <v>70.43026733398438</v>
       </c>
       <c r="H61" t="n">
-        <v>10.3312520980835</v>
+        <v>-59.00940704345703</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.951278164637812</v>
+        <v>-0.6145805549621582</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.5285264629125596</v>
+        <v>0.4098233759403229</v>
       </c>
       <c r="C62" t="n">
-        <v>38.36991500854492</v>
+        <v>41.4432258605957</v>
       </c>
       <c r="D62" t="n">
-        <v>25.70441055297852</v>
+        <v>24.47387313842773</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.645040988922119</v>
+        <v>-16.03753471374512</v>
       </c>
       <c r="F62" t="n">
-        <v>40.44172668457031</v>
+        <v>37.90541458129883</v>
       </c>
       <c r="G62" t="n">
-        <v>28.50191497802734</v>
+        <v>70.50782012939453</v>
       </c>
       <c r="H62" t="n">
-        <v>9.385540008544922</v>
+        <v>-59.00706100463867</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1.951278164637812</v>
+        <v>-0.6210009372234345</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4808694082498551</v>
+        <v>0.4361468547582626</v>
       </c>
       <c r="C63" t="n">
-        <v>37.64042282104492</v>
+        <v>41.50836563110352</v>
       </c>
       <c r="D63" t="n">
-        <v>24.06240463256836</v>
+        <v>24.34774017333984</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.763439178466797</v>
+        <v>-16.08677101135254</v>
       </c>
       <c r="F63" t="n">
-        <v>39.15389251708984</v>
+        <v>37.726318359375</v>
       </c>
       <c r="G63" t="n">
-        <v>28.50191497802734</v>
+        <v>70.58356475830078</v>
       </c>
       <c r="H63" t="n">
-        <v>8.923174858093262</v>
+        <v>-59.0115966796875</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.5626350319385529</v>
+        <v>-0.6259433913230896</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.431469002366066</v>
+        <v>0.4586997276544571</v>
       </c>
       <c r="C64" t="n">
-        <v>37.72582626342773</v>
+        <v>41.55850982666016</v>
       </c>
       <c r="D64" t="n">
-        <v>26.67639541625977</v>
+        <v>24.23957633972168</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.155473709106445</v>
+        <v>-16.12558174133301</v>
       </c>
       <c r="F64" t="n">
-        <v>37.81894683837891</v>
+        <v>37.5728759765625</v>
       </c>
       <c r="G64" t="n">
-        <v>27.22711372375488</v>
+        <v>70.65795135498047</v>
       </c>
       <c r="H64" t="n">
-        <v>9.181017875671387</v>
+        <v>-59.02190780639648</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.6171645283699035</v>
+        <v>-0.6295589196681977</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3812664830684662</v>
+        <v>0.4776978838443756</v>
       </c>
       <c r="C65" t="n">
-        <v>38.32963180541992</v>
+        <v>41.59519195556641</v>
       </c>
       <c r="D65" t="n">
-        <v>28.18755531311035</v>
+        <v>24.14764785766602</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6283907294273376</v>
+        <v>-16.15446853637695</v>
       </c>
       <c r="F65" t="n">
-        <v>36.46232604980469</v>
+        <v>37.44361877441406</v>
       </c>
       <c r="G65" t="n">
-        <v>29.05596351623535</v>
+        <v>70.73123931884766</v>
       </c>
       <c r="H65" t="n">
-        <v>10.07996082305908</v>
+        <v>-59.03718185424805</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.6716454386711121</v>
+        <v>-0.6319573307037354</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3327674162387848</v>
+        <v>0.4933414804935455</v>
       </c>
       <c r="C66" t="n">
-        <v>38.93289947509766</v>
+        <v>41.61952590942383</v>
       </c>
       <c r="D66" t="n">
-        <v>29.46110725402832</v>
+        <v>24.07053756713867</v>
       </c>
       <c r="E66" t="n">
-        <v>2.1742844581604</v>
+        <v>-16.17400741577148</v>
       </c>
       <c r="F66" t="n">
-        <v>35.15173721313477</v>
+        <v>37.33718490600586</v>
       </c>
       <c r="G66" t="n">
-        <v>30.72871589660645</v>
+        <v>70.80354309082031</v>
       </c>
       <c r="H66" t="n">
-        <v>11.36575603485107</v>
+        <v>-59.05691909790039</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.689525260925293</v>
+        <v>-0.6332608795166016</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2872552275657654</v>
+        <v>0.5058743959665298</v>
       </c>
       <c r="C67" t="n">
-        <v>39.13088226318359</v>
+        <v>41.63275146484375</v>
       </c>
       <c r="D67" t="n">
-        <v>29.46110725402832</v>
+        <v>24.00679969787598</v>
       </c>
       <c r="E67" t="n">
-        <v>3.297256946563721</v>
+        <v>-16.18489265441895</v>
       </c>
       <c r="F67" t="n">
-        <v>33.9218635559082</v>
+        <v>37.25191497802734</v>
       </c>
       <c r="G67" t="n">
-        <v>31.93523406982422</v>
+        <v>70.87492370605469</v>
       </c>
       <c r="H67" t="n">
-        <v>12.78410816192627</v>
+        <v>-59.08052444458008</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.6565076053142548</v>
+        <v>-0.6335805118083954</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2427374276518822</v>
+        <v>0.5155344116687774</v>
       </c>
       <c r="C68" t="n">
-        <v>38.76527786254883</v>
+        <v>41.63599395751953</v>
       </c>
       <c r="D68" t="n">
-        <v>30.84030723571777</v>
+        <v>23.95522117614746</v>
       </c>
       <c r="E68" t="n">
-        <v>3.990348339080811</v>
+        <v>-16.18780136108398</v>
       </c>
       <c r="F68" t="n">
-        <v>32.7188606262207</v>
+        <v>37.18619155883789</v>
       </c>
       <c r="G68" t="n">
-        <v>32.72170639038086</v>
+        <v>70.94535064697266</v>
       </c>
       <c r="H68" t="n">
-        <v>14.16335201263428</v>
+        <v>-59.10752868652344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.5782817244529724</v>
+        <v>-0.633018012046814</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1942572677135468</v>
+        <v>0.5225664800405503</v>
       </c>
       <c r="C69" t="n">
-        <v>37.89908218383789</v>
+        <v>41.63028717041016</v>
       </c>
       <c r="D69" t="n">
-        <v>30.35566139221191</v>
+        <v>23.91459846496582</v>
       </c>
       <c r="E69" t="n">
-        <v>4.369537830352783</v>
+        <v>-16.18347930908203</v>
       </c>
       <c r="F69" t="n">
-        <v>31.40878295898438</v>
+        <v>37.13834762573242</v>
       </c>
       <c r="G69" t="n">
-        <v>33.23163223266602</v>
+        <v>71.01470947265625</v>
       </c>
       <c r="H69" t="n">
-        <v>15.39427661895752</v>
+        <v>-59.13748931884766</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.4715419453382492</v>
+        <v>-0.6316422474384308</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1364069819450378</v>
+        <v>0.5271836787462235</v>
       </c>
       <c r="C70" t="n">
-        <v>36.7171516418457</v>
+        <v>41.61632919311523</v>
       </c>
       <c r="D70" t="n">
-        <v>29.77163314819336</v>
+        <v>23.8841724395752</v>
       </c>
       <c r="E70" t="n">
-        <v>4.620995044708252</v>
+        <v>-16.17268753051758</v>
       </c>
       <c r="F70" t="n">
-        <v>29.84549713134766</v>
+        <v>37.10693359375</v>
       </c>
       <c r="G70" t="n">
-        <v>33.57363891601562</v>
+        <v>71.08282470703125</v>
       </c>
       <c r="H70" t="n">
-        <v>16.39856338500977</v>
+        <v>-59.17036437988281</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.3542531001567841</v>
+        <v>-0.6295250546932221</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.06594030290842057</v>
+        <v>0.5295912510156632</v>
       </c>
       <c r="C71" t="n">
-        <v>35.41841125488281</v>
+        <v>41.5948486328125</v>
       </c>
       <c r="D71" t="n">
-        <v>29.50789642333984</v>
+        <v>23.86313819885254</v>
       </c>
       <c r="E71" t="n">
-        <v>4.932131290435791</v>
+        <v>-16.1561393737793</v>
       </c>
       <c r="F71" t="n">
-        <v>26.82819938659668</v>
+        <v>37.09055328369141</v>
       </c>
       <c r="G71" t="n">
-        <v>33.79530334472656</v>
+        <v>71.14939117431641</v>
       </c>
       <c r="H71" t="n">
-        <v>17.12994575500488</v>
+        <v>-59.20601272583008</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.2386712771654129</v>
+        <v>-0.6267341005802155</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01643993789330125</v>
+        <v>0.53</v>
       </c>
       <c r="C72" t="n">
-        <v>34.13857269287109</v>
+        <v>41.56653213500977</v>
       </c>
       <c r="D72" t="n">
-        <v>29.79030799865723</v>
+        <v>23.8507194519043</v>
       </c>
       <c r="E72" t="n">
-        <v>5.430602550506592</v>
+        <v>-16.13459777832031</v>
       </c>
       <c r="F72" t="n">
-        <v>25.05810165405273</v>
+        <v>37.08777236938477</v>
       </c>
       <c r="G72" t="n">
-        <v>33.91798782348633</v>
+        <v>71.21421051025391</v>
       </c>
       <c r="H72" t="n">
-        <v>17.58802795410156</v>
+        <v>-59.24434280395508</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.1314612345397473</v>
+        <v>-0.623333261013031</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1062566819787026</v>
+        <v>0.5285904335975647</v>
       </c>
       <c r="C73" t="n">
-        <v>32.95143508911133</v>
+        <v>41.53202819824219</v>
       </c>
       <c r="D73" t="n">
-        <v>30.62094497680664</v>
+        <v>23.84624671936035</v>
       </c>
       <c r="E73" t="n">
-        <v>6.12549352645874</v>
+        <v>-16.10869979858398</v>
       </c>
       <c r="F73" t="n">
-        <v>22.95653915405273</v>
+        <v>37.09736251831055</v>
       </c>
       <c r="G73" t="n">
-        <v>33.98350143432617</v>
+        <v>71.27700805664062</v>
       </c>
       <c r="H73" t="n">
-        <v>17.86088371276855</v>
+        <v>-59.28525161743164</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.034417859390378</v>
+        <v>-0.6193797147274017</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1962922304868698</v>
+        <v>0.5255498516559601</v>
       </c>
       <c r="C74" t="n">
-        <v>31.87687301635742</v>
+        <v>41.49191665649414</v>
       </c>
       <c r="D74" t="n">
-        <v>31.84409332275391</v>
+        <v>23.84902191162109</v>
       </c>
       <c r="E74" t="n">
-        <v>6.987625598907471</v>
+        <v>-16.07912063598633</v>
       </c>
       <c r="F74" t="n">
-        <v>20.79701995849609</v>
+        <v>37.11804962158203</v>
       </c>
       <c r="G74" t="n">
-        <v>34.07046508789062</v>
+        <v>71.3375244140625</v>
       </c>
       <c r="H74" t="n">
-        <v>18.1189022064209</v>
+        <v>-59.32868194580078</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.05263351589441299</v>
+        <v>-0.6149301981925964</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278351234793663</v>
+        <v>0.5210414189100265</v>
       </c>
       <c r="C75" t="n">
-        <v>30.9129524230957</v>
+        <v>41.44677352905273</v>
       </c>
       <c r="D75" t="n">
-        <v>33.24364852905273</v>
+        <v>23.85844802856445</v>
       </c>
       <c r="E75" t="n">
-        <v>8.002773284912109</v>
+        <v>-16.04644966125488</v>
       </c>
       <c r="F75" t="n">
-        <v>18.81434631347656</v>
+        <v>37.14872360229492</v>
       </c>
       <c r="G75" t="n">
-        <v>34.25839614868164</v>
+        <v>71.39557647705078</v>
       </c>
       <c r="H75" t="n">
-        <v>18.49376106262207</v>
+        <v>-59.3745231628418</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1267539319396019</v>
+        <v>-0.6100348138809204</v>
       </c>
       <c r="B76" t="n">
-        <v>0.345176939368248</v>
+        <v>0.515223782658577</v>
       </c>
       <c r="C76" t="n">
-        <v>30.09221649169922</v>
+        <v>41.3971061706543</v>
       </c>
       <c r="D76" t="n">
-        <v>34.66004180908203</v>
+        <v>23.87394714355469</v>
       </c>
       <c r="E76" t="n">
-        <v>9.182960510253906</v>
+        <v>-16.01127433776855</v>
       </c>
       <c r="F76" t="n">
-        <v>17.17961311340332</v>
+        <v>37.18830490112305</v>
       </c>
       <c r="G76" t="n">
-        <v>34.60054397583008</v>
+        <v>71.45089721679688</v>
       </c>
       <c r="H76" t="n">
-        <v>19.00377655029297</v>
+        <v>-59.42269134521484</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1851622000336647</v>
+        <v>-0.6047438538074493</v>
       </c>
       <c r="B77" t="n">
-        <v>0.392795422077179</v>
+        <v>0.5082472187280656</v>
       </c>
       <c r="C77" t="n">
-        <v>29.44546127319336</v>
+        <v>41.34342575073242</v>
       </c>
       <c r="D77" t="n">
-        <v>36.05115509033203</v>
+        <v>23.89496231079102</v>
       </c>
       <c r="E77" t="n">
-        <v>10.53608512878418</v>
+        <v>-15.97411727905273</v>
       </c>
       <c r="F77" t="n">
-        <v>15.95424842834473</v>
+        <v>37.23577117919922</v>
       </c>
       <c r="G77" t="n">
-        <v>35.06935882568359</v>
+        <v>71.50337982177734</v>
       </c>
       <c r="H77" t="n">
-        <v>19.48480796813965</v>
+        <v>-59.47305679321289</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.2258836162090302</v>
+        <v>-0.5991152548789979</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4229918599128724</v>
+        <v>0.5002597284317016</v>
       </c>
       <c r="C78" t="n">
-        <v>28.99455261230469</v>
+        <v>41.28631973266602</v>
       </c>
       <c r="D78" t="n">
-        <v>37.42462539672852</v>
+        <v>23.92085075378418</v>
       </c>
       <c r="E78" t="n">
-        <v>11.9438533782959</v>
+        <v>-15.93543720245361</v>
       </c>
       <c r="F78" t="n">
-        <v>15.95424842834473</v>
+        <v>37.29011535644531</v>
       </c>
       <c r="G78" t="n">
-        <v>35.55921173095703</v>
+        <v>71.55293273925781</v>
       </c>
       <c r="H78" t="n">
-        <v>19.72924613952637</v>
+        <v>-59.52525329589844</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2558072546124459</v>
+        <v>-0.593191158771515</v>
       </c>
       <c r="B79" t="n">
-        <v>0.441812698841095</v>
+        <v>0.4913964557647705</v>
       </c>
       <c r="C79" t="n">
-        <v>28.6632080078125</v>
+        <v>41.22621536254883</v>
       </c>
       <c r="D79" t="n">
-        <v>38.75397872924805</v>
+        <v>23.95111083984375</v>
       </c>
       <c r="E79" t="n">
-        <v>13.2142219543457</v>
+        <v>-15.89568901062012</v>
       </c>
       <c r="F79" t="n">
-        <v>14.22028827667236</v>
+        <v>37.35041809082031</v>
       </c>
       <c r="G79" t="n">
-        <v>35.90646743774414</v>
+        <v>71.5994873046875</v>
       </c>
       <c r="H79" t="n">
-        <v>19.48108291625977</v>
+        <v>-59.57915115356445</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.2836674672365189</v>
+        <v>-0.5870132648944855</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4577387773990632</v>
+        <v>0.4817628180980683</v>
       </c>
       <c r="C80" t="n">
-        <v>28.35471153259277</v>
+        <v>41.16353607177734</v>
       </c>
       <c r="D80" t="n">
-        <v>39.9371223449707</v>
+        <v>23.98528099060059</v>
       </c>
       <c r="E80" t="n">
-        <v>14.04343795776367</v>
+        <v>-15.85523891448975</v>
       </c>
       <c r="F80" t="n">
-        <v>13.78991794586182</v>
+        <v>37.41596221923828</v>
       </c>
       <c r="G80" t="n">
-        <v>35.99247741699219</v>
+        <v>71.64300537109375</v>
       </c>
       <c r="H80" t="n">
-        <v>18.62074851989746</v>
+        <v>-59.63455200195312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.317411482334137</v>
+        <v>-0.5806495559215546</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4762903392314911</v>
+        <v>0.4715242230892182</v>
       </c>
       <c r="C81" t="n">
-        <v>27.98106384277344</v>
+        <v>41.09897232055664</v>
       </c>
       <c r="D81" t="n">
-        <v>40.86770629882812</v>
+        <v>24.02258682250977</v>
       </c>
       <c r="E81" t="n">
-        <v>14.09415626525879</v>
+        <v>-15.81442451477051</v>
       </c>
       <c r="F81" t="n">
-        <v>13.28859996795654</v>
+        <v>37.48562240600586</v>
       </c>
       <c r="G81" t="n">
-        <v>35.77731704711914</v>
+        <v>71.68367767333984</v>
       </c>
       <c r="H81" t="n">
-        <v>15.88971519470215</v>
+        <v>-59.6907844543457</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3578579825162888</v>
+        <v>-0.5741611278057098</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4961593180894852</v>
+        <v>0.4608202373981476</v>
       </c>
       <c r="C82" t="n">
-        <v>27.53319931030273</v>
+        <v>41.03314208984375</v>
       </c>
       <c r="D82" t="n">
-        <v>41.52560424804688</v>
+        <v>24.06235694885254</v>
       </c>
       <c r="E82" t="n">
-        <v>11.95227241516113</v>
+        <v>-15.77354145050049</v>
       </c>
       <c r="F82" t="n">
-        <v>12.75168132781982</v>
+        <v>37.55844879150391</v>
       </c>
       <c r="G82" t="n">
-        <v>35.3460578918457</v>
+        <v>71.72159576416016</v>
       </c>
       <c r="H82" t="n">
-        <v>13.65417671203613</v>
+        <v>-59.74721145629883</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3913508534431458</v>
+        <v>-0.5675090610980987</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5094585549831391</v>
+        <v>0.4496121942996979</v>
       </c>
       <c r="C83" t="n">
-        <v>27.16233253479004</v>
+        <v>40.96565246582031</v>
       </c>
       <c r="D83" t="n">
-        <v>42.0261344909668</v>
+        <v>24.10498237609863</v>
       </c>
       <c r="E83" t="n">
-        <v>9.521560668945312</v>
+        <v>-15.73288345336914</v>
       </c>
       <c r="F83" t="n">
-        <v>12.39229679107666</v>
+        <v>37.63470458984375</v>
       </c>
       <c r="G83" t="n">
-        <v>34.95891571044922</v>
+        <v>71.75645446777344</v>
       </c>
       <c r="H83" t="n">
-        <v>10.37976169586182</v>
+        <v>-59.80481719970703</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3955601876974106</v>
+        <v>-0.5607171750068665</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5032474279403687</v>
+        <v>0.4379606527090073</v>
       </c>
       <c r="C84" t="n">
-        <v>27.11572265625</v>
+        <v>40.89674377441406</v>
       </c>
       <c r="D84" t="n">
-        <v>42.57276153564453</v>
+        <v>24.15016746520996</v>
       </c>
       <c r="E84" t="n">
-        <v>5.82017707824707</v>
+        <v>-15.69266796112061</v>
       </c>
       <c r="F84" t="n">
-        <v>12.56013965606689</v>
+        <v>37.7139778137207</v>
       </c>
       <c r="G84" t="n">
-        <v>35.05033111572266</v>
+        <v>71.78821563720703</v>
       </c>
       <c r="H84" t="n">
-        <v>6.231680870056152</v>
+        <v>-59.86362838745117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.3489091628789902</v>
+        <v>1.024709615483968</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5616752168536301</v>
+        <v>0.5482944020319546</v>
       </c>
       <c r="C85" t="n">
-        <v>27.63228988647461</v>
+        <v>40.82678604125977</v>
       </c>
       <c r="D85" t="n">
-        <v>43.32842254638672</v>
+        <v>24.19747352600098</v>
       </c>
       <c r="E85" t="n">
-        <v>1.266692399978638</v>
+        <v>-15.65306663513184</v>
       </c>
       <c r="F85" t="n">
-        <v>13.52177238464355</v>
+        <v>37.795654296875</v>
       </c>
       <c r="G85" t="n">
-        <v>37.17925262451172</v>
+        <v>71.81707000732422</v>
       </c>
       <c r="H85" t="n">
-        <v>1.755242109298706</v>
+        <v>-59.92328643798828</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.697689461151503</v>
+        <v>1.024709615483968</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6689194212647045</v>
+        <v>0.6474383803045838</v>
       </c>
       <c r="C86" t="n">
-        <v>28.77084732055664</v>
+        <v>40.75611877441406</v>
       </c>
       <c r="D86" t="n">
-        <v>44.40105056762695</v>
+        <v>24.24650382995605</v>
       </c>
       <c r="E86" t="n">
-        <v>-3.179390907287598</v>
+        <v>-15.61420059204102</v>
       </c>
       <c r="F86" t="n">
-        <v>16.59519577026367</v>
+        <v>37.87923431396484</v>
       </c>
       <c r="G86" t="n">
-        <v>39.32229232788086</v>
+        <v>71.84322357177734</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.237353801727295</v>
+        <v>-59.98356628417969</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9420953160275408</v>
+        <v>1.004360914404689</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8078920195566212</v>
+        <v>0.7331368459190599</v>
       </c>
       <c r="C87" t="n">
-        <v>30.37167167663574</v>
+        <v>40.6850471496582</v>
       </c>
       <c r="D87" t="n">
-        <v>46.91280364990234</v>
+        <v>24.29689979553223</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.486773014068604</v>
+        <v>-15.57614803314209</v>
       </c>
       <c r="F87" t="n">
-        <v>18.65243911743164</v>
+        <v>37.96428298950195</v>
       </c>
       <c r="G87" t="n">
-        <v>42.22866058349609</v>
+        <v>71.86680603027344</v>
       </c>
       <c r="H87" t="n">
-        <v>-5.197760581970215</v>
+        <v>-60.04412841796875</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.007540063871835</v>
+        <v>1.004360914404689</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9269014661859626</v>
+        <v>0.8043785917728988</v>
       </c>
       <c r="C88" t="n">
-        <v>33.33246612548828</v>
+        <v>40.61381530761719</v>
       </c>
       <c r="D88" t="n">
-        <v>48.60111999511719</v>
+        <v>24.34836959838867</v>
       </c>
       <c r="E88" t="n">
-        <v>-8.182005882263184</v>
+        <v>-15.53898239135742</v>
       </c>
       <c r="F88" t="n">
-        <v>21.13196563720703</v>
+        <v>38.0504150390625</v>
       </c>
       <c r="G88" t="n">
-        <v>45.46441650390625</v>
+        <v>71.88798522949219</v>
       </c>
       <c r="H88" t="n">
-        <v>-6.930350780487061</v>
+        <v>-60.10480499267578</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9962622614157711</v>
+        <v>0.9828611422207668</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9869959147333046</v>
+        <v>0.8613121599032801</v>
       </c>
       <c r="C89" t="n">
-        <v>35.04504013061523</v>
+        <v>40.54270172119141</v>
       </c>
       <c r="D89" t="n">
-        <v>50.66244888305664</v>
+        <v>24.40058135986328</v>
       </c>
       <c r="E89" t="n">
-        <v>-8.182005882263184</v>
+        <v>-15.50275421142578</v>
       </c>
       <c r="F89" t="n">
-        <v>23.79219055175781</v>
+        <v>38.13724517822266</v>
       </c>
       <c r="G89" t="n">
-        <v>48.57342529296875</v>
+        <v>71.906982421875</v>
       </c>
       <c r="H89" t="n">
-        <v>-6.930350780487061</v>
+        <v>-60.16536331176758</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.003351243067106</v>
+        <v>0.9828611422207668</v>
       </c>
       <c r="B90" t="n">
-        <v>1.000266070592651</v>
+        <v>0.905029015743356</v>
       </c>
       <c r="C90" t="n">
-        <v>37.11256408691406</v>
+        <v>40.4719352722168</v>
       </c>
       <c r="D90" t="n">
-        <v>52.777099609375</v>
+        <v>24.45326614379883</v>
       </c>
       <c r="E90" t="n">
-        <v>-8.697599411010742</v>
+        <v>-15.46750545501709</v>
       </c>
       <c r="F90" t="n">
-        <v>26.5361328125</v>
+        <v>38.22443008422852</v>
       </c>
       <c r="G90" t="n">
-        <v>51.24121475219727</v>
+        <v>71.92394256591797</v>
       </c>
       <c r="H90" t="n">
-        <v>-6.545940399169922</v>
+        <v>-60.22554779052734</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9956119624126467</v>
+        <v>0.9637908294159463</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999420251476517</v>
+        <v>0.9372629701651608</v>
       </c>
       <c r="C91" t="n">
-        <v>39.27211761474609</v>
+        <v>40.40172576904297</v>
       </c>
       <c r="D91" t="n">
-        <v>54.64056396484375</v>
+        <v>24.50617027282715</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.919290542602539</v>
+        <v>-15.43325710296631</v>
       </c>
       <c r="F91" t="n">
-        <v>29.36209487915039</v>
+        <v>38.31166076660156</v>
       </c>
       <c r="G91" t="n">
-        <v>53.41510772705078</v>
+        <v>71.93901062011719</v>
       </c>
       <c r="H91" t="n">
-        <v>-4.342994213104248</v>
+        <v>-60.28518676757812</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.007429105938605</v>
+        <v>0.9637908294159463</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000024403555678</v>
+        <v>0.9600696598945152</v>
       </c>
       <c r="C92" t="n">
-        <v>41.30249786376953</v>
+        <v>40.33226013183594</v>
       </c>
       <c r="D92" t="n">
-        <v>56.02887344360352</v>
+        <v>24.5590705871582</v>
       </c>
       <c r="E92" t="n">
-        <v>-4.301352500915527</v>
+        <v>-15.40002536773682</v>
       </c>
       <c r="F92" t="n">
-        <v>32.29379272460938</v>
+        <v>38.39863586425781</v>
       </c>
       <c r="G92" t="n">
-        <v>55.30809783935547</v>
+        <v>71.95238494873047</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.777125239372253</v>
+        <v>-60.34408187866211</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9850155514192568</v>
+        <v>0.9501042725897478</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999845522479412</v>
+        <v>0.9755429270013836</v>
       </c>
       <c r="C93" t="n">
-        <v>43.13491821289062</v>
+        <v>40.26372146606445</v>
       </c>
       <c r="D93" t="n">
-        <v>56.02887344360352</v>
+        <v>24.61176300048828</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.534652471542358</v>
+        <v>-15.36782169342041</v>
       </c>
       <c r="F93" t="n">
-        <v>35.319580078125</v>
+        <v>38.48509979248047</v>
       </c>
       <c r="G93" t="n">
-        <v>57.22671127319336</v>
+        <v>71.96420288085938</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5814427733421326</v>
+        <v>-60.40209579467773</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.034396758797747</v>
+        <v>0.9501042725897478</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000013143694534</v>
+        <v>0.9856014631748578</v>
       </c>
       <c r="C94" t="n">
-        <v>44.75842666625977</v>
+        <v>40.19626235961914</v>
       </c>
       <c r="D94" t="n">
-        <v>57.61953735351562</v>
+        <v>24.66406059265137</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.9812861680984497</v>
+        <v>-15.33664894104004</v>
       </c>
       <c r="F94" t="n">
-        <v>38.36809539794922</v>
+        <v>38.57080078125</v>
       </c>
       <c r="G94" t="n">
-        <v>59.29928970336914</v>
+        <v>71.97461700439453</v>
       </c>
       <c r="H94" t="n">
-        <v>2.381116628646851</v>
+        <v>-60.45907974243164</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9127512836094659</v>
+        <v>0.9433370209818013</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999859981778464</v>
+        <v>0.9918614680958627</v>
       </c>
       <c r="C95" t="n">
-        <v>46.21663665771484</v>
+        <v>40.13001251220703</v>
       </c>
       <c r="D95" t="n">
-        <v>57.25435256958008</v>
+        <v>24.71580123901367</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.9812861680984497</v>
+        <v>-15.30650615692139</v>
       </c>
       <c r="F95" t="n">
-        <v>41.28844451904297</v>
+        <v>38.655517578125</v>
       </c>
       <c r="G95" t="n">
-        <v>61.37871551513672</v>
+        <v>71.98374176025391</v>
       </c>
       <c r="H95" t="n">
-        <v>3.556684017181396</v>
+        <v>-60.51488876342773</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.240531165287422</v>
+        <v>0.9433370209818013</v>
       </c>
       <c r="B96" t="n">
-        <v>1.00001764570098</v>
+        <v>0.995588348622815</v>
       </c>
       <c r="C96" t="n">
-        <v>47.58235168457031</v>
+        <v>40.06509780883789</v>
       </c>
       <c r="D96" t="n">
-        <v>56.4928092956543</v>
+        <v>24.76684188842773</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9673294425010681</v>
+        <v>-15.27738571166992</v>
       </c>
       <c r="F96" t="n">
-        <v>43.87192153930664</v>
+        <v>38.73904418945312</v>
       </c>
       <c r="G96" t="n">
-        <v>63.05635452270508</v>
+        <v>71.99170684814453</v>
       </c>
       <c r="H96" t="n">
-        <v>3.556684017181396</v>
+        <v>-60.56937408447266</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.783031202647511</v>
+        <v>0.05630161468394124</v>
       </c>
       <c r="B97" t="n">
-        <v>0.999974994184807</v>
+        <v>0.9977091057278308</v>
       </c>
       <c r="C97" t="n">
-        <v>48.89788436889648</v>
+        <v>40.00162506103516</v>
       </c>
       <c r="D97" t="n">
-        <v>55.36828994750977</v>
+        <v>24.81705665588379</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.980978965759277</v>
+        <v>-15.24928665161133</v>
       </c>
       <c r="F97" t="n">
-        <v>45.88793182373047</v>
+        <v>38.82121276855469</v>
       </c>
       <c r="G97" t="n">
-        <v>63.05635452270508</v>
+        <v>71.99861907958984</v>
       </c>
       <c r="H97" t="n">
-        <v>4.742729663848877</v>
+        <v>-60.62251663208008</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-2.43814521118609</v>
+        <v>1.830428067828682</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000037964958394</v>
+        <v>0.9988616162023403</v>
       </c>
       <c r="C98" t="n">
-        <v>50.04848098754883</v>
+        <v>39.93967819213867</v>
       </c>
       <c r="D98" t="n">
-        <v>51.79007720947266</v>
+        <v>24.86635208129883</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.153481483459473</v>
+        <v>-15.22219085693359</v>
       </c>
       <c r="F98" t="n">
-        <v>47.10234069824219</v>
+        <v>38.90186309814453</v>
       </c>
       <c r="G98" t="n">
-        <v>62.64891815185547</v>
+        <v>72.00460052490234</v>
       </c>
       <c r="H98" t="n">
-        <v>2.921331644058228</v>
+        <v>-60.6741943359375</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>12.07786649064055</v>
+        <v>0.278565919838868</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999412656220948</v>
+        <v>0.9994592635714323</v>
       </c>
       <c r="C99" t="n">
-        <v>50.04848098754883</v>
+        <v>39.87933349609375</v>
       </c>
       <c r="D99" t="n">
-        <v>47.90574645996094</v>
+        <v>24.91463470458984</v>
       </c>
       <c r="E99" t="n">
-        <v>-11.99247360229492</v>
+        <v>-15.19609451293945</v>
       </c>
       <c r="F99" t="n">
-        <v>47.10234069824219</v>
+        <v>38.98088073730469</v>
       </c>
       <c r="G99" t="n">
-        <v>58.17870330810547</v>
+        <v>72.00971221923828</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8360865116119385</v>
+        <v>-60.72438430786133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-32.3270769092976</v>
+        <v>1.618868512618755</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000088048940949</v>
+        <v>0.9997547383433513</v>
       </c>
       <c r="C100" t="n">
-        <v>51.106201171875</v>
+        <v>39.82062149047852</v>
       </c>
       <c r="D100" t="n">
-        <v>42.27038955688477</v>
+        <v>24.96184539794922</v>
       </c>
       <c r="E100" t="n">
-        <v>-16.84775543212891</v>
+        <v>-15.17097949981689</v>
       </c>
       <c r="F100" t="n">
-        <v>47.62979888916016</v>
+        <v>39.05817031860352</v>
       </c>
       <c r="G100" t="n">
-        <v>51.31615447998047</v>
+        <v>72.0140380859375</v>
       </c>
       <c r="H100" t="n">
-        <v>-1.058764100074768</v>
+        <v>-60.77303314208984</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>85.62055243622058</v>
+        <v>0.4756798769866889</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9998747128000008</v>
+        <v>0.9998938917200146</v>
       </c>
       <c r="C101" t="n">
-        <v>48.05461883544922</v>
+        <v>39.76358413696289</v>
       </c>
       <c r="D101" t="n">
-        <v>36.81440353393555</v>
+        <v>25.00792503356934</v>
       </c>
       <c r="E101" t="n">
-        <v>-18.18910026550293</v>
+        <v>-15.14683532714844</v>
       </c>
       <c r="F101" t="n">
-        <v>46.53877639770508</v>
+        <v>39.1336669921875</v>
       </c>
       <c r="G101" t="n">
-        <v>44.64745330810547</v>
+        <v>72.01764678955078</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.058764100074768</v>
+        <v>-60.8202018737793</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-189.3555372406414</v>
+        <v>1.438820800942521</v>
       </c>
       <c r="B102" t="n">
-        <v>1.000174168022414</v>
+        <v>0.999956260952367</v>
       </c>
       <c r="C102" t="n">
-        <v>46.5158576965332</v>
+        <v>39.70824813842773</v>
       </c>
       <c r="D102" t="n">
-        <v>33.21406173706055</v>
+        <v>25.05282592773438</v>
       </c>
       <c r="E102" t="n">
-        <v>-15.88039493560791</v>
+        <v>-15.1236457824707</v>
       </c>
       <c r="F102" t="n">
-        <v>46.06934356689453</v>
+        <v>39.20730590820312</v>
       </c>
       <c r="G102" t="n">
-        <v>40.30773544311523</v>
+        <v>72.02058410644531</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8301732540130615</v>
+        <v>-60.8658447265625</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-94.55521376363292</v>
+        <v>0.6371133787325305</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9997587057486973</v>
+        <v>0.9999828405315495</v>
       </c>
       <c r="C103" t="n">
-        <v>37.64875793457031</v>
+        <v>39.65461349487305</v>
       </c>
       <c r="D103" t="n">
-        <v>28.09492492675781</v>
+        <v>25.09652900695801</v>
       </c>
       <c r="E103" t="n">
-        <v>-12.56424999237061</v>
+        <v>-15.10138607025146</v>
       </c>
       <c r="F103" t="n">
-        <v>33.13282775878906</v>
+        <v>39.279052734375</v>
       </c>
       <c r="G103" t="n">
-        <v>34.66215896606445</v>
+        <v>72.02291107177734</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.288650512695312</v>
+        <v>-60.91003036499023</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-47.2998062120346</v>
+        <v>-0.4331696748733521</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2181545200943947</v>
+        <v>0.1976606661081314</v>
       </c>
       <c r="C104" t="n">
-        <v>34.81807327270508</v>
+        <v>39.60268402099609</v>
       </c>
       <c r="D104" t="n">
-        <v>24.97395896911621</v>
+        <v>25.13900566101074</v>
       </c>
       <c r="E104" t="n">
-        <v>-11.25003528594971</v>
+        <v>-15.08004379272461</v>
       </c>
       <c r="F104" t="n">
-        <v>26.84040069580078</v>
+        <v>39.34889984130859</v>
       </c>
       <c r="G104" t="n">
-        <v>34.66215896606445</v>
+        <v>72.02465057373047</v>
       </c>
       <c r="H104" t="n">
-        <v>-1.288650512695312</v>
+        <v>-60.95277404785156</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-23.76045164443392</v>
+        <v>-0.428217111825943</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2076531240344048</v>
+        <v>0.1876737996935844</v>
       </c>
       <c r="C105" t="n">
-        <v>34.81807327270508</v>
+        <v>39.55243682861328</v>
       </c>
       <c r="D105" t="n">
-        <v>23.62426376342773</v>
+        <v>25.18025398254395</v>
       </c>
       <c r="E105" t="n">
-        <v>-9.776218414306641</v>
+        <v>-15.05959701538086</v>
       </c>
       <c r="F105" t="n">
-        <v>25.51162528991699</v>
+        <v>39.41684722900391</v>
       </c>
       <c r="G105" t="n">
-        <v>37.84152221679688</v>
+        <v>72.02586364746094</v>
       </c>
       <c r="H105" t="n">
-        <v>2.184269428253174</v>
+        <v>-60.99412536621094</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-12.03758593607614</v>
+        <v>-0.4234322625398636</v>
       </c>
       <c r="B106" t="n">
-        <v>0.07314247012138367</v>
+        <v>0.177974548637867</v>
       </c>
       <c r="C106" t="n">
-        <v>33.94397354125977</v>
+        <v>39.50389099121094</v>
       </c>
       <c r="D106" t="n">
-        <v>23.62426376342773</v>
+        <v>25.22021865844727</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.42302131652832</v>
+        <v>-15.0400276184082</v>
       </c>
       <c r="F106" t="n">
-        <v>27.35551834106445</v>
+        <v>39.48283767700195</v>
       </c>
       <c r="G106" t="n">
-        <v>41.67147064208984</v>
+        <v>72.02657318115234</v>
       </c>
       <c r="H106" t="n">
-        <v>4.681254386901855</v>
+        <v>-61.03407287597656</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-6.220000010970579</v>
+        <v>-0.4188131999969483</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1124982938170433</v>
+        <v>0.1685629445314407</v>
       </c>
       <c r="C107" t="n">
-        <v>34.98066329956055</v>
+        <v>39.45702743530273</v>
       </c>
       <c r="D107" t="n">
-        <v>25.18828201293945</v>
+        <v>25.25889205932617</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.576029300689697</v>
+        <v>-15.0213098526001</v>
       </c>
       <c r="F107" t="n">
-        <v>30.67043304443359</v>
+        <v>39.54687118530273</v>
       </c>
       <c r="G107" t="n">
-        <v>44.69907379150391</v>
+        <v>72.02682495117188</v>
       </c>
       <c r="H107" t="n">
-        <v>7.151017189025879</v>
+        <v>-61.07267761230469</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-3.369600168885463</v>
+        <v>-0.4143584710359574</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.2896044838428498</v>
+        <v>0.1594395244121552</v>
       </c>
       <c r="C108" t="n">
-        <v>35.95169830322266</v>
+        <v>39.41183090209961</v>
       </c>
       <c r="D108" t="n">
-        <v>27.02700614929199</v>
+        <v>25.29628944396973</v>
       </c>
       <c r="E108" t="n">
-        <v>-2.008668422698975</v>
+        <v>-15.00341510772705</v>
       </c>
       <c r="F108" t="n">
-        <v>34.19514465332031</v>
+        <v>39.60894393920898</v>
       </c>
       <c r="G108" t="n">
-        <v>46.0806770324707</v>
+        <v>72.02665710449219</v>
       </c>
       <c r="H108" t="n">
-        <v>9.216150283813477</v>
+        <v>-61.10995483398438</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-2.009217130751249</v>
+        <v>-0.4100661486387253</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4278022342920303</v>
+        <v>0.1506026139855385</v>
       </c>
       <c r="C109" t="n">
-        <v>37.244873046875</v>
+        <v>39.36828231811523</v>
       </c>
       <c r="D109" t="n">
-        <v>28.78019523620605</v>
+        <v>25.3324089050293</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.4190082550048828</v>
+        <v>-14.98632144927979</v>
       </c>
       <c r="F109" t="n">
-        <v>37.132568359375</v>
+        <v>39.6690673828125</v>
       </c>
       <c r="G109" t="n">
-        <v>46.0806770324707</v>
+        <v>72.02607727050781</v>
       </c>
       <c r="H109" t="n">
-        <v>10.66138076782227</v>
+        <v>-61.14590454101562</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-2.009217130751249</v>
+        <v>-0.4059325051307678</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.5147703331708908</v>
+        <v>0.1420494017004967</v>
       </c>
       <c r="C110" t="n">
-        <v>38.6803092956543</v>
+        <v>39.32634353637695</v>
       </c>
       <c r="D110" t="n">
-        <v>28.78019523620605</v>
+        <v>25.36726951599121</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.4190082550048828</v>
+        <v>-14.97000312805176</v>
       </c>
       <c r="F110" t="n">
-        <v>39.09676361083984</v>
+        <v>39.72726058959961</v>
       </c>
       <c r="G110" t="n">
-        <v>41.888916015625</v>
+        <v>72.02516174316406</v>
       </c>
       <c r="H110" t="n">
-        <v>10.66138076782227</v>
+        <v>-61.18061065673828</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.7352815806865692</v>
+        <v>-0.4019537496566772</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.551441330909729</v>
+        <v>0.1337759703397751</v>
       </c>
       <c r="C111" t="n">
-        <v>39.63754272460938</v>
+        <v>39.28597640991211</v>
       </c>
       <c r="D111" t="n">
-        <v>29.39042282104492</v>
+        <v>25.40089797973633</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1490191966295242</v>
+        <v>-14.95443153381348</v>
       </c>
       <c r="F111" t="n">
-        <v>39.09676361083984</v>
+        <v>39.78355026245117</v>
       </c>
       <c r="G111" t="n">
-        <v>37.05451583862305</v>
+        <v>72.02389526367188</v>
       </c>
       <c r="H111" t="n">
-        <v>12.06797885894775</v>
+        <v>-61.214111328125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.7222052145004273</v>
+        <v>-0.398128429055214</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5514328646659852</v>
+        <v>0.1257834492623806</v>
       </c>
       <c r="C112" t="n">
-        <v>39.49274826049805</v>
+        <v>39.24716567993164</v>
       </c>
       <c r="D112" t="n">
-        <v>27.39366722106934</v>
+        <v>25.43331336975098</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.68681526184082</v>
+        <v>-14.9395866394043</v>
       </c>
       <c r="F112" t="n">
-        <v>41.06072616577148</v>
+        <v>39.83792877197266</v>
       </c>
       <c r="G112" t="n">
-        <v>31.52283096313477</v>
+        <v>72.02231597900391</v>
       </c>
       <c r="H112" t="n">
-        <v>11.24868106842041</v>
+        <v>-61.24643707275391</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.6193890023231506</v>
+        <v>-0.3944523417949677</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.5367839252948762</v>
+        <v>0.1180617295205593</v>
       </c>
       <c r="C113" t="n">
-        <v>38.35426330566406</v>
+        <v>39.20986938476562</v>
       </c>
       <c r="D113" t="n">
-        <v>25.44475936889648</v>
+        <v>25.46452903747559</v>
       </c>
       <c r="E113" t="n">
-        <v>-3.070379734039307</v>
+        <v>-14.92544460296631</v>
       </c>
       <c r="F113" t="n">
-        <v>40.66486740112305</v>
+        <v>39.89046478271484</v>
       </c>
       <c r="G113" t="n">
-        <v>27.16300964355469</v>
+        <v>72.02044677734375</v>
       </c>
       <c r="H113" t="n">
-        <v>10.03172206878662</v>
+        <v>-61.27761840820312</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.5152464330196381</v>
+        <v>-0.3909221708774567</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.5215205830335617</v>
+        <v>0.1106091447174549</v>
       </c>
       <c r="C114" t="n">
-        <v>37.20109176635742</v>
+        <v>39.17405319213867</v>
       </c>
       <c r="D114" t="n">
-        <v>25.44475936889648</v>
+        <v>25.49458312988281</v>
       </c>
       <c r="E114" t="n">
-        <v>-3.114672183990479</v>
+        <v>-14.9119758605957</v>
       </c>
       <c r="F114" t="n">
-        <v>40.25240707397461</v>
+        <v>39.94116973876953</v>
       </c>
       <c r="G114" t="n">
-        <v>25.15524291992188</v>
+        <v>72.01832580566406</v>
       </c>
       <c r="H114" t="n">
-        <v>9.051618576049805</v>
+        <v>-61.30767059326172</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.4944442403316498</v>
+        <v>-0.3875348836183548</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.5007262563705445</v>
+        <v>0.103419518917799</v>
       </c>
       <c r="C115" t="n">
-        <v>36.97074890136719</v>
+        <v>39.13968658447266</v>
       </c>
       <c r="D115" t="n">
-        <v>23.70245933532715</v>
+        <v>25.52349472045898</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.843504905700684</v>
+        <v>-14.899169921875</v>
       </c>
       <c r="F115" t="n">
-        <v>39.69048309326172</v>
+        <v>39.99008560180664</v>
       </c>
       <c r="G115" t="n">
-        <v>25.15524291992188</v>
+        <v>72.01594543457031</v>
       </c>
       <c r="H115" t="n">
-        <v>8.832234382629395</v>
+        <v>-61.33665466308594</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.566880031824112</v>
+        <v>-0.3842851728200913</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4629956513643265</v>
+        <v>0.09648780554533005</v>
       </c>
       <c r="C116" t="n">
-        <v>37.77283096313477</v>
+        <v>39.10671615600586</v>
       </c>
       <c r="D116" t="n">
-        <v>26.98427963256836</v>
+        <v>25.55130004882812</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06075472384691238</v>
+        <v>-14.88699722290039</v>
       </c>
       <c r="F116" t="n">
-        <v>38.67089080810547</v>
+        <v>40.03724670410156</v>
       </c>
       <c r="G116" t="n">
-        <v>27.20565032958984</v>
+        <v>72.01335906982422</v>
       </c>
       <c r="H116" t="n">
-        <v>9.505780220031738</v>
+        <v>-61.36460113525391</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.6772023272514344</v>
+        <v>-0.3811697214841843</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.4062762725353241</v>
+        <v>0.08980727583169938</v>
       </c>
       <c r="C117" t="n">
-        <v>38.99443054199219</v>
+        <v>39.07510757446289</v>
       </c>
       <c r="D117" t="n">
-        <v>28.59103393554688</v>
+        <v>25.57802581787109</v>
       </c>
       <c r="E117" t="n">
-        <v>1.872021198272705</v>
+        <v>-14.87543487548828</v>
       </c>
       <c r="F117" t="n">
-        <v>37.13816452026367</v>
+        <v>40.08269882202148</v>
       </c>
       <c r="G117" t="n">
-        <v>29.07094955444336</v>
+        <v>72.01055908203125</v>
       </c>
       <c r="H117" t="n">
-        <v>10.86181545257568</v>
+        <v>-61.39153289794922</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.7558484876155853</v>
+        <v>-0.3781836014986039</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3392403966188431</v>
+        <v>0.08337007954716683</v>
       </c>
       <c r="C118" t="n">
-        <v>39.86528015136719</v>
+        <v>39.0448112487793</v>
       </c>
       <c r="D118" t="n">
-        <v>29.71907043457031</v>
+        <v>25.60371589660645</v>
       </c>
       <c r="E118" t="n">
-        <v>3.194157123565674</v>
+        <v>-14.86446189880371</v>
       </c>
       <c r="F118" t="n">
-        <v>35.32665634155273</v>
+        <v>40.12649536132812</v>
       </c>
       <c r="G118" t="n">
-        <v>30.60712623596191</v>
+        <v>72.00759124755859</v>
       </c>
       <c r="H118" t="n">
-        <v>12.5377893447876</v>
+        <v>-61.41754531860352</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.7607769787311555</v>
+        <v>-0.3753238117694855</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2725113904476166</v>
+        <v>0.07717229947447778</v>
       </c>
       <c r="C119" t="n">
-        <v>39.91985321044922</v>
+        <v>39.01579666137695</v>
       </c>
       <c r="D119" t="n">
-        <v>29.71907043457031</v>
+        <v>25.62838745117188</v>
       </c>
       <c r="E119" t="n">
-        <v>3.960333347320557</v>
+        <v>-14.85406303405762</v>
       </c>
       <c r="F119" t="n">
-        <v>33.52344131469727</v>
+        <v>40.16866302490234</v>
       </c>
       <c r="G119" t="n">
-        <v>30.60712623596191</v>
+        <v>72.00444030761719</v>
       </c>
       <c r="H119" t="n">
-        <v>14.21212673187256</v>
+        <v>-61.44260406494141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.6893316113948822</v>
+        <v>-0.3725865930318832</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2106911313533783</v>
+        <v>0.07120607748627664</v>
       </c>
       <c r="C120" t="n">
-        <v>39.12873840332031</v>
+        <v>38.9880256652832</v>
       </c>
       <c r="D120" t="n">
-        <v>30.34597778320312</v>
+        <v>25.65207481384277</v>
       </c>
       <c r="E120" t="n">
-        <v>4.311775684356689</v>
+        <v>-14.84420871734619</v>
       </c>
       <c r="F120" t="n">
-        <v>31.85287475585938</v>
+        <v>40.20925521850586</v>
       </c>
       <c r="G120" t="n">
-        <v>32.59775543212891</v>
+        <v>72.00114440917969</v>
       </c>
       <c r="H120" t="n">
-        <v>15.67525959014893</v>
+        <v>-61.46677398681641</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.5670688164234161</v>
+        <v>-0.3699674278497696</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1506756669282913</v>
+        <v>0.06546749636530877</v>
       </c>
       <c r="C121" t="n">
-        <v>37.77492141723633</v>
+        <v>38.96145248413086</v>
       </c>
       <c r="D121" t="n">
-        <v>29.3342170715332</v>
+        <v>25.67481422424316</v>
       </c>
       <c r="E121" t="n">
-        <v>4.483999729156494</v>
+        <v>-14.83488273620605</v>
       </c>
       <c r="F121" t="n">
-        <v>30.2310791015625</v>
+        <v>40.24829864501953</v>
       </c>
       <c r="G121" t="n">
-        <v>32.69596862792969</v>
+        <v>71.99770355224609</v>
       </c>
       <c r="H121" t="n">
-        <v>16.803466796875</v>
+        <v>-61.49007797241211</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.4282339811325073</v>
+        <v>-0.3674618303775787</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.08507797047495842</v>
+        <v>0.05994758047163487</v>
       </c>
       <c r="C122" t="n">
-        <v>36.23760223388672</v>
+        <v>38.93603134155273</v>
       </c>
       <c r="D122" t="n">
-        <v>28.5539379119873</v>
+        <v>25.69663619995117</v>
       </c>
       <c r="E122" t="n">
-        <v>4.699499607086182</v>
+        <v>-14.82606410980225</v>
       </c>
       <c r="F122" t="n">
-        <v>27.41529655456543</v>
+        <v>40.28585433959961</v>
       </c>
       <c r="G122" t="n">
-        <v>32.70058441162109</v>
+        <v>71.994140625</v>
       </c>
       <c r="H122" t="n">
-        <v>17.53767585754395</v>
+        <v>-61.51255416870117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.2988795697689057</v>
+        <v>-0.3650667679309845</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.007874114597216248</v>
+        <v>0.05464240469038487</v>
       </c>
       <c r="C123" t="n">
-        <v>34.80525970458984</v>
+        <v>38.9117317199707</v>
       </c>
       <c r="D123" t="n">
-        <v>28.50919151306152</v>
+        <v>25.71756744384766</v>
       </c>
       <c r="E123" t="n">
-        <v>5.103886127471924</v>
+        <v>-14.81772994995117</v>
       </c>
       <c r="F123" t="n">
-        <v>25.68917465209961</v>
+        <v>40.32194900512695</v>
       </c>
       <c r="G123" t="n">
-        <v>32.70161437988281</v>
+        <v>71.99047088623047</v>
       </c>
       <c r="H123" t="n">
-        <v>17.89140701293945</v>
+        <v>-61.53423309326172</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.1914717945456505</v>
+        <v>-0.3627777230739594</v>
       </c>
       <c r="B124" t="n">
-        <v>0.08127611368894577</v>
+        <v>0.04954356200993061</v>
       </c>
       <c r="C124" t="n">
-        <v>33.61593246459961</v>
+        <v>38.88850784301758</v>
       </c>
       <c r="D124" t="n">
-        <v>29.29773139953613</v>
+        <v>25.73764228820801</v>
       </c>
       <c r="E124" t="n">
-        <v>5.694324016571045</v>
+        <v>-14.80986404418945</v>
       </c>
       <c r="F124" t="n">
-        <v>23.5518913269043</v>
+        <v>40.35663986206055</v>
       </c>
       <c r="G124" t="n">
-        <v>32.7014274597168</v>
+        <v>71.9866943359375</v>
       </c>
       <c r="H124" t="n">
-        <v>17.98169326782227</v>
+        <v>-61.55513381958008</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.1060936672985554</v>
+        <v>-0.3605913472175598</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1755828189849854</v>
+        <v>0.04464431971311569</v>
       </c>
       <c r="C125" t="n">
-        <v>32.67053985595703</v>
+        <v>38.86632537841797</v>
       </c>
       <c r="D125" t="n">
-        <v>30.6904354095459</v>
+        <v>25.75688362121582</v>
       </c>
       <c r="E125" t="n">
-        <v>6.442527294158936</v>
+        <v>-14.8024435043335</v>
       </c>
       <c r="F125" t="n">
-        <v>21.28867340087891</v>
+        <v>40.38997268676758</v>
       </c>
       <c r="G125" t="n">
-        <v>32.73386383056641</v>
+        <v>71.98285675048828</v>
       </c>
       <c r="H125" t="n">
-        <v>18.03154182434082</v>
+        <v>-61.57529830932617</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.03555059067904949</v>
+        <v>-0.3585038495063782</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2639946967363357</v>
+        <v>0.03994131736457348</v>
       </c>
       <c r="C126" t="n">
-        <v>31.8894157409668</v>
+        <v>38.84514617919922</v>
       </c>
       <c r="D126" t="n">
-        <v>32.310302734375</v>
+        <v>25.77532386779785</v>
       </c>
       <c r="E126" t="n">
-        <v>7.327682018280029</v>
+        <v>-14.79545307159424</v>
       </c>
       <c r="F126" t="n">
-        <v>19.18060874938965</v>
+        <v>40.42197036743164</v>
       </c>
       <c r="G126" t="n">
-        <v>32.86735916137695</v>
+        <v>71.97891998291016</v>
       </c>
       <c r="H126" t="n">
-        <v>18.21321678161621</v>
+        <v>-61.5947380065918</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.02465289030224085</v>
+        <v>-0.3565107125043869</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3362633430957794</v>
+        <v>0.03542558327317238</v>
       </c>
       <c r="C127" t="n">
-        <v>31.22278213500977</v>
+        <v>38.82492446899414</v>
       </c>
       <c r="D127" t="n">
-        <v>33.85068893432617</v>
+        <v>25.79299736022949</v>
       </c>
       <c r="E127" t="n">
-        <v>8.357690811157227</v>
+        <v>-14.78886795043945</v>
       </c>
       <c r="F127" t="n">
-        <v>17.44599151611328</v>
+        <v>40.45269393920898</v>
       </c>
       <c r="G127" t="n">
-        <v>33.17264938354492</v>
+        <v>71.97493743896484</v>
       </c>
       <c r="H127" t="n">
-        <v>18.57246017456055</v>
+        <v>-61.61349868774414</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.0763140419125557</v>
+        <v>-0.3546096932888031</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3866342395544052</v>
+        <v>0.0310926315933466</v>
       </c>
       <c r="C128" t="n">
-        <v>30.65073776245117</v>
+        <v>38.80563735961914</v>
       </c>
       <c r="D128" t="n">
-        <v>35.20492935180664</v>
+        <v>25.8099250793457</v>
       </c>
       <c r="E128" t="n">
-        <v>9.566993713378906</v>
+        <v>-14.78267097473145</v>
       </c>
       <c r="F128" t="n">
-        <v>16.17401123046875</v>
+        <v>40.48217391967773</v>
       </c>
       <c r="G128" t="n">
-        <v>33.64313888549805</v>
+        <v>71.97089385986328</v>
       </c>
       <c r="H128" t="n">
-        <v>18.95016479492188</v>
+        <v>-61.63156890869141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1153117403388023</v>
+        <v>-0.352796306014061</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4165843349695206</v>
+        <v>0.02693629428744316</v>
       </c>
       <c r="C129" t="n">
-        <v>30.21891593933105</v>
+        <v>38.78723907470703</v>
       </c>
       <c r="D129" t="n">
-        <v>36.41019821166992</v>
+        <v>25.82613754272461</v>
       </c>
       <c r="E129" t="n">
-        <v>10.86784934997559</v>
+        <v>-14.77684497833252</v>
       </c>
       <c r="F129" t="n">
-        <v>16.17401123046875</v>
+        <v>40.51045227050781</v>
       </c>
       <c r="G129" t="n">
-        <v>34.18784713745117</v>
+        <v>71.96683502197266</v>
       </c>
       <c r="H129" t="n">
-        <v>19.17004013061523</v>
+        <v>-61.64901351928711</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1435421299934387</v>
+        <v>-0.3510674864053727</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4323840200901032</v>
+        <v>0.02294984456151724</v>
       </c>
       <c r="C130" t="n">
-        <v>29.90632057189941</v>
+        <v>38.76969909667969</v>
       </c>
       <c r="D130" t="n">
-        <v>37.53018951416016</v>
+        <v>25.84165191650391</v>
       </c>
       <c r="E130" t="n">
-        <v>12.09978675842285</v>
+        <v>-14.77137470245361</v>
       </c>
       <c r="F130" t="n">
-        <v>14.47507858276367</v>
+        <v>40.53757476806641</v>
       </c>
       <c r="G130" t="n">
-        <v>34.63704299926758</v>
+        <v>71.96271514892578</v>
       </c>
       <c r="H130" t="n">
-        <v>19.00667381286621</v>
+        <v>-61.66585159301758</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1654705068469048</v>
+        <v>-0.3494198858737946</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4434512013196946</v>
+        <v>0.01912879459559918</v>
       </c>
       <c r="C131" t="n">
-        <v>29.66350746154785</v>
+        <v>38.75298309326172</v>
       </c>
       <c r="D131" t="n">
-        <v>38.55720138549805</v>
+        <v>25.85650825500488</v>
       </c>
       <c r="E131" t="n">
-        <v>12.98734283447266</v>
+        <v>-14.76623821258545</v>
       </c>
       <c r="F131" t="n">
-        <v>14.17601108551025</v>
+        <v>40.56357192993164</v>
       </c>
       <c r="G131" t="n">
-        <v>34.8475227355957</v>
+        <v>71.95859527587891</v>
       </c>
       <c r="H131" t="n">
-        <v>18.34814071655273</v>
+        <v>-61.68207168579102</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1892845341563225</v>
+        <v>-0.3478501242399216</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4571981698274613</v>
+        <v>0.01546473639085889</v>
       </c>
       <c r="C132" t="n">
-        <v>29.39981460571289</v>
+        <v>38.73705673217773</v>
       </c>
       <c r="D132" t="n">
-        <v>39.42901611328125</v>
+        <v>25.87071990966797</v>
       </c>
       <c r="E132" t="n">
-        <v>13.20596885681152</v>
+        <v>-14.7614221572876</v>
       </c>
       <c r="F132" t="n">
-        <v>13.80452728271484</v>
+        <v>40.5885009765625</v>
       </c>
       <c r="G132" t="n">
-        <v>34.75067138671875</v>
+        <v>71.95446014404297</v>
       </c>
       <c r="H132" t="n">
-        <v>17.1043586730957</v>
+        <v>-61.69773101806641</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.2219345715641975</v>
+        <v>-0.3463552004098893</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4749375092983246</v>
+        <v>0.01195654848590493</v>
       </c>
       <c r="C133" t="n">
-        <v>29.03828048706055</v>
+        <v>38.72188949584961</v>
       </c>
       <c r="D133" t="n">
-        <v>40.10299301147461</v>
+        <v>25.88431549072266</v>
       </c>
       <c r="E133" t="n">
-        <v>12.45911598205566</v>
+        <v>-14.7569055557251</v>
       </c>
       <c r="F133" t="n">
-        <v>13.32515716552734</v>
+        <v>40.61236953735352</v>
       </c>
       <c r="G133" t="n">
-        <v>34.39847183227539</v>
+        <v>71.95030975341797</v>
       </c>
       <c r="H133" t="n">
-        <v>13.69491100311279</v>
+        <v>-61.71282577514648</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.2584849095344544</v>
+        <v>-0.3449320501089096</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4907739025354386</v>
+        <v>0.008596940394490958</v>
       </c>
       <c r="C134" t="n">
-        <v>28.63355827331543</v>
+        <v>38.70745086669922</v>
       </c>
       <c r="D134" t="n">
-        <v>40.63929748535156</v>
+        <v>25.8973217010498</v>
       </c>
       <c r="E134" t="n">
-        <v>8.741776466369629</v>
+        <v>-14.75267791748047</v>
       </c>
       <c r="F134" t="n">
-        <v>12.8972110748291</v>
+        <v>40.63522720336914</v>
       </c>
       <c r="G134" t="n">
-        <v>34.01949310302734</v>
+        <v>71.9461669921875</v>
       </c>
       <c r="H134" t="n">
-        <v>11.0080509185791</v>
+        <v>-61.72736740112305</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2815913105010986</v>
+        <v>-0.3435784935951233</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4918884456157684</v>
+        <v>0.005377503130584956</v>
       </c>
       <c r="C135" t="n">
-        <v>28.37770080566406</v>
+        <v>38.69371795654297</v>
       </c>
       <c r="D135" t="n">
-        <v>41.21183013916016</v>
+        <v>25.90974807739258</v>
       </c>
       <c r="E135" t="n">
-        <v>5.481441497802734</v>
+        <v>-14.74872016906738</v>
       </c>
       <c r="F135" t="n">
-        <v>12.86709308624268</v>
+        <v>40.65713119506836</v>
       </c>
       <c r="G135" t="n">
-        <v>34.03760528564453</v>
+        <v>71.94206237792969</v>
       </c>
       <c r="H135" t="n">
-        <v>7.241837024688721</v>
+        <v>-61.74138641357422</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.266373205780983</v>
+        <v>0.7607503477564335</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5536245439940625</v>
+        <v>0.9956870233649314</v>
       </c>
       <c r="C136" t="n">
-        <v>28.54621124267578</v>
+        <v>38.68064880371094</v>
       </c>
       <c r="D136" t="n">
-        <v>41.98770141601562</v>
+        <v>25.9216365814209</v>
       </c>
       <c r="E136" t="n">
-        <v>1.181314945220947</v>
+        <v>-14.74501800537109</v>
       </c>
       <c r="F136" t="n">
-        <v>13.57736492156982</v>
+        <v>40.67808151245117</v>
       </c>
       <c r="G136" t="n">
-        <v>36.06854248046875</v>
+        <v>71.93794250488281</v>
       </c>
       <c r="H136" t="n">
-        <v>2.909084796905518</v>
+        <v>-61.75492858886719</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7241163012946994</v>
+        <v>0.7607503477564335</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6581193248848123</v>
+        <v>1.000005265308515</v>
       </c>
       <c r="C137" t="n">
-        <v>29.28881454467773</v>
+        <v>38.6682243347168</v>
       </c>
       <c r="D137" t="n">
-        <v>43.05604934692383</v>
+        <v>25.93299102783203</v>
       </c>
       <c r="E137" t="n">
-        <v>-3.092020750045776</v>
+        <v>-14.7415599822998</v>
       </c>
       <c r="F137" t="n">
-        <v>16.38583946228027</v>
+        <v>40.6981201171875</v>
       </c>
       <c r="G137" t="n">
-        <v>38.2501220703125</v>
+        <v>71.93387603759766</v>
       </c>
       <c r="H137" t="n">
-        <v>-1.108741521835327</v>
+        <v>-61.7679443359375</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9534950625606901</v>
+        <v>0.4460313638329113</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7952448118594579</v>
+        <v>0.9999999655655039</v>
       </c>
       <c r="C138" t="n">
-        <v>30.50649452209473</v>
+        <v>38.65640640258789</v>
       </c>
       <c r="D138" t="n">
-        <v>44.50319290161133</v>
+        <v>25.9438419342041</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.195268154144287</v>
+        <v>-14.73832702636719</v>
       </c>
       <c r="F138" t="n">
-        <v>18.37292098999023</v>
+        <v>40.71730041503906</v>
       </c>
       <c r="G138" t="n">
-        <v>41.21759033203125</v>
+        <v>71.92981719970703</v>
       </c>
       <c r="H138" t="n">
-        <v>-4.10389232635498</v>
+        <v>-61.78052520751953</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.004356133940028</v>
+        <v>1.354116357184333</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9170899237183603</v>
+        <v>1.000000000400416</v>
       </c>
       <c r="C139" t="n">
-        <v>32.04548645019531</v>
+        <v>38.64518356323242</v>
       </c>
       <c r="D139" t="n">
-        <v>47.48896026611328</v>
+        <v>25.95421409606934</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.651289939880371</v>
+        <v>-14.73531150817871</v>
       </c>
       <c r="F139" t="n">
-        <v>20.73750686645508</v>
+        <v>40.73564910888672</v>
       </c>
       <c r="G139" t="n">
-        <v>44.47482299804688</v>
+        <v>71.92580413818359</v>
       </c>
       <c r="H139" t="n">
-        <v>-5.798201560974121</v>
+        <v>-61.79265213012695</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9982198551960944</v>
+        <v>0.7743384418243278</v>
       </c>
       <c r="B140" t="n">
-        <v>0.982301581840466</v>
+        <v>0.9999999999933978</v>
       </c>
       <c r="C140" t="n">
-        <v>34.95272064208984</v>
+        <v>38.634521484375</v>
       </c>
       <c r="D140" t="n">
-        <v>49.15275192260742</v>
+        <v>25.96412086486816</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.651289939880371</v>
+        <v>-14.732497215271</v>
       </c>
       <c r="F140" t="n">
-        <v>23.18907928466797</v>
+        <v>40.753173828125</v>
       </c>
       <c r="G140" t="n">
-        <v>47.51011657714844</v>
+        <v>71.92183685302734</v>
       </c>
       <c r="H140" t="n">
-        <v>-5.798201560974121</v>
+        <v>-61.80431365966797</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.001369728408424</v>
+        <v>1.143378213249643</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9993589912933802</v>
+        <v>1.00000000000014</v>
       </c>
       <c r="C141" t="n">
-        <v>36.59421539306641</v>
+        <v>38.6243896484375</v>
       </c>
       <c r="D141" t="n">
-        <v>50.98218536376953</v>
+        <v>25.97358322143555</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.743111133575439</v>
+        <v>-14.72987461090088</v>
       </c>
       <c r="F141" t="n">
-        <v>25.60787963867188</v>
+        <v>40.76994705200195</v>
       </c>
       <c r="G141" t="n">
-        <v>49.96425628662109</v>
+        <v>71.91791534423828</v>
       </c>
       <c r="H141" t="n">
-        <v>-5.317698001861572</v>
+        <v>-61.81557846069336</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9984269259391725</v>
+        <v>0.909158443839833</v>
       </c>
       <c r="B142" t="n">
-        <v>1.000083573873634</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="C142" t="n">
-        <v>38.44126510620117</v>
+        <v>38.61477279663086</v>
       </c>
       <c r="D142" t="n">
-        <v>52.66939544677734</v>
+        <v>25.98261833190918</v>
       </c>
       <c r="E142" t="n">
-        <v>-5.961706161499023</v>
+        <v>-14.72743225097656</v>
       </c>
       <c r="F142" t="n">
-        <v>28.00579452514648</v>
+        <v>40.78596496582031</v>
       </c>
       <c r="G142" t="n">
-        <v>51.7476806640625</v>
+        <v>71.91403198242188</v>
       </c>
       <c r="H142" t="n">
-        <v>-3.24869966506958</v>
+        <v>-61.82644271850586</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.002356799187474</v>
+        <v>1.057401105115886</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999752331158505</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>40.1890869140625</v>
+        <v>38.60564041137695</v>
       </c>
       <c r="D143" t="n">
-        <v>54.00979995727539</v>
+        <v>25.99124908447266</v>
       </c>
       <c r="E143" t="n">
-        <v>-2.988543510437012</v>
+        <v>-14.72515487670898</v>
       </c>
       <c r="F143" t="n">
-        <v>30.44832229614258</v>
+        <v>40.80128479003906</v>
       </c>
       <c r="G143" t="n">
-        <v>53.06891632080078</v>
+        <v>71.91020965576172</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.8923913240432739</v>
+        <v>-61.83691787719727</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9958069594960299</v>
+        <v>0.9638217777483964</v>
       </c>
       <c r="B144" t="n">
-        <v>1.000011640528761</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>41.7440185546875</v>
+        <v>38.59697723388672</v>
       </c>
       <c r="D144" t="n">
-        <v>54.00979995727539</v>
+        <v>25.99948883056641</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.553673028945923</v>
+        <v>-14.72303867340088</v>
       </c>
       <c r="F144" t="n">
-        <v>32.97460174560547</v>
+        <v>40.81591415405273</v>
       </c>
       <c r="G144" t="n">
-        <v>54.31957244873047</v>
+        <v>71.90644073486328</v>
       </c>
       <c r="H144" t="n">
-        <v>1.275893449783325</v>
+        <v>-61.84698486328125</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.008433094678368</v>
+        <v>1.022746756553813</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999924075742818</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>43.09194564819336</v>
+        <v>38.5887565612793</v>
       </c>
       <c r="D145" t="n">
-        <v>55.75093078613281</v>
+        <v>26.00736045837402</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.1109875440597534</v>
+        <v>-14.72107124328613</v>
       </c>
       <c r="F145" t="n">
-        <v>35.57519149780273</v>
+        <v>40.82988739013672</v>
       </c>
       <c r="G145" t="n">
-        <v>55.7908935546875</v>
+        <v>71.90273284912109</v>
       </c>
       <c r="H145" t="n">
-        <v>2.942543983459473</v>
+        <v>-61.85671997070312</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.981399798535872</v>
+        <v>0.9857311820575246</v>
       </c>
       <c r="B146" t="n">
-        <v>1.000006370100447</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>44.30030059814453</v>
+        <v>38.58095169067383</v>
       </c>
       <c r="D146" t="n">
-        <v>55.63649368286133</v>
+        <v>26.01487350463867</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9859088063240051</v>
+        <v>-14.71924114227295</v>
       </c>
       <c r="F146" t="n">
-        <v>38.1533203125</v>
+        <v>40.8432502746582</v>
       </c>
       <c r="G146" t="n">
-        <v>57.54704284667969</v>
+        <v>71.89908599853516</v>
       </c>
       <c r="H146" t="n">
-        <v>4.051600456237793</v>
+        <v>-61.86608505249023</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.044412367801356</v>
+        <v>1.008931052217671</v>
       </c>
       <c r="B147" t="n">
-        <v>0.999993518751512</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>45.47965240478516</v>
+        <v>38.57355117797852</v>
       </c>
       <c r="D147" t="n">
-        <v>55.1598014831543</v>
+        <v>26.02205657958984</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9859088063240051</v>
+        <v>-14.71754264831543</v>
       </c>
       <c r="F147" t="n">
-        <v>40.53144073486328</v>
+        <v>40.85600662231445</v>
       </c>
       <c r="G147" t="n">
-        <v>59.38214111328125</v>
+        <v>71.8955078125</v>
       </c>
       <c r="H147" t="n">
-        <v>4.051600456237793</v>
+        <v>-61.87512969970703</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.885249504313591</v>
+        <v>0.9944216131128728</v>
       </c>
       <c r="B148" t="n">
-        <v>1.000007580004241</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>46.74703216552734</v>
+        <v>38.5665168762207</v>
       </c>
       <c r="D148" t="n">
-        <v>54.47291564941406</v>
+        <v>26.02891159057617</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3638231456279755</v>
+        <v>-14.71596431732178</v>
       </c>
       <c r="F148" t="n">
-        <v>42.47809600830078</v>
+        <v>40.86818695068359</v>
       </c>
       <c r="G148" t="n">
-        <v>60.84697341918945</v>
+        <v>71.89199829101562</v>
       </c>
       <c r="H148" t="n">
-        <v>5.292534351348877</v>
+        <v>-61.88384628295898</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.32298881601578</v>
+        <v>1.003477383096273</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999903330557793</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>48.11114501953125</v>
+        <v>38.55985641479492</v>
       </c>
       <c r="D149" t="n">
-        <v>53.52779006958008</v>
+        <v>26.03545379638672</v>
       </c>
       <c r="E149" t="n">
-        <v>-3.098389387130737</v>
+        <v>-14.71450424194336</v>
       </c>
       <c r="F149" t="n">
-        <v>43.73797225952148</v>
+        <v>40.87982177734375</v>
       </c>
       <c r="G149" t="n">
-        <v>60.84697341918945</v>
+        <v>71.88853454589844</v>
       </c>
       <c r="H149" t="n">
-        <v>4.899436473846436</v>
+        <v>-61.89225769042969</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.085253760363248</v>
+        <v>0.997836396379971</v>
       </c>
       <c r="B150" t="n">
-        <v>1.000012715283947</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>49.17429351806641</v>
+        <v>38.55354309082031</v>
       </c>
       <c r="D150" t="n">
-        <v>49.687255859375</v>
+        <v>26.04170036315918</v>
       </c>
       <c r="E150" t="n">
-        <v>-8.82612133026123</v>
+        <v>-14.71314811706543</v>
       </c>
       <c r="F150" t="n">
-        <v>43.73797225952148</v>
+        <v>40.89093780517578</v>
       </c>
       <c r="G150" t="n">
-        <v>59.03341674804688</v>
+        <v>71.88515472412109</v>
       </c>
       <c r="H150" t="n">
-        <v>1.996307611465454</v>
+        <v>-61.9003791809082</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-3.159955986428865</v>
+        <v>1.001343764756675</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9999837318479439</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>49.17429351806641</v>
+        <v>38.54754257202148</v>
       </c>
       <c r="D151" t="n">
-        <v>45.07358169555664</v>
+        <v>26.04767417907715</v>
       </c>
       <c r="E151" t="n">
-        <v>-14.46910858154297</v>
+        <v>-14.71189022064209</v>
       </c>
       <c r="F151" t="n">
-        <v>44.48340606689453</v>
+        <v>40.90155410766602</v>
       </c>
       <c r="G151" t="n">
-        <v>53.21829986572266</v>
+        <v>71.8818359375</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1805777549743652</v>
+        <v>-61.9081916809082</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.4123728236837</v>
+        <v>0.9991668397783794</v>
       </c>
       <c r="B152" t="n">
-        <v>1.000019611511692</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>47.40031433105469</v>
+        <v>38.54185485839844</v>
       </c>
       <c r="D152" t="n">
-        <v>39.12739562988281</v>
+        <v>26.05337524414062</v>
       </c>
       <c r="E152" t="n">
-        <v>-16.80603408813477</v>
+        <v>-14.71072959899902</v>
       </c>
       <c r="F152" t="n">
-        <v>43.42497634887695</v>
+        <v>40.91168975830078</v>
       </c>
       <c r="G152" t="n">
-        <v>45.80568695068359</v>
+        <v>71.87860107421875</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1805777549743652</v>
+        <v>-61.91575241088867</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-17.01831233512039</v>
+        <v>1.000515740337462</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9999766843494637</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>45.25029754638672</v>
+        <v>38.53646469116211</v>
       </c>
       <c r="D153" t="n">
-        <v>34.21307373046875</v>
+        <v>26.05882453918457</v>
       </c>
       <c r="E153" t="n">
-        <v>-15.22868537902832</v>
+        <v>-14.7096529006958</v>
       </c>
       <c r="F153" t="n">
-        <v>43.1866569519043</v>
+        <v>40.92136383056641</v>
       </c>
       <c r="G153" t="n">
-        <v>39.94323348999023</v>
+        <v>71.87541961669922</v>
       </c>
       <c r="H153" t="n">
-        <v>0.7180688381195068</v>
+        <v>-61.92301177978516</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-8.382526433520889</v>
+        <v>0.9996812386042161</v>
       </c>
       <c r="B154" t="n">
-        <v>1.00002888897242</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>36.97085952758789</v>
+        <v>38.53134918212891</v>
       </c>
       <c r="D154" t="n">
-        <v>28.35160064697266</v>
+        <v>26.06402969360352</v>
       </c>
       <c r="E154" t="n">
-        <v>-12.19581031799316</v>
+        <v>-14.70865917205811</v>
       </c>
       <c r="F154" t="n">
-        <v>31.66833114624023</v>
+        <v>40.93062210083008</v>
       </c>
       <c r="G154" t="n">
-        <v>34.08824157714844</v>
+        <v>71.87232971191406</v>
       </c>
       <c r="H154" t="n">
-        <v>-1.547875046730042</v>
+        <v>-61.93003082275391</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-4.198455171369451</v>
+        <v>-0.3270957911014557</v>
       </c>
       <c r="B155" t="n">
-        <v>0.2489660558104515</v>
+        <v>-0.03611746571958065</v>
       </c>
       <c r="C155" t="n">
-        <v>34.31295013427734</v>
+        <v>38.5264892578125</v>
       </c>
       <c r="D155" t="n">
-        <v>24.43090057373047</v>
+        <v>26.06900215148926</v>
       </c>
       <c r="E155" t="n">
-        <v>-12.19581031799316</v>
+        <v>-14.70773601531982</v>
       </c>
       <c r="F155" t="n">
-        <v>24.97173118591309</v>
+        <v>40.93944931030273</v>
       </c>
       <c r="G155" t="n">
-        <v>34.08824157714844</v>
+        <v>71.86930084228516</v>
       </c>
       <c r="H155" t="n">
-        <v>-1.547875046730042</v>
+        <v>-61.93681335449219</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-2.176471011083791</v>
+        <v>-0.3266419625282288</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2917609435319901</v>
+        <v>-0.03735713467001915</v>
       </c>
       <c r="C156" t="n">
-        <v>34.31295013427734</v>
+        <v>38.52188491821289</v>
       </c>
       <c r="D156" t="n">
-        <v>22.29732894897461</v>
+        <v>26.0737476348877</v>
       </c>
       <c r="E156" t="n">
-        <v>-10.24639225006104</v>
+        <v>-14.70688819885254</v>
       </c>
       <c r="F156" t="n">
-        <v>22.92899513244629</v>
+        <v>40.94788360595703</v>
       </c>
       <c r="G156" t="n">
-        <v>36.12114715576172</v>
+        <v>71.86634063720703</v>
       </c>
       <c r="H156" t="n">
-        <v>1.082264423370361</v>
+        <v>-61.943359375</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-2.176471011083791</v>
+        <v>-0.3262122058868409</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1951346769928932</v>
+        <v>-0.03854129523038864</v>
       </c>
       <c r="C157" t="n">
-        <v>33.20639801025391</v>
+        <v>38.51752471923828</v>
       </c>
       <c r="D157" t="n">
-        <v>22.29732894897461</v>
+        <v>26.07829093933105</v>
       </c>
       <c r="E157" t="n">
-        <v>-7.702182769775391</v>
+        <v>-14.70610237121582</v>
       </c>
       <c r="F157" t="n">
-        <v>24.23190689086914</v>
+        <v>40.95594024658203</v>
       </c>
       <c r="G157" t="n">
-        <v>40.21321105957031</v>
+        <v>71.86346435546875</v>
       </c>
       <c r="H157" t="n">
-        <v>3.459087371826172</v>
+        <v>-61.94965362548828</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.1890919587016106</v>
+        <v>-0.3258035200834274</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02311217412352562</v>
+        <v>-0.03967219032347202</v>
       </c>
       <c r="C158" t="n">
-        <v>33.58958053588867</v>
+        <v>38.51337814331055</v>
       </c>
       <c r="D158" t="n">
-        <v>22.46842193603516</v>
+        <v>26.08263206481934</v>
       </c>
       <c r="E158" t="n">
-        <v>-5.037322998046875</v>
+        <v>-14.70537757873535</v>
       </c>
       <c r="F158" t="n">
-        <v>27.3188362121582</v>
+        <v>40.9636344909668</v>
       </c>
       <c r="G158" t="n">
-        <v>43.79942321777344</v>
+        <v>71.86064147949219</v>
       </c>
       <c r="H158" t="n">
-        <v>5.945253372192383</v>
+        <v>-61.95573806762695</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.2152391311526299</v>
+        <v>-0.3254151153564454</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1571401020884514</v>
+        <v>-0.04075430974364281</v>
       </c>
       <c r="C159" t="n">
-        <v>33.87910842895508</v>
+        <v>38.50943756103516</v>
       </c>
       <c r="D159" t="n">
-        <v>24.38786315917969</v>
+        <v>26.08677864074707</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.107010126113892</v>
+        <v>-14.7047061920166</v>
       </c>
       <c r="F159" t="n">
-        <v>30.92543411254883</v>
+        <v>40.97099685668945</v>
       </c>
       <c r="G159" t="n">
-        <v>46.01315307617188</v>
+        <v>71.85792541503906</v>
       </c>
       <c r="H159" t="n">
-        <v>8.204769134521484</v>
+        <v>-61.96161651611328</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.2921228122711182</v>
+        <v>-0.3250470232963562</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.309834857583046</v>
+        <v>-0.04178652413189411</v>
       </c>
       <c r="C160" t="n">
-        <v>34.73044204711914</v>
+        <v>38.50570297241211</v>
       </c>
       <c r="D160" t="n">
-        <v>26.71616744995117</v>
+        <v>26.09074974060059</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1996809244155884</v>
+        <v>-14.70408725738525</v>
       </c>
       <c r="F160" t="n">
-        <v>34.17555618286133</v>
+        <v>40.97801971435547</v>
       </c>
       <c r="G160" t="n">
-        <v>46.01315307617188</v>
+        <v>71.85525512695312</v>
       </c>
       <c r="H160" t="n">
-        <v>10.01878356933594</v>
+        <v>-61.96728134155273</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.4276872766017914</v>
+        <v>-0.324697727560997</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.416915876865387</v>
+        <v>-0.04277388401329518</v>
       </c>
       <c r="C161" t="n">
-        <v>36.23154830932617</v>
+        <v>38.50215911865234</v>
       </c>
       <c r="D161" t="n">
-        <v>28.74462509155273</v>
+        <v>26.09454345703125</v>
       </c>
       <c r="E161" t="n">
-        <v>1.233852863311768</v>
+        <v>-14.70351696014404</v>
       </c>
       <c r="F161" t="n">
-        <v>36.56505584716797</v>
+        <v>40.98473739624023</v>
       </c>
       <c r="G161" t="n">
-        <v>44.58775329589844</v>
+        <v>71.85264587402344</v>
       </c>
       <c r="H161" t="n">
-        <v>11.21976661682129</v>
+        <v>-61.9727668762207</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.5774917733669281</v>
+        <v>-0.3243653327226639</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.4734928458929062</v>
+        <v>-0.04371807552874089</v>
       </c>
       <c r="C162" t="n">
-        <v>37.89033508300781</v>
+        <v>38.49878692626953</v>
       </c>
       <c r="D162" t="n">
-        <v>28.74462509155273</v>
+        <v>26.09816741943359</v>
       </c>
       <c r="E162" t="n">
-        <v>1.233852863311768</v>
+        <v>-14.70298767089844</v>
       </c>
       <c r="F162" t="n">
-        <v>37.97220611572266</v>
+        <v>40.99116134643555</v>
       </c>
       <c r="G162" t="n">
-        <v>40.13765716552734</v>
+        <v>71.85012054443359</v>
       </c>
       <c r="H162" t="n">
-        <v>11.21976661682129</v>
+        <v>-61.97804260253906</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.6552022874355317</v>
+        <v>-0.3240499019622803</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.4892128282785416</v>
+        <v>-0.04462077297270298</v>
       </c>
       <c r="C163" t="n">
-        <v>38.75082397460938</v>
+        <v>38.49558639526367</v>
       </c>
       <c r="D163" t="n">
-        <v>29.06721878051758</v>
+        <v>26.10164070129395</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.6609971523284912</v>
+        <v>-14.70249652862549</v>
       </c>
       <c r="F163" t="n">
-        <v>37.97220611572266</v>
+        <v>40.9973030090332</v>
       </c>
       <c r="G163" t="n">
-        <v>33.91640853881836</v>
+        <v>71.84766387939453</v>
       </c>
       <c r="H163" t="n">
-        <v>12.06086444854736</v>
+        <v>-61.98316955566406</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-0.5994473969936371</v>
+        <v>-0.3237498557567597</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.4879444712400436</v>
+        <v>-0.04548310175538063</v>
       </c>
       <c r="C164" t="n">
-        <v>38.13344955444336</v>
+        <v>38.4925422668457</v>
       </c>
       <c r="D164" t="n">
-        <v>26.85095405578613</v>
+        <v>26.10495758056641</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.784084439277649</v>
+        <v>-14.70204830169678</v>
       </c>
       <c r="F164" t="n">
-        <v>39.3450813293457</v>
+        <v>41.00317001342773</v>
       </c>
       <c r="G164" t="n">
-        <v>27.73345184326172</v>
+        <v>71.84526824951172</v>
       </c>
       <c r="H164" t="n">
-        <v>10.84854221343994</v>
+        <v>-61.98809051513672</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.4642022806406021</v>
+        <v>-0.323464846611023</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.4945237535238266</v>
+        <v>-0.04630674406886101</v>
       </c>
       <c r="C165" t="n">
-        <v>36.63587951660156</v>
+        <v>38.48965072631836</v>
       </c>
       <c r="D165" t="n">
-        <v>24.95302391052246</v>
+        <v>26.10813140869141</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.784084439277649</v>
+        <v>-14.70163059234619</v>
       </c>
       <c r="F165" t="n">
-        <v>39.52287292480469</v>
+        <v>41.00877380371094</v>
       </c>
       <c r="G165" t="n">
-        <v>23.63934707641602</v>
+        <v>71.84294891357422</v>
       </c>
       <c r="H165" t="n">
-        <v>9.436692237854004</v>
+        <v>-61.99283981323242</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.3825472235679627</v>
+        <v>-0.3231944954395294</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.5111714845895767</v>
+        <v>-0.04709730722010136</v>
       </c>
       <c r="C166" t="n">
-        <v>35.73171234130859</v>
+        <v>38.48690795898438</v>
       </c>
       <c r="D166" t="n">
-        <v>24.95302391052246</v>
+        <v>26.11117553710938</v>
       </c>
       <c r="E166" t="n">
-        <v>-2.353993892669678</v>
+        <v>-14.70124435424805</v>
       </c>
       <c r="F166" t="n">
-        <v>39.97274398803711</v>
+        <v>41.01415252685547</v>
       </c>
       <c r="G166" t="n">
-        <v>22.55796051025391</v>
+        <v>71.84069061279297</v>
       </c>
       <c r="H166" t="n">
-        <v>8.642233848571777</v>
+        <v>-61.99742889404297</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.4362347394227982</v>
+        <v>-0.3229358327388764</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.5164319914579392</v>
+        <v>-0.04785198360681534</v>
       </c>
       <c r="C167" t="n">
-        <v>36.32619476318359</v>
+        <v>38.48428344726562</v>
       </c>
       <c r="D167" t="n">
-        <v>25.07121849060059</v>
+        <v>26.11408996582031</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4913429915904999</v>
+        <v>-14.70088672637939</v>
       </c>
       <c r="F167" t="n">
-        <v>40.11489868164062</v>
+        <v>41.019287109375</v>
       </c>
       <c r="G167" t="n">
-        <v>23.97626113891602</v>
+        <v>71.83848571777344</v>
       </c>
       <c r="H167" t="n">
-        <v>8.86555290222168</v>
+        <v>-62.00186157226562</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.6010837829113007</v>
+        <v>-0.3226910698413849</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.4886562359333039</v>
+        <v>-0.04857470229268075</v>
       </c>
       <c r="C168" t="n">
-        <v>39.15215301513672</v>
+        <v>38.4818000793457</v>
       </c>
       <c r="D168" t="n">
-        <v>27.03629684448242</v>
+        <v>26.11687660217285</v>
       </c>
       <c r="E168" t="n">
-        <v>1.83364725112915</v>
+        <v>-14.7005558013916</v>
       </c>
       <c r="F168" t="n">
-        <v>39.36431503295898</v>
+        <v>41.02420425415039</v>
       </c>
       <c r="G168" t="n">
-        <v>26.55950164794922</v>
+        <v>71.83636474609375</v>
       </c>
       <c r="H168" t="n">
-        <v>10.05133152008057</v>
+        <v>-62.00614929199219</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.781808581352234</v>
+        <v>-0.3224575531482697</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.424101727604866</v>
+        <v>-0.04926602400839329</v>
       </c>
       <c r="C169" t="n">
-        <v>40.19609069824219</v>
+        <v>38.47943115234375</v>
       </c>
       <c r="D169" t="n">
-        <v>28.80117797851562</v>
+        <v>26.11954879760742</v>
       </c>
       <c r="E169" t="n">
-        <v>2.95715856552124</v>
+        <v>-14.70024681091309</v>
       </c>
       <c r="F169" t="n">
-        <v>36.44278717041016</v>
+        <v>41.02890777587891</v>
       </c>
       <c r="G169" t="n">
-        <v>29.01421356201172</v>
+        <v>71.83429718017578</v>
       </c>
       <c r="H169" t="n">
-        <v>12.90632724761963</v>
+        <v>-62.01028442382812</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.8800012135505677</v>
+        <v>-0.3222353458404541</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.3369849956035614</v>
+        <v>-0.04992707021534443</v>
       </c>
       <c r="C170" t="n">
-        <v>40.19609069824219</v>
+        <v>38.47717666625977</v>
       </c>
       <c r="D170" t="n">
-        <v>28.80117797851562</v>
+        <v>26.12211227416992</v>
       </c>
       <c r="E170" t="n">
-        <v>2.95715856552124</v>
+        <v>-14.69996356964111</v>
       </c>
       <c r="F170" t="n">
-        <v>34.63814544677734</v>
+        <v>41.03340530395508</v>
       </c>
       <c r="G170" t="n">
-        <v>30.64290809631348</v>
+        <v>71.83229064941406</v>
       </c>
       <c r="H170" t="n">
-        <v>14.35880851745605</v>
+        <v>-62.0142936706543</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.8492569971084595</v>
+        <v>-0.3220232790708542</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.246979995071888</v>
+        <v>-0.05056176207959652</v>
       </c>
       <c r="C171" t="n">
-        <v>40.89959335327148</v>
+        <v>38.47502517700195</v>
       </c>
       <c r="D171" t="n">
-        <v>30.46464920043945</v>
+        <v>26.12456703186035</v>
       </c>
       <c r="E171" t="n">
-        <v>4.351813793182373</v>
+        <v>-14.69969654083252</v>
       </c>
       <c r="F171" t="n">
-        <v>32.64461517333984</v>
+        <v>41.03772354125977</v>
       </c>
       <c r="G171" t="n">
-        <v>30.64290809631348</v>
+        <v>71.83034515380859</v>
       </c>
       <c r="H171" t="n">
-        <v>15.80014991760254</v>
+        <v>-62.01816177368164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.7096842086315155</v>
+        <v>-0.3218213844299316</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1662182214856148</v>
+        <v>-0.05116897813975811</v>
       </c>
       <c r="C172" t="n">
-        <v>38.32034301757812</v>
+        <v>38.47297668457031</v>
       </c>
       <c r="D172" t="n">
-        <v>29.16355323791504</v>
+        <v>26.12692260742188</v>
       </c>
       <c r="E172" t="n">
-        <v>4.322523593902588</v>
+        <v>-14.69944858551025</v>
       </c>
       <c r="F172" t="n">
-        <v>30.67143249511719</v>
+        <v>41.04185485839844</v>
       </c>
       <c r="G172" t="n">
-        <v>32.14595413208008</v>
+        <v>71.82846832275391</v>
       </c>
       <c r="H172" t="n">
-        <v>16.94395446777344</v>
+        <v>-62.02188110351562</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.5229667627811432</v>
+        <v>-0.3216288721561432</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.09395245775580406</v>
+        <v>-0.05174928702414036</v>
       </c>
       <c r="C173" t="n">
-        <v>36.84779357910156</v>
+        <v>38.47102355957031</v>
       </c>
       <c r="D173" t="n">
-        <v>27.71892166137695</v>
+        <v>26.12918090820312</v>
       </c>
       <c r="E173" t="n">
-        <v>4.354791164398193</v>
+        <v>-14.69921875</v>
       </c>
       <c r="F173" t="n">
-        <v>28.69309043884277</v>
+        <v>41.04580307006836</v>
       </c>
       <c r="G173" t="n">
-        <v>31.76459503173828</v>
+        <v>71.82664489746094</v>
       </c>
       <c r="H173" t="n">
-        <v>16.94395446777344</v>
+        <v>-62.02549743652344</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.3503550267219543</v>
+        <v>-0.3214446365833283</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.02055186394602061</v>
+        <v>-0.05230772741138935</v>
       </c>
       <c r="C174" t="n">
-        <v>35.41939544677734</v>
+        <v>38.46915435791016</v>
       </c>
       <c r="D174" t="n">
-        <v>27.09945869445801</v>
+        <v>26.13134765625</v>
       </c>
       <c r="E174" t="n">
-        <v>4.6639723777771</v>
+        <v>-14.69900417327881</v>
       </c>
       <c r="F174" t="n">
-        <v>26.57196044921875</v>
+        <v>41.04960250854492</v>
       </c>
       <c r="G174" t="n">
-        <v>31.4998950958252</v>
+        <v>71.82487487792969</v>
       </c>
       <c r="H174" t="n">
-        <v>18.37414932250977</v>
+        <v>-62.02897262573242</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.2253441300988197</v>
+        <v>-0.3212698149681091</v>
       </c>
       <c r="B175" t="n">
-        <v>0.06322562791407109</v>
+        <v>-0.05284261710941792</v>
       </c>
       <c r="C175" t="n">
-        <v>34.28366088867188</v>
+        <v>38.46738052368164</v>
       </c>
       <c r="D175" t="n">
-        <v>27.700439453125</v>
+        <v>26.13343048095703</v>
       </c>
       <c r="E175" t="n">
-        <v>5.21459436416626</v>
+        <v>-14.69880294799805</v>
       </c>
       <c r="F175" t="n">
-        <v>24.24089813232422</v>
+        <v>41.05324172973633</v>
       </c>
       <c r="G175" t="n">
-        <v>31.39813232421875</v>
+        <v>71.82317352294922</v>
       </c>
       <c r="H175" t="n">
-        <v>18.27325057983398</v>
+        <v>-62.03234100341797</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.1492062997817993</v>
+        <v>-0.3211017537117005</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1572565761208534</v>
+        <v>-0.05335676372051239</v>
       </c>
       <c r="C176" t="n">
-        <v>34.28366088867188</v>
+        <v>38.46567535400391</v>
       </c>
       <c r="D176" t="n">
-        <v>30.31231307983398</v>
+        <v>26.13542366027832</v>
       </c>
       <c r="E176" t="n">
-        <v>5.908764362335205</v>
+        <v>-14.6986141204834</v>
       </c>
       <c r="F176" t="n">
-        <v>21.8111515045166</v>
+        <v>41.05673980712891</v>
       </c>
       <c r="G176" t="n">
-        <v>31.40036582946777</v>
+        <v>71.82151031494141</v>
       </c>
       <c r="H176" t="n">
-        <v>18.07771492004395</v>
+        <v>-62.03560256958008</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.1023764729499817</v>
+        <v>-0.3209415584802628</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2508226588368416</v>
+        <v>-0.05384679891169072</v>
       </c>
       <c r="C177" t="n">
-        <v>32.62937927246094</v>
+        <v>38.46405029296875</v>
       </c>
       <c r="D177" t="n">
-        <v>31.75019645690918</v>
+        <v>26.1373462677002</v>
       </c>
       <c r="E177" t="n">
-        <v>6.700140476226807</v>
+        <v>-14.69843673706055</v>
       </c>
       <c r="F177" t="n">
-        <v>19.52853775024414</v>
+        <v>41.06007385253906</v>
       </c>
       <c r="G177" t="n">
-        <v>31.50333023071289</v>
+        <v>71.81991577148438</v>
       </c>
       <c r="H177" t="n">
-        <v>18.03516960144043</v>
+        <v>-62.03873443603516</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.0651393622905016</v>
+        <v>-0.320788534283638</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3298472571372986</v>
+        <v>-0.0543194554001093</v>
       </c>
       <c r="C178" t="n">
-        <v>32.2170524597168</v>
+        <v>38.46249771118164</v>
       </c>
       <c r="D178" t="n">
-        <v>33.19208908081055</v>
+        <v>26.13919067382812</v>
       </c>
       <c r="E178" t="n">
-        <v>7.606167316436768</v>
+        <v>-14.69826889038086</v>
       </c>
       <c r="F178" t="n">
-        <v>17.64655113220215</v>
+        <v>41.06328964233398</v>
       </c>
       <c r="G178" t="n">
-        <v>31.77927017211914</v>
+        <v>71.81836700439453</v>
       </c>
       <c r="H178" t="n">
-        <v>18.23748397827148</v>
+        <v>-62.04178619384766</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.02576632771641016</v>
+        <v>-0.3206422704458237</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3846658378839493</v>
+        <v>-0.05477136485278607</v>
       </c>
       <c r="C179" t="n">
-        <v>31.78107452392578</v>
+        <v>38.46101379394531</v>
       </c>
       <c r="D179" t="n">
-        <v>34.44487762451172</v>
+        <v>26.14096260070801</v>
       </c>
       <c r="E179" t="n">
-        <v>8.698902130126953</v>
+        <v>-14.69811344146729</v>
       </c>
       <c r="F179" t="n">
-        <v>16.29125785827637</v>
+        <v>41.06636428833008</v>
       </c>
       <c r="G179" t="n">
-        <v>32.25860977172852</v>
+        <v>71.81687164306641</v>
       </c>
       <c r="H179" t="n">
-        <v>18.52322387695312</v>
+        <v>-62.04472351074219</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.01127734368667006</v>
+        <v>-0.3205016613006592</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4153286772966385</v>
+        <v>-0.05520757384598256</v>
       </c>
       <c r="C180" t="n">
-        <v>31.37088966369629</v>
+        <v>38.45958709716797</v>
       </c>
       <c r="D180" t="n">
-        <v>35.50149154663086</v>
+        <v>26.14266395568848</v>
       </c>
       <c r="E180" t="n">
-        <v>9.916807174682617</v>
+        <v>-14.69796371459961</v>
       </c>
       <c r="F180" t="n">
-        <v>16.29125785827637</v>
+        <v>41.06933212280273</v>
       </c>
       <c r="G180" t="n">
-        <v>32.87685394287109</v>
+        <v>71.81541442871094</v>
       </c>
       <c r="H180" t="n">
-        <v>18.72625350952148</v>
+        <v>-62.04756927490234</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.04190755113959313</v>
+        <v>-0.3203674334287643</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4283800238370896</v>
+        <v>-0.05562472194433213</v>
       </c>
       <c r="C181" t="n">
-        <v>31.0317211151123</v>
+        <v>38.45822525024414</v>
       </c>
       <c r="D181" t="n">
-        <v>35.50149154663086</v>
+        <v>26.1443042755127</v>
       </c>
       <c r="E181" t="n">
-        <v>11.11857032775879</v>
+        <v>-14.6978235244751</v>
       </c>
       <c r="F181" t="n">
-        <v>14.58327865600586</v>
+        <v>41.07217025756836</v>
       </c>
       <c r="G181" t="n">
-        <v>33.45238876342773</v>
+        <v>71.81402587890625</v>
       </c>
       <c r="H181" t="n">
-        <v>18.63276863098145</v>
+        <v>-62.05030059814453</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.06375376515090465</v>
+        <v>-0.3202388286590576</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4345122694969177</v>
+        <v>-0.05602504812180996</v>
       </c>
       <c r="C182" t="n">
-        <v>30.78981781005859</v>
+        <v>38.4569206237793</v>
       </c>
       <c r="D182" t="n">
-        <v>37.34563064575195</v>
+        <v>26.14588165283203</v>
       </c>
       <c r="E182" t="n">
-        <v>12.04689025878906</v>
+        <v>-14.69768905639648</v>
       </c>
       <c r="F182" t="n">
-        <v>14.41756725311279</v>
+        <v>41.07489395141602</v>
       </c>
       <c r="G182" t="n">
-        <v>33.80327224731445</v>
+        <v>71.81266784667969</v>
       </c>
       <c r="H182" t="n">
-        <v>18.13569259643555</v>
+        <v>-62.05294799804688</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.08161751180887222</v>
+        <v>-0.32011549949646</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4429843574762344</v>
+        <v>-0.05641079925000668</v>
       </c>
       <c r="C183" t="n">
-        <v>30.59201240539551</v>
+        <v>38.45566940307617</v>
       </c>
       <c r="D183" t="n">
-        <v>38.08687973022461</v>
+        <v>26.14739990234375</v>
       </c>
       <c r="E183" t="n">
-        <v>12.39341926574707</v>
+        <v>-14.69756126403809</v>
       </c>
       <c r="F183" t="n">
-        <v>14.18862628936768</v>
+        <v>41.07751846313477</v>
       </c>
       <c r="G183" t="n">
-        <v>33.82124710083008</v>
+        <v>71.81135559082031</v>
       </c>
       <c r="H183" t="n">
-        <v>17.139404296875</v>
+        <v>-62.05552291870117</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.1048984105885029</v>
+        <v>-0.3199970668554306</v>
       </c>
       <c r="B184" t="n">
-        <v>0.457452883720398</v>
+        <v>-0.05678084991872311</v>
       </c>
       <c r="C184" t="n">
-        <v>30.3342227935791</v>
+        <v>38.4544677734375</v>
       </c>
       <c r="D184" t="n">
-        <v>38.74774932861328</v>
+        <v>26.14885711669922</v>
       </c>
       <c r="E184" t="n">
-        <v>11.85548782348633</v>
+        <v>-14.69743633270264</v>
       </c>
       <c r="F184" t="n">
-        <v>13.79764366149902</v>
+        <v>41.08003616333008</v>
       </c>
       <c r="G184" t="n">
-        <v>33.52746963500977</v>
+        <v>71.81008911132812</v>
       </c>
       <c r="H184" t="n">
-        <v>14.2338981628418</v>
+        <v>-62.05798721313477</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1364152112603188</v>
+        <v>-0.3198835307359695</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4741710615158081</v>
+        <v>-0.05713744305074215</v>
       </c>
       <c r="C185" t="n">
-        <v>29.98523712158203</v>
+        <v>38.45331573486328</v>
       </c>
       <c r="D185" t="n">
-        <v>39.33152389526367</v>
+        <v>26.15027046203613</v>
       </c>
       <c r="E185" t="n">
-        <v>8.530230522155762</v>
+        <v>-14.69732093811035</v>
       </c>
       <c r="F185" t="n">
-        <v>13.34586906433105</v>
+        <v>41.08246231079102</v>
       </c>
       <c r="G185" t="n">
-        <v>33.12777709960938</v>
+        <v>71.80887603759766</v>
       </c>
       <c r="H185" t="n">
-        <v>11.81608009338379</v>
+        <v>-62.06038665771484</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1671385937929153</v>
+        <v>-0.3197741013765335</v>
       </c>
       <c r="B186" t="n">
-        <v>0.481079832315445</v>
+        <v>-0.05748001791536808</v>
       </c>
       <c r="C186" t="n">
-        <v>29.6450366973877</v>
+        <v>38.45220565795898</v>
       </c>
       <c r="D186" t="n">
-        <v>39.95296859741211</v>
+        <v>26.15162467956543</v>
       </c>
       <c r="E186" t="n">
-        <v>5.422224998474121</v>
+        <v>-14.69720649719238</v>
       </c>
       <c r="F186" t="n">
-        <v>13.1591739654541</v>
+        <v>41.08479309082031</v>
       </c>
       <c r="G186" t="n">
-        <v>33.04045867919922</v>
+        <v>71.80769348144531</v>
       </c>
       <c r="H186" t="n">
-        <v>8.288626670837402</v>
+        <v>-62.06271362304688</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1745426872372627</v>
+        <v>0.7380188270687777</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5461495653735008</v>
+        <v>1.115344533641654</v>
       </c>
       <c r="C187" t="n">
-        <v>29.56305122375488</v>
+        <v>38.45114135742188</v>
       </c>
       <c r="D187" t="n">
-        <v>40.76605606079102</v>
+        <v>26.15293121337891</v>
       </c>
       <c r="E187" t="n">
-        <v>1.227221965789795</v>
+        <v>-14.69709873199463</v>
       </c>
       <c r="F187" t="n">
-        <v>13.63312721252441</v>
+        <v>41.0870361328125</v>
       </c>
       <c r="G187" t="n">
-        <v>34.90313720703125</v>
+        <v>71.80655670166016</v>
       </c>
       <c r="H187" t="n">
-        <v>4.050491333007812</v>
+        <v>-62.06494522094727</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7819354472794291</v>
+        <v>0.7380188270687777</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6472550953986351</v>
+        <v>0.9873498634292763</v>
       </c>
       <c r="C188" t="n">
-        <v>29.94540596008301</v>
+        <v>38.45011901855469</v>
       </c>
       <c r="D188" t="n">
-        <v>41.85092544555664</v>
+        <v>26.15419578552246</v>
       </c>
       <c r="E188" t="n">
-        <v>-2.958805322647095</v>
+        <v>-14.69699192047119</v>
       </c>
       <c r="F188" t="n">
-        <v>16.16082763671875</v>
+        <v>41.08919143676758</v>
       </c>
       <c r="G188" t="n">
-        <v>37.10801696777344</v>
+        <v>71.80546569824219</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.01326465606689453</v>
+        <v>-62.06710052490234</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9730590646475082</v>
+        <v>0.5203661856246951</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7816486067998487</v>
+        <v>1.001394693759742</v>
       </c>
       <c r="C189" t="n">
-        <v>30.77071189880371</v>
+        <v>38.44913864135742</v>
       </c>
       <c r="D189" t="n">
-        <v>43.26103210449219</v>
+        <v>26.15540885925293</v>
       </c>
       <c r="E189" t="n">
-        <v>-5.908763408660889</v>
+        <v>-14.69689083099365</v>
       </c>
       <c r="F189" t="n">
-        <v>18.08844757080078</v>
+        <v>41.09127807617188</v>
       </c>
       <c r="G189" t="n">
-        <v>40.16025543212891</v>
+        <v>71.80440521240234</v>
       </c>
       <c r="H189" t="n">
-        <v>-3.063607215881348</v>
+        <v>-62.0692024230957</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.002063137443258</v>
+        <v>1.289027513648172</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9063409809653328</v>
+        <v>0.9998454600992271</v>
       </c>
       <c r="C190" t="n">
-        <v>31.94518852233887</v>
+        <v>38.44818878173828</v>
       </c>
       <c r="D190" t="n">
-        <v>46.06245422363281</v>
+        <v>26.15657997131348</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.150644302368164</v>
+        <v>-14.69679355621338</v>
       </c>
       <c r="F190" t="n">
-        <v>20.38129043579102</v>
+        <v>41.09327697753906</v>
       </c>
       <c r="G190" t="n">
-        <v>43.50450897216797</v>
+        <v>71.80340576171875</v>
       </c>
       <c r="H190" t="n">
-        <v>-4.742850780487061</v>
+        <v>-62.07122421264648</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9992951553114198</v>
+        <v>0.8258809183816029</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9772084398801436</v>
+        <v>1.000017206776444</v>
       </c>
       <c r="C191" t="n">
-        <v>33.50072860717773</v>
+        <v>38.4472770690918</v>
       </c>
       <c r="D191" t="n">
-        <v>47.59745025634766</v>
+        <v>26.15771293640137</v>
       </c>
       <c r="E191" t="n">
-        <v>-7.150644302368164</v>
+        <v>-14.69669628143311</v>
       </c>
       <c r="F191" t="n">
-        <v>22.7016716003418</v>
+        <v>41.09521102905273</v>
       </c>
       <c r="G191" t="n">
-        <v>46.55713653564453</v>
+        <v>71.80241394042969</v>
       </c>
       <c r="H191" t="n">
-        <v>-4.742850780487061</v>
+        <v>-62.07319259643555</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.00047104726697</v>
+        <v>1.104866167022206</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9981901224665114</v>
+        <v>0.9999980752988658</v>
       </c>
       <c r="C192" t="n">
-        <v>36.46949768066406</v>
+        <v>38.44639587402344</v>
       </c>
       <c r="D192" t="n">
-        <v>49.28723907470703</v>
+        <v>26.15880012512207</v>
       </c>
       <c r="E192" t="n">
-        <v>-6.848743438720703</v>
+        <v>-14.69660186767578</v>
       </c>
       <c r="F192" t="n">
-        <v>24.8975830078125</v>
+        <v>41.09706878662109</v>
       </c>
       <c r="G192" t="n">
-        <v>48.904541015625</v>
+        <v>71.80146026611328</v>
       </c>
       <c r="H192" t="n">
-        <v>-4.21508264541626</v>
+        <v>-62.07507705688477</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9995163732995119</v>
+        <v>0.9368590151994365</v>
       </c>
       <c r="B193" t="n">
-        <v>1.000118043539608</v>
+        <v>1.00000021624858</v>
       </c>
       <c r="C193" t="n">
-        <v>37.98056411743164</v>
+        <v>38.44555282592773</v>
       </c>
       <c r="D193" t="n">
-        <v>50.8685417175293</v>
+        <v>26.15985107421875</v>
       </c>
       <c r="E193" t="n">
-        <v>-5.051129817962646</v>
+        <v>-14.69651222229004</v>
       </c>
       <c r="F193" t="n">
-        <v>26.98116683959961</v>
+        <v>41.09886169433594</v>
       </c>
       <c r="G193" t="n">
-        <v>50.42263793945312</v>
+        <v>71.80055236816406</v>
       </c>
       <c r="H193" t="n">
-        <v>-2.264547824859619</v>
+        <v>-62.07690048217773</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.00065892249024</v>
+        <v>1.038008198017472</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999760538443522</v>
+        <v>0.9999999756001247</v>
       </c>
       <c r="C194" t="n">
-        <v>39.51046371459961</v>
+        <v>38.44473266601562</v>
       </c>
       <c r="D194" t="n">
-        <v>52.17239379882812</v>
+        <v>26.16086959838867</v>
       </c>
       <c r="E194" t="n">
-        <v>-3.249986171722412</v>
+        <v>-14.69642543792725</v>
       </c>
       <c r="F194" t="n">
-        <v>29.04962539672852</v>
+        <v>41.1005859375</v>
       </c>
       <c r="G194" t="n">
-        <v>50.42263793945312</v>
+        <v>71.79965972900391</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.07740199565887451</v>
+        <v>-62.07867050170898</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.998928355956985</v>
+        <v>0.9771262294462922</v>
       </c>
       <c r="B195" t="n">
-        <v>1.000008290781836</v>
+        <v>1.00000000276438</v>
       </c>
       <c r="C195" t="n">
-        <v>40.88742828369141</v>
+        <v>38.44394683837891</v>
       </c>
       <c r="D195" t="n">
-        <v>52.17239379882812</v>
+        <v>26.1618537902832</v>
       </c>
       <c r="E195" t="n">
-        <v>-1.399687767028809</v>
+        <v>-14.6963357925415</v>
       </c>
       <c r="F195" t="n">
-        <v>31.1829948425293</v>
+        <v>41.10225296020508</v>
       </c>
       <c r="G195" t="n">
-        <v>52.19418716430664</v>
+        <v>71.79878997802734</v>
       </c>
       <c r="H195" t="n">
-        <v>1.934436798095703</v>
+        <v>-62.08037948608398</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.001966388520192</v>
+        <v>1.013762468920065</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999958569807346</v>
+        <v>0.9999999996855818</v>
       </c>
       <c r="C196" t="n">
-        <v>42.05735015869141</v>
+        <v>38.44318771362305</v>
       </c>
       <c r="D196" t="n">
-        <v>54.01579666137695</v>
+        <v>26.16280364990234</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2758612036705017</v>
+        <v>-14.69625091552734</v>
       </c>
       <c r="F196" t="n">
-        <v>33.42230224609375</v>
+        <v>41.10385513305664</v>
       </c>
       <c r="G196" t="n">
-        <v>52.69063949584961</v>
+        <v>71.79798126220703</v>
       </c>
       <c r="H196" t="n">
-        <v>3.488031148910522</v>
+        <v>-62.08205032348633</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9960691932554948</v>
+        <v>0.9917214249647184</v>
       </c>
       <c r="B197" t="n">
-        <v>1.000002748742095</v>
+        <v>1.000000000035898</v>
       </c>
       <c r="C197" t="n">
-        <v>43.08253860473633</v>
+        <v>38.44244766235352</v>
       </c>
       <c r="D197" t="n">
-        <v>54.09942245483398</v>
+        <v>26.16371917724609</v>
       </c>
       <c r="E197" t="n">
-        <v>1.705248355865479</v>
+        <v>-14.6961669921875</v>
       </c>
       <c r="F197" t="n">
-        <v>35.71879196166992</v>
+        <v>41.10541534423828</v>
       </c>
       <c r="G197" t="n">
-        <v>53.79281997680664</v>
+        <v>71.79718017578125</v>
       </c>
       <c r="H197" t="n">
-        <v>4.53217601776123</v>
+        <v>-62.08364486694336</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.00844739693557</v>
+        <v>1.004978741189895</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999977245887998</v>
+        <v>0.9999999999958866</v>
       </c>
       <c r="C198" t="n">
-        <v>44.08970642089844</v>
+        <v>38.44173812866211</v>
       </c>
       <c r="D198" t="n">
-        <v>53.82928085327148</v>
+        <v>26.16460609436035</v>
       </c>
       <c r="E198" t="n">
-        <v>2.643504619598389</v>
+        <v>-14.69608402252197</v>
       </c>
       <c r="F198" t="n">
-        <v>37.92756652832031</v>
+        <v>41.10690689086914</v>
       </c>
       <c r="G198" t="n">
-        <v>56.5936279296875</v>
+        <v>71.79640960693359</v>
       </c>
       <c r="H198" t="n">
-        <v>4.53217601776123</v>
+        <v>-62.08518218994141</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.980422565424764</v>
+        <v>0.9970064135705101</v>
       </c>
       <c r="B199" t="n">
-        <v>1.00000222056667</v>
+        <v>1.000000000000473</v>
       </c>
       <c r="C199" t="n">
-        <v>45.24348449707031</v>
+        <v>38.44105529785156</v>
       </c>
       <c r="D199" t="n">
-        <v>53.36856460571289</v>
+        <v>26.16546249389648</v>
       </c>
       <c r="E199" t="n">
-        <v>2.676952838897705</v>
+        <v>-14.69600200653076</v>
       </c>
       <c r="F199" t="n">
-        <v>39.82075500488281</v>
+        <v>41.10835266113281</v>
       </c>
       <c r="G199" t="n">
-        <v>58.07682418823242</v>
+        <v>71.79570007324219</v>
       </c>
       <c r="H199" t="n">
-        <v>5.764888286590576</v>
+        <v>-62.08668518066406</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.04971006789976</v>
+        <v>1.001799595440674</v>
       </c>
       <c r="B200" t="n">
-        <v>0.999997588356957</v>
+        <v>0.9999999999999455</v>
       </c>
       <c r="C200" t="n">
-        <v>46.6673698425293</v>
+        <v>38.44039154052734</v>
       </c>
       <c r="D200" t="n">
-        <v>52.83731842041016</v>
+        <v>26.16629028320312</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.255609512329102</v>
+        <v>-14.69592475891113</v>
       </c>
       <c r="F200" t="n">
-        <v>41.11248397827148</v>
+        <v>41.10974502563477</v>
       </c>
       <c r="G200" t="n">
-        <v>59.24953460693359</v>
+        <v>71.79497528076172</v>
       </c>
       <c r="H200" t="n">
-        <v>5.622128009796143</v>
+        <v>-62.0881233215332</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8594298898778233</v>
+        <v>0.9989183883808355</v>
       </c>
       <c r="B201" t="n">
-        <v>1.000002735391841</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="C201" t="n">
-        <v>48.12572479248047</v>
+        <v>38.43974685668945</v>
       </c>
       <c r="D201" t="n">
-        <v>50.92681503295898</v>
+        <v>26.16709136962891</v>
       </c>
       <c r="E201" t="n">
-        <v>-6.274250030517578</v>
+        <v>-14.69584369659424</v>
       </c>
       <c r="F201" t="n">
-        <v>41.11248397827148</v>
+        <v>41.1110954284668</v>
       </c>
       <c r="G201" t="n">
-        <v>59.24953460693359</v>
+        <v>71.79430389404297</v>
       </c>
       <c r="H201" t="n">
-        <v>3.517522811889648</v>
+        <v>-62.08953094482422</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.433261126045116</v>
+        <v>1.000649957190261</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999969830165366</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="C202" t="n">
-        <v>48.12572479248047</v>
+        <v>38.43912887573242</v>
       </c>
       <c r="D202" t="n">
-        <v>47.55534362792969</v>
+        <v>26.1678638458252</v>
       </c>
       <c r="E202" t="n">
-        <v>-12.31634330749512</v>
+        <v>-14.69576835632324</v>
       </c>
       <c r="F202" t="n">
-        <v>41.95592498779297</v>
+        <v>41.11239242553711</v>
       </c>
       <c r="G202" t="n">
-        <v>54.59797668457031</v>
+        <v>71.79364013671875</v>
       </c>
       <c r="H202" t="n">
-        <v>1.673897385597229</v>
+        <v>-62.09090423583984</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.935102434647332</v>
+        <v>0.9996095030393085</v>
       </c>
       <c r="B203" t="n">
-        <v>1.000003064257939</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>47.47263336181641</v>
+        <v>38.43852996826172</v>
       </c>
       <c r="D203" t="n">
-        <v>41.72901153564453</v>
+        <v>26.16861534118652</v>
       </c>
       <c r="E203" t="n">
-        <v>-15.60004806518555</v>
+        <v>-14.69569110870361</v>
       </c>
       <c r="F203" t="n">
-        <v>40.70596694946289</v>
+        <v>41.11365509033203</v>
       </c>
       <c r="G203" t="n">
-        <v>47.48722457885742</v>
+        <v>71.79299926757812</v>
       </c>
       <c r="H203" t="n">
-        <v>1.673897385597229</v>
+        <v>-62.09219741821289</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.1653514439667034</v>
+        <v>1.000234569799735</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9999970032088993</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>42.04044723510742</v>
+        <v>38.43794631958008</v>
       </c>
       <c r="D204" t="n">
-        <v>34.49962615966797</v>
+        <v>26.16933822631836</v>
       </c>
       <c r="E204" t="n">
-        <v>-13.70456123352051</v>
+        <v>-16.82839584350586</v>
       </c>
       <c r="F204" t="n">
-        <v>36.90293121337891</v>
+        <v>41.1148681640625</v>
       </c>
       <c r="G204" t="n">
-        <v>40.41929626464844</v>
+        <v>64.74807739257812</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.178545743227005</v>
+        <v>-59.45072937011719</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.1653514439667034</v>
+        <v>0.9998591197520041</v>
       </c>
       <c r="B205" t="n">
-        <v>1.000003130365046</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>42.04044723510742</v>
+        <v>36.82262420654297</v>
       </c>
       <c r="D205" t="n">
-        <v>34.49962615966797</v>
+        <v>26.1700439453125</v>
       </c>
       <c r="E205" t="n">
-        <v>-13.70456123352051</v>
+        <v>-16.82839584350586</v>
       </c>
       <c r="F205" t="n">
-        <v>36.90293121337891</v>
+        <v>41.11603546142578</v>
       </c>
       <c r="G205" t="n">
-        <v>40.41929626464844</v>
+        <v>64.74807739257812</v>
       </c>
       <c r="H205" t="n">
-        <v>0.6332845687866211</v>
+        <v>-59.45072937011719</v>
       </c>
     </row>
   </sheetData>

--- a/exo_control/neural_network_parameters/excel/PV_cp_lstm.xlsx
+++ b/exo_control/neural_network_parameters/excel/PV_cp_lstm.xlsx
@@ -476,5307 +476,5423 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35.7794189453125</v>
+        <v>47.44820404052734</v>
       </c>
       <c r="D2" t="n">
-        <v>25.66837310791016</v>
+        <v>19.69286727905273</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.65994262695312</v>
+        <v>-29.72189903259277</v>
       </c>
       <c r="F2" t="n">
-        <v>40.69371795654297</v>
+        <v>29.68033790588379</v>
       </c>
       <c r="G2" t="n">
-        <v>50.92035675048828</v>
+        <v>51.73646545410156</v>
       </c>
       <c r="H2" t="n">
-        <v>-54.76684951782227</v>
+        <v>-60.46580505371094</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0.04648830235004425</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1197062104940415</v>
+        <v>0.02698074009269476</v>
       </c>
       <c r="C3" t="n">
-        <v>35.7794189453125</v>
+        <v>47.44820404052734</v>
       </c>
       <c r="D3" t="n">
-        <v>26.13063430786133</v>
+        <v>19.69286727905273</v>
       </c>
       <c r="E3" t="n">
-        <v>-20.65994262695312</v>
+        <v>-28.07958602905273</v>
       </c>
       <c r="F3" t="n">
-        <v>41.50815963745117</v>
+        <v>31.41058349609375</v>
       </c>
       <c r="G3" t="n">
-        <v>47.85140991210938</v>
+        <v>51.73646545410156</v>
       </c>
       <c r="H3" t="n">
-        <v>-54.76684951782227</v>
+        <v>-58.38847351074219</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0.0829056839644909</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2344335746765137</v>
+        <v>0.06135156720876694</v>
       </c>
       <c r="C4" t="n">
-        <v>34.36673355102539</v>
+        <v>46.64127731323242</v>
       </c>
       <c r="D4" t="n">
-        <v>26.80419921875</v>
+        <v>17.87673377990723</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.57056617736816</v>
+        <v>-28.22477531433105</v>
       </c>
       <c r="F4" t="n">
-        <v>42.28872680664062</v>
+        <v>31.41058349609375</v>
       </c>
       <c r="G4" t="n">
-        <v>46.68174743652344</v>
+        <v>50.35720443725586</v>
       </c>
       <c r="H4" t="n">
-        <v>-54.12808990478516</v>
+        <v>-58.38847351074219</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0.118123646825552</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3513150608539581</v>
+        <v>0.09980026289820672</v>
       </c>
       <c r="C5" t="n">
-        <v>34.00942230224609</v>
+        <v>47.67352294921875</v>
       </c>
       <c r="D5" t="n">
-        <v>27.60887336730957</v>
+        <v>17.73979568481445</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.8062686920166</v>
+        <v>-28.47101783752441</v>
       </c>
       <c r="F5" t="n">
-        <v>43.08395004272461</v>
+        <v>31.56884002685547</v>
       </c>
       <c r="G5" t="n">
-        <v>46.68174743652344</v>
+        <v>50.85790252685547</v>
       </c>
       <c r="H5" t="n">
-        <v>-55.61592483520508</v>
+        <v>-58.01377487182617</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0.1528182426095009</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4707168340682983</v>
+        <v>0.1399908092617989</v>
       </c>
       <c r="C6" t="n">
-        <v>33.65742111206055</v>
+        <v>48.71046447753906</v>
       </c>
       <c r="D6" t="n">
-        <v>28.5016975402832</v>
+        <v>17.81272315979004</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.05403137207031</v>
+        <v>-28.74214935302734</v>
       </c>
       <c r="F6" t="n">
-        <v>43.89632034301758</v>
+        <v>29.92563247680664</v>
       </c>
       <c r="G6" t="n">
-        <v>46.30809783935547</v>
+        <v>51.43077850341797</v>
       </c>
       <c r="H6" t="n">
-        <v>-57.11036682128906</v>
+        <v>-61.00734329223633</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0.187180814743042</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5923562860488892</v>
+        <v>0.1798296985030174</v>
       </c>
       <c r="C7" t="n">
-        <v>33.30878829956055</v>
+        <v>49.65462493896484</v>
       </c>
       <c r="D7" t="n">
-        <v>29.43852615356445</v>
+        <v>18.04891395568848</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.30731391906738</v>
+        <v>-28.9902515411377</v>
       </c>
       <c r="F7" t="n">
-        <v>44.72391510009766</v>
+        <v>28.29680252075195</v>
       </c>
       <c r="G7" t="n">
-        <v>47.15426254272461</v>
+        <v>52.0436897277832</v>
       </c>
       <c r="H7" t="n">
-        <v>-58.55677795410156</v>
+        <v>-62.5869140625</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0.2210749161243439</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7151877093315124</v>
+        <v>0.2168921178579331</v>
       </c>
       <c r="C8" t="n">
-        <v>32.96490859985352</v>
+        <v>50.41971206665039</v>
       </c>
       <c r="D8" t="n">
-        <v>30.38314628601074</v>
+        <v>18.4206714630127</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.56386375427246</v>
+        <v>-29.17688369750977</v>
       </c>
       <c r="F8" t="n">
-        <v>45.55961990356445</v>
+        <v>26.78149032592773</v>
       </c>
       <c r="G8" t="n">
-        <v>48.03530502319336</v>
+        <v>52.65084075927734</v>
       </c>
       <c r="H8" t="n">
-        <v>-59.91529846191406</v>
+        <v>-64.40205383300781</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0.2544911327958107</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8378005266189575</v>
+        <v>0.2502568104863167</v>
       </c>
       <c r="C9" t="n">
-        <v>32.62587738037109</v>
+        <v>50.99978256225586</v>
       </c>
       <c r="D9" t="n">
-        <v>31.30863952636719</v>
+        <v>18.87376976013184</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.82549095153809</v>
+        <v>-29.30697441101074</v>
       </c>
       <c r="F9" t="n">
-        <v>46.39383697509766</v>
+        <v>25.41736030578613</v>
       </c>
       <c r="G9" t="n">
-        <v>48.93630599975586</v>
+        <v>53.22898483276367</v>
       </c>
       <c r="H9" t="n">
-        <v>-61.15761184692383</v>
+        <v>-66.26484680175781</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0.2870986020565033</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.9583981883525848</v>
+        <v>0.2793487983942032</v>
       </c>
       <c r="C10" t="n">
-        <v>32.29505157470703</v>
+        <v>51.40503692626953</v>
       </c>
       <c r="D10" t="n">
-        <v>32.19624710083008</v>
+        <v>19.36593246459961</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.09530258178711</v>
+        <v>-29.38797378540039</v>
       </c>
       <c r="F10" t="n">
-        <v>47.2143440246582</v>
+        <v>24.2279224395752</v>
       </c>
       <c r="G10" t="n">
-        <v>49.84849548339844</v>
+        <v>53.75736999511719</v>
       </c>
       <c r="H10" t="n">
-        <v>-62.26981353759766</v>
+        <v>-68.05690765380859</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0.3185512030124664</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.075111486911774</v>
+        <v>0.3041094022989273</v>
       </c>
       <c r="C11" t="n">
-        <v>31.97594261169434</v>
+        <v>51.66596221923828</v>
       </c>
       <c r="D11" t="n">
-        <v>33.03340530395508</v>
+        <v>19.85934066772461</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.38033676147461</v>
+        <v>-29.43498039245605</v>
       </c>
       <c r="F11" t="n">
-        <v>48.0084228515625</v>
+        <v>23.21557426452637</v>
       </c>
       <c r="G11" t="n">
-        <v>50.76608657836914</v>
+        <v>54.22846221923828</v>
       </c>
       <c r="H11" t="n">
-        <v>-63.24966049194336</v>
+        <v>-69.70757293701172</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0.3485116916894913</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.18608283996582</v>
+        <v>0.324949598312378</v>
       </c>
       <c r="C12" t="n">
-        <v>31.67197227478027</v>
+        <v>51.82039642333984</v>
       </c>
       <c r="D12" t="n">
-        <v>33.80932998657227</v>
+        <v>20.32515144348145</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.68970108032227</v>
+        <v>-29.46482086181641</v>
       </c>
       <c r="F12" t="n">
-        <v>48.76343536376953</v>
+        <v>22.3635139465332</v>
       </c>
       <c r="G12" t="n">
-        <v>51.68393325805664</v>
+        <v>54.64281463623047</v>
       </c>
       <c r="H12" t="n">
-        <v>-64.09918212890625</v>
+        <v>-71.18121337890625</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0.3768289077281952</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.289502935409546</v>
+        <v>0.3424935823678971</v>
       </c>
       <c r="C13" t="n">
-        <v>31.38467407226562</v>
+        <v>51.90312957763672</v>
       </c>
       <c r="D13" t="n">
-        <v>34.51605224609375</v>
+        <v>20.74678230285645</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.03331661224365</v>
+        <v>-29.49073028564453</v>
       </c>
       <c r="F13" t="n">
-        <v>49.46707153320312</v>
+        <v>21.64622116088867</v>
       </c>
       <c r="G13" t="n">
-        <v>52.59360504150391</v>
+        <v>55.00454330444336</v>
       </c>
       <c r="H13" t="n">
-        <v>-64.82260894775391</v>
+        <v>-72.46607971191406</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0.4035363054275513</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.384589087963104</v>
+        <v>0.3572935873270035</v>
       </c>
       <c r="C14" t="n">
-        <v>31.11370849609375</v>
+        <v>51.93899917602539</v>
       </c>
       <c r="D14" t="n">
-        <v>35.1509895324707</v>
+        <v>21.12238693237305</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.41633987426758</v>
+        <v>-29.51265525817871</v>
       </c>
       <c r="F14" t="n">
-        <v>50.11400604248047</v>
+        <v>21.04111671447754</v>
       </c>
       <c r="G14" t="n">
-        <v>53.48921203613281</v>
+        <v>55.31489181518555</v>
       </c>
       <c r="H14" t="n">
-        <v>-65.42723846435547</v>
+        <v>-73.56913757324219</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0.4285440415143967</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.47105849981308</v>
+        <v>0.3699550127983093</v>
       </c>
       <c r="C15" t="n">
-        <v>30.85998725891113</v>
+        <v>51.95066070556641</v>
       </c>
       <c r="D15" t="n">
-        <v>35.71693801879883</v>
+        <v>21.45090675354004</v>
       </c>
       <c r="E15" t="n">
-        <v>-13.84376430511475</v>
+        <v>-29.53608512878418</v>
       </c>
       <c r="F15" t="n">
-        <v>50.70231628417969</v>
+        <v>20.5234489440918</v>
       </c>
       <c r="G15" t="n">
-        <v>54.36482238769531</v>
+        <v>55.57745742797852</v>
       </c>
       <c r="H15" t="n">
-        <v>-65.92564392089844</v>
+        <v>-73.56913757324219</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0.4515046840906143</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.549024770259857</v>
+        <v>0.3810281962156296</v>
       </c>
       <c r="C16" t="n">
-        <v>30.62703514099121</v>
+        <v>51.95470809936523</v>
       </c>
       <c r="D16" t="n">
-        <v>36.21617889404297</v>
+        <v>21.73312759399414</v>
       </c>
       <c r="E16" t="n">
-        <v>-13.31615161895752</v>
+        <v>-29.56576919555664</v>
       </c>
       <c r="F16" t="n">
-        <v>51.23277282714844</v>
+        <v>20.07071685791016</v>
       </c>
       <c r="G16" t="n">
-        <v>55.22113800048828</v>
+        <v>55.79674911499023</v>
       </c>
       <c r="H16" t="n">
-        <v>-66.32833862304688</v>
+        <v>-75.44393920898438</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0.4720067358016968</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.618333485126495</v>
+        <v>0.3908718156814575</v>
       </c>
       <c r="C17" t="n">
-        <v>30.41902732849121</v>
+        <v>51.95936965942383</v>
       </c>
       <c r="D17" t="n">
-        <v>36.6513786315918</v>
+        <v>21.97256278991699</v>
       </c>
       <c r="E17" t="n">
-        <v>-12.83436679840088</v>
+        <v>-29.6013126373291</v>
       </c>
       <c r="F17" t="n">
-        <v>51.70432662963867</v>
+        <v>19.66825675964355</v>
       </c>
       <c r="G17" t="n">
-        <v>56.05633544921875</v>
+        <v>55.97811126708984</v>
       </c>
       <c r="H17" t="n">
-        <v>-66.64374542236328</v>
+        <v>-76.08837890625</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0.4897059553861619</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.679211211204529</v>
+        <v>0.3997201144695282</v>
       </c>
       <c r="C18" t="n">
-        <v>30.23945617675781</v>
+        <v>51.96805191040039</v>
       </c>
       <c r="D18" t="n">
-        <v>37.02646636962891</v>
+        <v>22.17364120483398</v>
       </c>
       <c r="E18" t="n">
-        <v>-12.3963098526001</v>
+        <v>-29.64107894897461</v>
       </c>
       <c r="F18" t="n">
-        <v>52.1185188293457</v>
+        <v>19.30648994445801</v>
       </c>
       <c r="G18" t="n">
-        <v>56.87337493896484</v>
+        <v>56.12738800048828</v>
       </c>
       <c r="H18" t="n">
-        <v>-66.88105010986328</v>
+        <v>-76.62542724609375</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0.5043825995922089</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.731706218719482</v>
+        <v>0.4077605819702149</v>
       </c>
       <c r="C19" t="n">
-        <v>30.09055137634277</v>
+        <v>51.98220443725586</v>
       </c>
       <c r="D19" t="n">
-        <v>37.34532928466797</v>
+        <v>22.34087181091309</v>
       </c>
       <c r="E19" t="n">
-        <v>-12.00195693969727</v>
+        <v>-29.6833667755127</v>
       </c>
       <c r="F19" t="n">
-        <v>52.47567749023438</v>
+        <v>18.97775268554688</v>
       </c>
       <c r="G19" t="n">
-        <v>57.67108535766602</v>
+        <v>56.25070571899414</v>
       </c>
       <c r="H19" t="n">
-        <v>-67.04742431640625</v>
+        <v>-77.07091522216797</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0.5158777683973312</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.776233985424042</v>
+        <v>0.4151255190372467</v>
       </c>
       <c r="C20" t="n">
-        <v>29.97392463684082</v>
+        <v>52.00190734863281</v>
       </c>
       <c r="D20" t="n">
-        <v>37.61220169067383</v>
+        <v>22.47897720336914</v>
       </c>
       <c r="E20" t="n">
-        <v>-11.64888763427734</v>
+        <v>-29.7270450592041</v>
       </c>
       <c r="F20" t="n">
-        <v>52.77862930297852</v>
+        <v>18.67663383483887</v>
       </c>
       <c r="G20" t="n">
-        <v>58.45061874389648</v>
+        <v>56.35383605957031</v>
       </c>
       <c r="H20" t="n">
-        <v>-67.14987945556641</v>
+        <v>-77.43754577636719</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0.5240380901098252</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.81306960105896</v>
+        <v>0.4219298201799393</v>
       </c>
       <c r="C21" t="n">
-        <v>29.89113235473633</v>
+        <v>52.02632522583008</v>
       </c>
       <c r="D21" t="n">
-        <v>37.83013153076172</v>
+        <v>22.59236907958984</v>
       </c>
       <c r="E21" t="n">
-        <v>-11.33530616760254</v>
+        <v>-29.77205276489258</v>
       </c>
       <c r="F21" t="n">
-        <v>53.02924728393555</v>
+        <v>18.3984375</v>
       </c>
       <c r="G21" t="n">
-        <v>59.21246719360352</v>
+        <v>56.44119262695312</v>
       </c>
       <c r="H21" t="n">
-        <v>-67.19306182861328</v>
+        <v>-77.73606872558594</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0.5287552726268768</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.841989657878876</v>
+        <v>0.4282635813951493</v>
       </c>
       <c r="C22" t="n">
-        <v>29.8432731628418</v>
+        <v>52.05485153198242</v>
       </c>
       <c r="D22" t="n">
-        <v>37.99984359741211</v>
+        <v>22.68497657775879</v>
       </c>
       <c r="E22" t="n">
-        <v>-11.06344318389893</v>
+        <v>-29.81819534301758</v>
       </c>
       <c r="F22" t="n">
-        <v>53.22600936889648</v>
+        <v>18.13947868347168</v>
       </c>
       <c r="G22" t="n">
-        <v>59.95191192626953</v>
+        <v>56.51682281494141</v>
       </c>
       <c r="H22" t="n">
-        <v>-67.18061828613281</v>
+        <v>-77.97528839111328</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0.53</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.862631750106812</v>
+        <v>0.4342005980014801</v>
       </c>
       <c r="C23" t="n">
-        <v>29.83064460754395</v>
+        <v>52.08672332763672</v>
       </c>
       <c r="D23" t="n">
-        <v>38.12072372436523</v>
+        <v>22.76065063476562</v>
       </c>
       <c r="E23" t="n">
-        <v>-10.83699035644531</v>
+        <v>-29.86567115783691</v>
       </c>
       <c r="F23" t="n">
-        <v>53.36645126342773</v>
+        <v>17.89674186706543</v>
       </c>
       <c r="G23" t="n">
-        <v>60.66220855712891</v>
+        <v>56.58374404907227</v>
       </c>
       <c r="H23" t="n">
-        <v>-67.11587524414062</v>
+        <v>-78.16289520263672</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0.5277350270748139</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.87489883184433</v>
+        <v>0.4397862654924393</v>
       </c>
       <c r="C24" t="n">
-        <v>29.85362434387207</v>
+        <v>52.12133026123047</v>
       </c>
       <c r="D24" t="n">
-        <v>38.19165420532227</v>
+        <v>22.82258987426758</v>
       </c>
       <c r="E24" t="n">
-        <v>-10.6569242477417</v>
+        <v>-29.91414260864258</v>
       </c>
       <c r="F24" t="n">
-        <v>53.44991302490234</v>
+        <v>17.66836929321289</v>
       </c>
       <c r="G24" t="n">
-        <v>61.33956527709961</v>
+        <v>56.64397811889648</v>
       </c>
       <c r="H24" t="n">
-        <v>-67.00209045410156</v>
+        <v>-78.30628967285156</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0.5219586795568466</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.878814659118653</v>
+        <v>0.4450480675697327</v>
       </c>
       <c r="C25" t="n">
-        <v>29.91222953796387</v>
+        <v>52.15763854980469</v>
       </c>
       <c r="D25" t="n">
-        <v>38.21173477172852</v>
+        <v>22.87349700927734</v>
       </c>
       <c r="E25" t="n">
-        <v>-10.52358913421631</v>
+        <v>-29.96328926086426</v>
       </c>
       <c r="F25" t="n">
-        <v>53.47655487060547</v>
+        <v>17.45323753356934</v>
       </c>
       <c r="G25" t="n">
-        <v>61.98174285888672</v>
+        <v>56.69865036010742</v>
       </c>
       <c r="H25" t="n">
-        <v>-66.84300231933594</v>
+        <v>-78.41304779052734</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0.5126042068004608</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.874682500362396</v>
+        <v>0.4500082123279572</v>
       </c>
       <c r="C26" t="n">
-        <v>30.00713729858398</v>
+        <v>52.19454574584961</v>
       </c>
       <c r="D26" t="n">
-        <v>38.18119430541992</v>
+        <v>22.91553115844727</v>
       </c>
       <c r="E26" t="n">
-        <v>-10.43312358856201</v>
+        <v>-30.0129451751709</v>
       </c>
       <c r="F26" t="n">
-        <v>53.44844055175781</v>
+        <v>17.25044059753418</v>
       </c>
       <c r="G26" t="n">
-        <v>62.59115219116211</v>
+        <v>56.74838638305664</v>
       </c>
       <c r="H26" t="n">
-        <v>-66.64242553710938</v>
+        <v>-78.49014282226562</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0.4995469844341278</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.86312064409256</v>
+        <v>0.4546787357330322</v>
       </c>
       <c r="C27" t="n">
-        <v>30.13961219787598</v>
+        <v>52.23139572143555</v>
       </c>
       <c r="D27" t="n">
-        <v>38.10185623168945</v>
+        <v>22.95045471191406</v>
       </c>
       <c r="E27" t="n">
-        <v>-10.37775325775146</v>
+        <v>-30.06254196166992</v>
       </c>
       <c r="F27" t="n">
-        <v>53.36977767944336</v>
+        <v>17.05948448181152</v>
       </c>
       <c r="G27" t="n">
-        <v>63.17276382446289</v>
+        <v>56.79411697387695</v>
       </c>
       <c r="H27" t="n">
-        <v>-66.40379333496094</v>
+        <v>-78.54312896728516</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0.4824662429094315</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.844166746139526</v>
+        <v>0.4590841203927994</v>
       </c>
       <c r="C28" t="n">
-        <v>30.31290817260742</v>
+        <v>52.26782608032227</v>
       </c>
       <c r="D28" t="n">
-        <v>37.97348785400391</v>
+        <v>22.97973442077637</v>
       </c>
       <c r="E28" t="n">
-        <v>-10.35079669952393</v>
+        <v>-30.11183929443359</v>
       </c>
       <c r="F28" t="n">
-        <v>53.24082183837891</v>
+        <v>16.87936782836914</v>
       </c>
       <c r="G28" t="n">
-        <v>63.73369598388672</v>
+        <v>56.83638763427734</v>
       </c>
       <c r="H28" t="n">
-        <v>-66.12705993652344</v>
+        <v>-78.57640838623047</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0.4610086113214493</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.817462570667267</v>
+        <v>0.463246985077858</v>
       </c>
       <c r="C29" t="n">
-        <v>30.53061103820801</v>
+        <v>52.30358505249023</v>
       </c>
       <c r="D29" t="n">
-        <v>37.79484176635742</v>
+        <v>23.00467300415039</v>
       </c>
       <c r="E29" t="n">
-        <v>-10.34605979919434</v>
+        <v>-30.16070747375488</v>
       </c>
       <c r="F29" t="n">
-        <v>53.05913543701172</v>
+        <v>16.70916748046875</v>
       </c>
       <c r="G29" t="n">
-        <v>64.27677917480469</v>
+        <v>56.87555313110352</v>
       </c>
       <c r="H29" t="n">
-        <v>-65.80976104736328</v>
+        <v>-78.59359741210938</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0.4349120151996613</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.7823521733284</v>
+        <v>0.4671833461523056</v>
       </c>
       <c r="C30" t="n">
-        <v>30.79537963867188</v>
+        <v>52.33845520019531</v>
       </c>
       <c r="D30" t="n">
-        <v>37.56378936767578</v>
+        <v>23.02624320983887</v>
       </c>
       <c r="E30" t="n">
-        <v>-10.36087894439697</v>
+        <v>-30.2089729309082</v>
       </c>
       <c r="F30" t="n">
-        <v>52.82025527954102</v>
+        <v>16.54822731018066</v>
       </c>
       <c r="G30" t="n">
-        <v>64.80049896240234</v>
+        <v>56.91179656982422</v>
       </c>
       <c r="H30" t="n">
-        <v>-65.45148468017578</v>
+        <v>-78.5980224609375</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0.4040662670135498</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.738325684070587</v>
+        <v>0.4709030282497406</v>
       </c>
       <c r="C31" t="n">
-        <v>31.10833168029785</v>
+        <v>52.37221908569336</v>
       </c>
       <c r="D31" t="n">
-        <v>37.27889251708984</v>
+        <v>23.0450611114502</v>
       </c>
       <c r="E31" t="n">
-        <v>-10.39456367492676</v>
+        <v>-30.25638008117676</v>
       </c>
       <c r="F31" t="n">
-        <v>52.52071380615234</v>
+        <v>16.39614677429199</v>
       </c>
       <c r="G31" t="n">
-        <v>65.30088043212891</v>
+        <v>56.94516754150391</v>
       </c>
       <c r="H31" t="n">
-        <v>-65.05499267578125</v>
+        <v>-78.59286499023438</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0.3691915661096573</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.685780258178711</v>
+        <v>0.4744057470560074</v>
       </c>
       <c r="C32" t="n">
-        <v>31.46216011047363</v>
+        <v>52.40463256835938</v>
       </c>
       <c r="D32" t="n">
-        <v>36.94229125976562</v>
+        <v>23.06157875061035</v>
       </c>
       <c r="E32" t="n">
-        <v>-10.45570755004883</v>
+        <v>-30.30270004272461</v>
       </c>
       <c r="F32" t="n">
-        <v>52.16321182250977</v>
+        <v>16.25293731689453</v>
       </c>
       <c r="G32" t="n">
-        <v>65.76460266113281</v>
+        <v>56.97589492797852</v>
       </c>
       <c r="H32" t="n">
-        <v>-64.63706207275391</v>
+        <v>-78.58100128173828</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0.3311390227079392</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>3.549878848092125</v>
+        <v>0.4776863217353821</v>
       </c>
       <c r="C33" t="n">
-        <v>31.84823036193848</v>
+        <v>52.43553924560547</v>
       </c>
       <c r="D33" t="n">
-        <v>36.56010818481445</v>
+        <v>23.07626724243164</v>
       </c>
       <c r="E33" t="n">
-        <v>-10.54804229736328</v>
+        <v>-30.34771728515625</v>
       </c>
       <c r="F33" t="n">
-        <v>51.75467300415039</v>
+        <v>16.11880874633789</v>
       </c>
       <c r="G33" t="n">
-        <v>66.18471527099609</v>
+        <v>57.00459671020508</v>
       </c>
       <c r="H33" t="n">
-        <v>-64.21340942382812</v>
+        <v>-78.56444549560547</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0.2907773113250733</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>-8.568577827044006</v>
+        <v>0.5262205112140415</v>
       </c>
       <c r="C34" t="n">
-        <v>32.25772857666016</v>
+        <v>52.46493530273438</v>
       </c>
       <c r="D34" t="n">
-        <v>36.14013671875</v>
+        <v>23.08946418762207</v>
       </c>
       <c r="E34" t="n">
-        <v>-10.67277431488037</v>
+        <v>-30.39144706726074</v>
       </c>
       <c r="F34" t="n">
-        <v>51.3032112121582</v>
+        <v>15.993483543396</v>
       </c>
       <c r="G34" t="n">
-        <v>66.55873870849609</v>
+        <v>57.03155136108398</v>
       </c>
       <c r="H34" t="n">
-        <v>-63.79631805419922</v>
+        <v>-78.54461669921875</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0.667030876385454</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>25.1024059614723</v>
+        <v>0.5676878827544407</v>
       </c>
       <c r="C35" t="n">
-        <v>32.68334579467773</v>
+        <v>52.49296188354492</v>
       </c>
       <c r="D35" t="n">
-        <v>35.69026947021484</v>
+        <v>23.10143852233887</v>
       </c>
       <c r="E35" t="n">
-        <v>-10.8283052444458</v>
+        <v>-30.43391036987305</v>
       </c>
       <c r="F35" t="n">
-        <v>50.81634521484375</v>
+        <v>15.87653827667236</v>
       </c>
       <c r="G35" t="n">
-        <v>66.88861083984375</v>
+        <v>57.05709075927734</v>
       </c>
       <c r="H35" t="n">
-        <v>-63.39295959472656</v>
+        <v>-78.5223388671875</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0.8707335041036637</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>-59.56196049160141</v>
+        <v>0.6033475992040516</v>
       </c>
       <c r="C36" t="n">
-        <v>33.12030410766602</v>
+        <v>52.51984024047852</v>
       </c>
       <c r="D36" t="n">
-        <v>35.2166748046875</v>
+        <v>23.11241340637207</v>
       </c>
       <c r="E36" t="n">
-        <v>-11.01097679138184</v>
+        <v>-30.47508239746094</v>
       </c>
       <c r="F36" t="n">
-        <v>50.29981231689453</v>
+        <v>15.76735496520996</v>
       </c>
       <c r="G36" t="n">
-        <v>67.17951965332031</v>
+        <v>57.08146286010742</v>
       </c>
       <c r="H36" t="n">
-        <v>-63.00619506835938</v>
+        <v>-78.49794769287109</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0.9605209236738963</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
-        <v>141.9036671344607</v>
+        <v>0.6341984927808618</v>
       </c>
       <c r="C37" t="n">
-        <v>33.56562042236328</v>
+        <v>52.54575729370117</v>
       </c>
       <c r="D37" t="n">
-        <v>34.72363662719727</v>
+        <v>23.12258529663086</v>
       </c>
       <c r="E37" t="n">
-        <v>-11.21633911132812</v>
+        <v>-30.51498222351074</v>
       </c>
       <c r="F37" t="n">
-        <v>49.7580680847168</v>
+        <v>15.66533851623535</v>
       </c>
       <c r="G37" t="n">
-        <v>67.43780517578125</v>
+        <v>57.10481262207031</v>
       </c>
       <c r="H37" t="n">
-        <v>-62.63649368286133</v>
+        <v>-78.47187042236328</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0.9912546021092511</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>-304.4994798243903</v>
+        <v>0.661038406502373</v>
       </c>
       <c r="C38" t="n">
-        <v>34.01670837402344</v>
+        <v>52.57081985473633</v>
       </c>
       <c r="D38" t="n">
-        <v>34.21457672119141</v>
+        <v>23.13210296630859</v>
       </c>
       <c r="E38" t="n">
-        <v>-11.44033718109131</v>
+        <v>-30.55357551574707</v>
       </c>
       <c r="F38" t="n">
-        <v>49.1946907043457</v>
+        <v>15.56987953186035</v>
       </c>
       <c r="G38" t="n">
-        <v>67.66914367675781</v>
+        <v>57.12725830078125</v>
       </c>
       <c r="H38" t="n">
-        <v>-62.28370666503906</v>
+        <v>-78.44439697265625</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0.9988014289984156</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>611.6810683141252</v>
+        <v>0.6845103304254061</v>
       </c>
       <c r="C39" t="n">
-        <v>34.47091293334961</v>
+        <v>52.59516143798828</v>
       </c>
       <c r="D39" t="n">
-        <v>33.69296646118164</v>
+        <v>23.14111328125</v>
       </c>
       <c r="E39" t="n">
-        <v>-11.67935562133789</v>
+        <v>-30.59086608886719</v>
       </c>
       <c r="F39" t="n">
-        <v>48.61300277709961</v>
+        <v>15.48046493530273</v>
       </c>
       <c r="G39" t="n">
-        <v>67.87834167480469</v>
+        <v>57.14896392822266</v>
       </c>
       <c r="H39" t="n">
-        <v>-61.94760131835938</v>
+        <v>-78.41579437255859</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999370651537728</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>-1115.046669300508</v>
+        <v>0.70513670464367</v>
       </c>
       <c r="C40" t="n">
-        <v>34.92552185058594</v>
+        <v>52.61886215209961</v>
       </c>
       <c r="D40" t="n">
-        <v>33.16229629516602</v>
+        <v>23.14975166320801</v>
       </c>
       <c r="E40" t="n">
-        <v>-11.92999458312988</v>
+        <v>-30.62684059143066</v>
       </c>
       <c r="F40" t="n">
-        <v>48.01618194580078</v>
+        <v>15.39665603637695</v>
       </c>
       <c r="G40" t="n">
-        <v>68.06945037841797</v>
+        <v>57.17009353637695</v>
       </c>
       <c r="H40" t="n">
-        <v>-61.62774658203125</v>
+        <v>-78.38631439208984</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1.000001990589664</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>1846.089208923913</v>
+        <v>0.7233453944043526</v>
       </c>
       <c r="C41" t="n">
-        <v>35.37794876098633</v>
+        <v>52.64200210571289</v>
       </c>
       <c r="D41" t="n">
-        <v>32.62591171264648</v>
+        <v>23.15812683105469</v>
       </c>
       <c r="E41" t="n">
-        <v>-12.18891143798828</v>
+        <v>-30.66152572631836</v>
       </c>
       <c r="F41" t="n">
-        <v>47.40741729736328</v>
+        <v>15.31808471679688</v>
       </c>
       <c r="G41" t="n">
-        <v>68.24596405029297</v>
+        <v>57.19082641601562</v>
       </c>
       <c r="H41" t="n">
-        <v>-61.32371139526367</v>
+        <v>-78.35612487792969</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0.9999997712839332</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>-2725.489956129723</v>
+        <v>0.7394892657787866</v>
       </c>
       <c r="C42" t="n">
-        <v>35.82570648193359</v>
+        <v>52.66459274291992</v>
       </c>
       <c r="D42" t="n">
-        <v>32.08683395385742</v>
+        <v>23.16632843017578</v>
       </c>
       <c r="E42" t="n">
-        <v>-12.45292472839355</v>
+        <v>-30.69491577148438</v>
       </c>
       <c r="F42" t="n">
-        <v>46.79022216796875</v>
+        <v>15.24442863464355</v>
       </c>
       <c r="G42" t="n">
-        <v>68.41075897216797</v>
+        <v>57.21121215820312</v>
       </c>
       <c r="H42" t="n">
-        <v>-61.03569030761719</v>
+        <v>-78.32550811767578</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1.000000045020935</v>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>3551.220665994673</v>
+        <v>0.75385996769639</v>
       </c>
       <c r="C43" t="n">
-        <v>36.26633453369141</v>
+        <v>52.68670654296875</v>
       </c>
       <c r="D43" t="n">
-        <v>31.5477466583252</v>
+        <v>23.17440032958984</v>
       </c>
       <c r="E43" t="n">
-        <v>-12.71909618377686</v>
+        <v>-30.7270679473877</v>
       </c>
       <c r="F43" t="n">
-        <v>46.16920852661133</v>
+        <v>15.17529678344727</v>
       </c>
       <c r="G43" t="n">
-        <v>68.56582641601562</v>
+        <v>57.23126220703125</v>
       </c>
       <c r="H43" t="n">
-        <v>-60.76520156860352</v>
+        <v>-78.29463195800781</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0.9999999875168497</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
-        <v>-4004.938623308213</v>
+        <v>0.76670000471311</v>
       </c>
       <c r="C44" t="n">
-        <v>36.69883728027344</v>
+        <v>52.70840454101562</v>
       </c>
       <c r="D44" t="n">
-        <v>31.00944328308105</v>
+        <v>23.18235397338867</v>
       </c>
       <c r="E44" t="n">
-        <v>-12.98559188842773</v>
+        <v>-30.75801467895508</v>
       </c>
       <c r="F44" t="n">
-        <v>45.54916381835938</v>
+        <v>15.11033153533936</v>
       </c>
       <c r="G44" t="n">
-        <v>68.71248626708984</v>
+        <v>57.25094223022461</v>
       </c>
       <c r="H44" t="n">
-        <v>-60.51450729370117</v>
+        <v>-78.26363372802734</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1.000000004445664</v>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>3843.062301778264</v>
+        <v>0.7782121604465098</v>
       </c>
       <c r="C45" t="n">
-        <v>37.12287902832031</v>
+        <v>52.72969436645508</v>
       </c>
       <c r="D45" t="n">
-        <v>30.47298240661621</v>
+        <v>23.19015884399414</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.25053119659424</v>
+        <v>-30.78778648376465</v>
       </c>
       <c r="F45" t="n">
-        <v>44.93637466430664</v>
+        <v>15.04920864105225</v>
       </c>
       <c r="G45" t="n">
-        <v>68.85084533691406</v>
+        <v>57.27010345458984</v>
       </c>
       <c r="H45" t="n">
-        <v>-60.28802108764648</v>
+        <v>-78.23267364501953</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0.9999999980751348</v>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>-3055.790117088241</v>
+        <v>0.7885668824262866</v>
       </c>
       <c r="C46" t="n">
-        <v>37.53607940673828</v>
+        <v>52.75064468383789</v>
       </c>
       <c r="D46" t="n">
-        <v>29.94160652160645</v>
+        <v>23.19780921936035</v>
       </c>
       <c r="E46" t="n">
-        <v>-13.51146602630615</v>
+        <v>-30.8164005279541</v>
       </c>
       <c r="F46" t="n">
-        <v>44.33957290649414</v>
+        <v>14.99162769317627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.97999572753906</v>
+        <v>57.2886848449707</v>
       </c>
       <c r="H46" t="n">
-        <v>-60.09235382080078</v>
+        <v>-78.20198822021484</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1.000000000976188</v>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>1949.413071058995</v>
+        <v>0.7979098338766017</v>
       </c>
       <c r="C47" t="n">
-        <v>37.93490982055664</v>
+        <v>52.77117538452148</v>
       </c>
       <c r="D47" t="n">
-        <v>29.41988372802734</v>
+        <v>23.2053279876709</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.76687431335449</v>
+        <v>-30.84387397766113</v>
       </c>
       <c r="F47" t="n">
-        <v>43.7646598815918</v>
+        <v>14.93747901916504</v>
       </c>
       <c r="G47" t="n">
-        <v>69.09963989257812</v>
+        <v>57.30667495727539</v>
       </c>
       <c r="H47" t="n">
-        <v>-59.93006896972656</v>
+        <v>-78.17177581787109</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>0.9999999994356727</v>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>-940.2807184365136</v>
+        <v>0.8063676926380999</v>
       </c>
       <c r="C48" t="n">
-        <v>38.31640625</v>
+        <v>52.79117965698242</v>
       </c>
       <c r="D48" t="n">
-        <v>28.91374015808105</v>
+        <v>23.21276092529297</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.01546382904053</v>
+        <v>-30.87016296386719</v>
       </c>
       <c r="F48" t="n">
-        <v>43.21232604980469</v>
+        <v>14.88684272766113</v>
       </c>
       <c r="G48" t="n">
-        <v>69.210693359375</v>
+        <v>57.32430648803711</v>
       </c>
       <c r="H48" t="n">
-        <v>-59.79650497436523</v>
+        <v>-78.14237213134766</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1.0000000003643</v>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>314.4681173546441</v>
+        <v>0.8140501346317532</v>
       </c>
       <c r="C49" t="n">
-        <v>38.67912673950195</v>
+        <v>52.81052780151367</v>
       </c>
       <c r="D49" t="n">
-        <v>28.42815589904785</v>
+        <v>23.22007179260254</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.25522327423096</v>
+        <v>-30.89526176452637</v>
       </c>
       <c r="F49" t="n">
-        <v>42.68035125732422</v>
+        <v>14.83968067169189</v>
       </c>
       <c r="G49" t="n">
-        <v>69.31559753417969</v>
+        <v>57.341796875</v>
       </c>
       <c r="H49" t="n">
-        <v>-59.68195724487305</v>
+        <v>-78.11395263671875</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0.9999999997415485</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>-58.25894877588064</v>
+        <v>0.8210494875485318</v>
       </c>
       <c r="C50" t="n">
-        <v>39.02272415161133</v>
+        <v>52.82912445068359</v>
       </c>
       <c r="D50" t="n">
-        <v>27.96530914306641</v>
+        <v>23.22702407836914</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.48331165313721</v>
+        <v>-30.91909790039062</v>
       </c>
       <c r="F50" t="n">
-        <v>42.16981887817383</v>
+        <v>14.7955961227417</v>
       </c>
       <c r="G50" t="n">
-        <v>69.41623687744141</v>
+        <v>57.35877227783203</v>
       </c>
       <c r="H50" t="n">
-        <v>-59.58099746704102</v>
+        <v>-78.08663177490234</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1.000000000198889</v>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>3.985509267483209</v>
+        <v>0.8274408473026429</v>
       </c>
       <c r="C51" t="n">
-        <v>39.34586715698242</v>
+        <v>52.84700775146484</v>
       </c>
       <c r="D51" t="n">
-        <v>27.52589225769043</v>
+        <v>23.2332935333252</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.69736194610596</v>
+        <v>-30.94166564941406</v>
       </c>
       <c r="F51" t="n">
-        <v>41.6870231628418</v>
+        <v>14.75387763977051</v>
       </c>
       <c r="G51" t="n">
-        <v>69.51213836669922</v>
+        <v>57.37436294555664</v>
       </c>
       <c r="H51" t="n">
-        <v>-59.49745559692383</v>
+        <v>-78.06053161621094</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0.9999999998358482</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B52" t="n">
-        <v>1.983331247380155</v>
+        <v>0.8332854707967937</v>
       </c>
       <c r="C52" t="n">
-        <v>39.64592742919922</v>
+        <v>52.86430740356445</v>
       </c>
       <c r="D52" t="n">
-        <v>27.11117172241211</v>
+        <v>23.23865509033203</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.89572620391846</v>
+        <v>-30.96296119689941</v>
       </c>
       <c r="F52" t="n">
-        <v>41.23821640014648</v>
+        <v>14.71388530731201</v>
       </c>
       <c r="G52" t="n">
-        <v>69.60213470458984</v>
+        <v>57.38779067993164</v>
       </c>
       <c r="H52" t="n">
-        <v>-59.43792343139648</v>
+        <v>-78.03567504882812</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>-0.4645205861330032</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B53" t="n">
-        <v>1.983331247380155</v>
+        <v>0.5129990559816361</v>
       </c>
       <c r="C53" t="n">
-        <v>39.92076110839844</v>
+        <v>52.8811149597168</v>
       </c>
       <c r="D53" t="n">
-        <v>26.72349739074707</v>
+        <v>23.24288749694824</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.07673835754395</v>
+        <v>-30.98297500610352</v>
       </c>
       <c r="F53" t="n">
-        <v>40.82194519042969</v>
+        <v>14.67503452301025</v>
       </c>
       <c r="G53" t="n">
-        <v>69.68777465820312</v>
+        <v>57.39852523803711</v>
       </c>
       <c r="H53" t="n">
-        <v>-59.40068817138672</v>
+        <v>-78.01226806640625</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>-0.4909798091650009</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04674127086997033</v>
+        <v>0.5138231247663498</v>
       </c>
       <c r="C54" t="n">
-        <v>40.189208984375</v>
+        <v>52.89769744873047</v>
       </c>
       <c r="D54" t="n">
-        <v>26.3587818145752</v>
+        <v>23.24960708618164</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.23126220703125</v>
+        <v>-31.00241279602051</v>
       </c>
       <c r="F54" t="n">
-        <v>40.37570571899414</v>
+        <v>14.6413402557373</v>
       </c>
       <c r="G54" t="n">
-        <v>69.79701232910156</v>
+        <v>57.41437149047852</v>
       </c>
       <c r="H54" t="n">
-        <v>-59.30298233032227</v>
+        <v>-77.98838806152344</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>-0.5147150182724</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1076868690550327</v>
+        <v>0.5145939004421234</v>
       </c>
       <c r="C55" t="n">
-        <v>40.43001937866211</v>
+        <v>52.91362762451172</v>
       </c>
       <c r="D55" t="n">
-        <v>26.02416038513184</v>
+        <v>23.25593185424805</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.37374401092529</v>
+        <v>-31.0207576751709</v>
       </c>
       <c r="F55" t="n">
-        <v>39.96105194091797</v>
+        <v>14.60982704162598</v>
       </c>
       <c r="G55" t="n">
-        <v>69.90036010742188</v>
+        <v>57.4293212890625</v>
       </c>
       <c r="H55" t="n">
-        <v>-59.22306060791016</v>
+        <v>-77.96576690673828</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>-0.5358750677108765</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1640774780511856</v>
+        <v>0.5153191858530045</v>
       </c>
       <c r="C56" t="n">
-        <v>40.64470291137695</v>
+        <v>52.92887115478516</v>
       </c>
       <c r="D56" t="n">
-        <v>25.71967124938965</v>
+        <v>23.26175498962402</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.50413227081299</v>
+        <v>-31.03800964355469</v>
       </c>
       <c r="F56" t="n">
-        <v>39.57738876342773</v>
+        <v>14.58017253875732</v>
       </c>
       <c r="G56" t="n">
-        <v>69.99872589111328</v>
+        <v>57.44314956665039</v>
       </c>
       <c r="H56" t="n">
-        <v>-59.15814208984375</v>
+        <v>-77.94435119628906</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>-0.5545407342910766</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2159647008776665</v>
+        <v>0.5160020136833191</v>
       </c>
       <c r="C57" t="n">
-        <v>40.83407974243164</v>
+        <v>52.94343948364258</v>
       </c>
       <c r="D57" t="n">
-        <v>25.44484710693359</v>
+        <v>23.26704025268555</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.62246608734131</v>
+        <v>-31.05417823791504</v>
       </c>
       <c r="F57" t="n">
-        <v>39.224365234375</v>
+        <v>14.55225563049316</v>
       </c>
       <c r="G57" t="n">
-        <v>70.09249114990234</v>
+        <v>57.45572662353516</v>
       </c>
       <c r="H57" t="n">
-        <v>-59.10659027099609</v>
+        <v>-77.92430114746094</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>-0.570802366733551</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2633905607461929</v>
+        <v>0.5166451954841614</v>
       </c>
       <c r="C58" t="n">
-        <v>40.99906539916992</v>
+        <v>52.95731353759766</v>
       </c>
       <c r="D58" t="n">
-        <v>25.19892883300781</v>
+        <v>23.27178382873535</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.72880077362061</v>
+        <v>-31.06928443908691</v>
       </c>
       <c r="F58" t="n">
-        <v>38.90169525146484</v>
+        <v>14.52595996856689</v>
       </c>
       <c r="G58" t="n">
-        <v>70.18207550048828</v>
+        <v>57.46701812744141</v>
       </c>
       <c r="H58" t="n">
-        <v>-59.06702041625977</v>
+        <v>-77.90565490722656</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>-0.58478133559227</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3064089035987854</v>
+        <v>0.5172512900829316</v>
       </c>
       <c r="C59" t="n">
-        <v>41.14089202880859</v>
+        <v>52.97048950195312</v>
       </c>
       <c r="D59" t="n">
-        <v>24.98067855834961</v>
+        <v>23.27596664428711</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.82329559326172</v>
+        <v>-31.08332633972168</v>
       </c>
       <c r="F59" t="n">
-        <v>38.60901260375977</v>
+        <v>14.50117969512939</v>
       </c>
       <c r="G59" t="n">
-        <v>70.26789093017578</v>
+        <v>57.47697830200195</v>
       </c>
       <c r="H59" t="n">
-        <v>-59.03834915161133</v>
+        <v>-77.88840484619141</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>-0.5966450071334839</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3451010274887085</v>
+        <v>0.5178232353925705</v>
       </c>
       <c r="C60" t="n">
-        <v>41.26125717163086</v>
+        <v>52.98296737670898</v>
       </c>
       <c r="D60" t="n">
-        <v>24.78825187683105</v>
+        <v>23.27957344055176</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.90608406066895</v>
+        <v>-31.09634590148926</v>
       </c>
       <c r="F60" t="n">
-        <v>38.34576416015625</v>
+        <v>14.47779560089111</v>
       </c>
       <c r="G60" t="n">
-        <v>70.35048675537109</v>
+        <v>57.48557662963867</v>
       </c>
       <c r="H60" t="n">
-        <v>-59.01935195922852</v>
+        <v>-77.87261199951172</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>-0.6065072333812714</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3795157080888749</v>
+        <v>0.5183633691072465</v>
       </c>
       <c r="C61" t="n">
-        <v>41.3613166809082</v>
+        <v>52.99478912353516</v>
       </c>
       <c r="D61" t="n">
-        <v>24.6201171875</v>
+        <v>23.28263473510742</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.97741222381592</v>
+        <v>-31.1084156036377</v>
       </c>
       <c r="F61" t="n">
-        <v>38.11161804199219</v>
+        <v>14.45571231842041</v>
       </c>
       <c r="G61" t="n">
-        <v>70.43026733398438</v>
+        <v>57.49290084838867</v>
       </c>
       <c r="H61" t="n">
-        <v>-59.00940704345703</v>
+        <v>-77.85816955566406</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>-0.6145805549621582</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B62" t="n">
-        <v>0.4098233759403229</v>
+        <v>0.5188737761974335</v>
       </c>
       <c r="C62" t="n">
-        <v>41.4432258605957</v>
+        <v>53.00596618652344</v>
       </c>
       <c r="D62" t="n">
-        <v>24.47387313842773</v>
+        <v>23.28516960144043</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.03753471374512</v>
+        <v>-31.11956405639648</v>
       </c>
       <c r="F62" t="n">
-        <v>37.90541458129883</v>
+        <v>14.43484306335449</v>
       </c>
       <c r="G62" t="n">
-        <v>70.50782012939453</v>
+        <v>57.4990119934082</v>
       </c>
       <c r="H62" t="n">
-        <v>-59.00706100463867</v>
+        <v>-77.84506988525391</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>-0.6210009372234345</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4361468547582626</v>
+        <v>0.5193568259477616</v>
       </c>
       <c r="C63" t="n">
-        <v>41.50836563110352</v>
+        <v>53.01653671264648</v>
       </c>
       <c r="D63" t="n">
-        <v>24.34774017333984</v>
+        <v>23.2872314453125</v>
       </c>
       <c r="E63" t="n">
-        <v>-16.08677101135254</v>
+        <v>-31.12989616394043</v>
       </c>
       <c r="F63" t="n">
-        <v>37.726318359375</v>
+        <v>14.4150915145874</v>
       </c>
       <c r="G63" t="n">
-        <v>70.58356475830078</v>
+        <v>57.50402450561523</v>
       </c>
       <c r="H63" t="n">
-        <v>-59.0115966796875</v>
+        <v>-77.83312225341797</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>-0.6259433913230896</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B64" t="n">
-        <v>0.4586997276544571</v>
+        <v>0.5198143821954727</v>
       </c>
       <c r="C64" t="n">
-        <v>41.55850982666016</v>
+        <v>53.02653884887695</v>
       </c>
       <c r="D64" t="n">
-        <v>24.23957633972168</v>
+        <v>23.28884887695312</v>
       </c>
       <c r="E64" t="n">
-        <v>-16.12558174133301</v>
+        <v>-31.13946342468262</v>
       </c>
       <c r="F64" t="n">
-        <v>37.5728759765625</v>
+        <v>14.39638614654541</v>
       </c>
       <c r="G64" t="n">
-        <v>70.65795135498047</v>
+        <v>57.50803375244141</v>
       </c>
       <c r="H64" t="n">
-        <v>-59.02190780639648</v>
+        <v>-77.82233428955078</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>-0.6295589196681977</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B65" t="n">
-        <v>0.4776978838443756</v>
+        <v>0.5202484351396561</v>
       </c>
       <c r="C65" t="n">
-        <v>41.59519195556641</v>
+        <v>53.03601837158203</v>
       </c>
       <c r="D65" t="n">
-        <v>24.14764785766602</v>
+        <v>23.29006195068359</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.15446853637695</v>
+        <v>-31.14833068847656</v>
       </c>
       <c r="F65" t="n">
-        <v>37.44361877441406</v>
+        <v>14.37863826751709</v>
       </c>
       <c r="G65" t="n">
-        <v>70.73123931884766</v>
+        <v>57.51113510131836</v>
       </c>
       <c r="H65" t="n">
-        <v>-59.03718185424805</v>
+        <v>-77.81256103515625</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>-0.6319573307037354</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4933414804935455</v>
+        <v>0.5206602799892426</v>
       </c>
       <c r="C66" t="n">
-        <v>41.61952590942383</v>
+        <v>53.04498672485352</v>
       </c>
       <c r="D66" t="n">
-        <v>24.07053756713867</v>
+        <v>23.29092407226562</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.17400741577148</v>
+        <v>-31.15656661987305</v>
       </c>
       <c r="F66" t="n">
-        <v>37.33718490600586</v>
+        <v>14.36180114746094</v>
       </c>
       <c r="G66" t="n">
-        <v>70.80354309082031</v>
+        <v>57.51346969604492</v>
       </c>
       <c r="H66" t="n">
-        <v>-59.05691909790039</v>
+        <v>-77.80374145507812</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>-0.6332608795166016</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B67" t="n">
-        <v>0.5058743959665298</v>
+        <v>0.5210516858100891</v>
       </c>
       <c r="C67" t="n">
-        <v>41.63275146484375</v>
+        <v>53.05348968505859</v>
       </c>
       <c r="D67" t="n">
-        <v>24.00679969787598</v>
+        <v>23.29145622253418</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.18489265441895</v>
+        <v>-31.16422843933105</v>
       </c>
       <c r="F67" t="n">
-        <v>37.25191497802734</v>
+        <v>14.34579849243164</v>
       </c>
       <c r="G67" t="n">
-        <v>70.87492370605469</v>
+        <v>57.51510620117188</v>
       </c>
       <c r="H67" t="n">
-        <v>-59.08052444458008</v>
+        <v>-77.79580688476562</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>-0.6335805118083954</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B68" t="n">
-        <v>0.5155344116687774</v>
+        <v>0.521424263715744</v>
       </c>
       <c r="C68" t="n">
-        <v>41.63599395751953</v>
+        <v>53.06155395507812</v>
       </c>
       <c r="D68" t="n">
-        <v>23.95522117614746</v>
+        <v>23.29169273376465</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.18780136108398</v>
+        <v>-31.1713695526123</v>
       </c>
       <c r="F68" t="n">
-        <v>37.18619155883789</v>
+        <v>14.33056449890137</v>
       </c>
       <c r="G68" t="n">
-        <v>70.94535064697266</v>
+        <v>57.51611709594727</v>
       </c>
       <c r="H68" t="n">
-        <v>-59.10752868652344</v>
+        <v>-77.78865051269531</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>-0.633018012046814</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5225664800405503</v>
+        <v>0.5217790877819062</v>
       </c>
       <c r="C69" t="n">
-        <v>41.63028717041016</v>
+        <v>53.06919097900391</v>
       </c>
       <c r="D69" t="n">
-        <v>23.91459846496582</v>
+        <v>23.29167175292969</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.18347930908203</v>
+        <v>-31.17803001403809</v>
       </c>
       <c r="F69" t="n">
-        <v>37.13834762573242</v>
+        <v>14.3160572052002</v>
       </c>
       <c r="G69" t="n">
-        <v>71.01470947265625</v>
+        <v>57.51658248901367</v>
       </c>
       <c r="H69" t="n">
-        <v>-59.13748931884766</v>
+        <v>-77.78223419189453</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>-0.6316422474384308</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B70" t="n">
-        <v>0.5271836787462235</v>
+        <v>0.5221175479888917</v>
       </c>
       <c r="C70" t="n">
-        <v>41.61632919311523</v>
+        <v>53.07643508911133</v>
       </c>
       <c r="D70" t="n">
-        <v>23.8841724395752</v>
+        <v>23.29141235351562</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.17268753051758</v>
+        <v>-31.18425750732422</v>
       </c>
       <c r="F70" t="n">
-        <v>37.10693359375</v>
+        <v>14.30221939086914</v>
       </c>
       <c r="G70" t="n">
-        <v>71.08282470703125</v>
+        <v>57.51658248901367</v>
       </c>
       <c r="H70" t="n">
-        <v>-59.17036437988281</v>
+        <v>-77.7764892578125</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>-0.6295250546932221</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5295912510156632</v>
+        <v>0.5224405604600907</v>
       </c>
       <c r="C71" t="n">
-        <v>41.5948486328125</v>
+        <v>53.08330535888672</v>
       </c>
       <c r="D71" t="n">
-        <v>23.86313819885254</v>
+        <v>23.29094696044922</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.1561393737793</v>
+        <v>-31.19009780883789</v>
       </c>
       <c r="F71" t="n">
-        <v>37.09055328369141</v>
+        <v>14.28901386260986</v>
       </c>
       <c r="G71" t="n">
-        <v>71.14939117431641</v>
+        <v>57.51616287231445</v>
       </c>
       <c r="H71" t="n">
-        <v>-59.20601272583008</v>
+        <v>-77.77134704589844</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>-0.6267341005802155</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B72" t="n">
-        <v>0.53</v>
+        <v>0.5227491044998169</v>
       </c>
       <c r="C72" t="n">
-        <v>41.56653213500977</v>
+        <v>53.08982086181641</v>
       </c>
       <c r="D72" t="n">
-        <v>23.8507194519043</v>
+        <v>23.2903003692627</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.13459777832031</v>
+        <v>-31.19557952880859</v>
       </c>
       <c r="F72" t="n">
-        <v>37.08777236938477</v>
+        <v>14.27639675140381</v>
       </c>
       <c r="G72" t="n">
-        <v>71.21421051025391</v>
+        <v>57.515380859375</v>
       </c>
       <c r="H72" t="n">
-        <v>-59.24434280395508</v>
+        <v>-77.76677703857422</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>-0.623333261013031</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B73" t="n">
-        <v>0.5285904335975647</v>
+        <v>0.5230441910028458</v>
       </c>
       <c r="C73" t="n">
-        <v>41.53202819824219</v>
+        <v>53.09598922729492</v>
       </c>
       <c r="D73" t="n">
-        <v>23.84624671936035</v>
+        <v>23.28949737548828</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.10869979858398</v>
+        <v>-31.20072174072266</v>
       </c>
       <c r="F73" t="n">
-        <v>37.09736251831055</v>
+        <v>14.26433372497559</v>
       </c>
       <c r="G73" t="n">
-        <v>71.27700805664062</v>
+        <v>57.51430130004883</v>
       </c>
       <c r="H73" t="n">
-        <v>-59.28525161743164</v>
+        <v>-77.76271057128906</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>-0.6193797147274017</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5255498516559601</v>
+        <v>0.523326325416565</v>
       </c>
       <c r="C74" t="n">
-        <v>41.49191665649414</v>
+        <v>53.10185241699219</v>
       </c>
       <c r="D74" t="n">
-        <v>23.84902191162109</v>
+        <v>23.28856086730957</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.07912063598633</v>
+        <v>-31.20557594299316</v>
       </c>
       <c r="F74" t="n">
-        <v>37.11804962158203</v>
+        <v>14.25279808044434</v>
       </c>
       <c r="G74" t="n">
-        <v>71.3375244140625</v>
+        <v>57.51294708251953</v>
       </c>
       <c r="H74" t="n">
-        <v>-59.32868194580078</v>
+        <v>-77.75907897949219</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>-0.6149301981925964</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5210414189100265</v>
+        <v>0.523596265912056</v>
       </c>
       <c r="C75" t="n">
-        <v>41.44677352905273</v>
+        <v>53.10739517211914</v>
       </c>
       <c r="D75" t="n">
-        <v>23.85844802856445</v>
+        <v>23.28751182556152</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.04644966125488</v>
+        <v>-31.21015548706055</v>
       </c>
       <c r="F75" t="n">
-        <v>37.14872360229492</v>
+        <v>14.24176216125488</v>
       </c>
       <c r="G75" t="n">
-        <v>71.39557647705078</v>
+        <v>57.51138687133789</v>
       </c>
       <c r="H75" t="n">
-        <v>-59.3745231628418</v>
+        <v>-77.75592041015625</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>-0.6100348138809204</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B76" t="n">
-        <v>0.515223782658577</v>
+        <v>0.5238550233840943</v>
       </c>
       <c r="C76" t="n">
-        <v>41.3971061706543</v>
+        <v>53.11264801025391</v>
       </c>
       <c r="D76" t="n">
-        <v>23.87394714355469</v>
+        <v>23.28636741638184</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.01127433776855</v>
+        <v>-31.2144889831543</v>
       </c>
       <c r="F76" t="n">
-        <v>37.18830490112305</v>
+        <v>14.23118305206299</v>
       </c>
       <c r="G76" t="n">
-        <v>71.45089721679688</v>
+        <v>57.50963973999023</v>
       </c>
       <c r="H76" t="n">
-        <v>-59.42269134521484</v>
+        <v>-77.75312042236328</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>-0.6047438538074493</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5082472187280656</v>
+        <v>0.5241028505563736</v>
       </c>
       <c r="C77" t="n">
-        <v>41.34342575073242</v>
+        <v>53.11762619018555</v>
       </c>
       <c r="D77" t="n">
-        <v>23.89496231079102</v>
+        <v>23.28514099121094</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.97411727905273</v>
+        <v>-31.21858978271484</v>
       </c>
       <c r="F77" t="n">
-        <v>37.23577117919922</v>
+        <v>14.22104930877686</v>
       </c>
       <c r="G77" t="n">
-        <v>71.50337982177734</v>
+        <v>57.50772857666016</v>
       </c>
       <c r="H77" t="n">
-        <v>-59.47305679321289</v>
+        <v>-77.75067901611328</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>-0.5991152548789979</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5002597284317016</v>
+        <v>0.5243405687808991</v>
       </c>
       <c r="C78" t="n">
-        <v>41.28631973266602</v>
+        <v>53.12234497070312</v>
       </c>
       <c r="D78" t="n">
-        <v>23.92085075378418</v>
+        <v>23.28385162353516</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.93543720245361</v>
+        <v>-31.22246742248535</v>
       </c>
       <c r="F78" t="n">
-        <v>37.29011535644531</v>
+        <v>14.21133041381836</v>
       </c>
       <c r="G78" t="n">
-        <v>71.55293273925781</v>
+        <v>57.50571060180664</v>
       </c>
       <c r="H78" t="n">
-        <v>-59.52525329589844</v>
+        <v>-77.74851226806641</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>-0.593191158771515</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4913964557647705</v>
+        <v>0.5245682412385941</v>
       </c>
       <c r="C79" t="n">
-        <v>41.22621536254883</v>
+        <v>53.12680053710938</v>
       </c>
       <c r="D79" t="n">
-        <v>23.95111083984375</v>
+        <v>23.28251647949219</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.89568901062012</v>
+        <v>-31.22616004943848</v>
       </c>
       <c r="F79" t="n">
-        <v>37.35041809082031</v>
+        <v>14.20202159881592</v>
       </c>
       <c r="G79" t="n">
-        <v>71.5994873046875</v>
+        <v>57.50359344482422</v>
       </c>
       <c r="H79" t="n">
-        <v>-59.57915115356445</v>
+        <v>-77.74668121337891</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>-0.5870132648944855</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B80" t="n">
-        <v>0.4817628180980683</v>
+        <v>0.5247868472337723</v>
       </c>
       <c r="C80" t="n">
-        <v>41.16353607177734</v>
+        <v>53.13101959228516</v>
       </c>
       <c r="D80" t="n">
-        <v>23.98528099060059</v>
+        <v>23.2811450958252</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.85523891448975</v>
+        <v>-31.22966384887695</v>
       </c>
       <c r="F80" t="n">
-        <v>37.41596221923828</v>
+        <v>14.19308567047119</v>
       </c>
       <c r="G80" t="n">
-        <v>71.64300537109375</v>
+        <v>57.50138854980469</v>
       </c>
       <c r="H80" t="n">
-        <v>-59.63455200195312</v>
+        <v>-77.74508666992188</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>-0.5806495559215546</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B81" t="n">
-        <v>0.4715242230892182</v>
+        <v>0.5249963867664338</v>
       </c>
       <c r="C81" t="n">
-        <v>41.09897232055664</v>
+        <v>53.13501739501953</v>
       </c>
       <c r="D81" t="n">
-        <v>24.02258682250977</v>
+        <v>23.27975082397461</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.81442451477051</v>
+        <v>-31.23299789428711</v>
       </c>
       <c r="F81" t="n">
-        <v>37.48562240600586</v>
+        <v>14.18451690673828</v>
       </c>
       <c r="G81" t="n">
-        <v>71.68367767333984</v>
+        <v>57.4991569519043</v>
       </c>
       <c r="H81" t="n">
-        <v>-59.6907844543457</v>
+        <v>-77.74372863769531</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>-0.5741611278057098</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4608202373981476</v>
+        <v>0.5251973652839661</v>
       </c>
       <c r="C82" t="n">
-        <v>41.03314208984375</v>
+        <v>53.1387939453125</v>
       </c>
       <c r="D82" t="n">
-        <v>24.06235694885254</v>
+        <v>23.27834129333496</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.77354145050049</v>
+        <v>-31.23617553710938</v>
       </c>
       <c r="F82" t="n">
-        <v>37.55844879150391</v>
+        <v>14.17630004882812</v>
       </c>
       <c r="G82" t="n">
-        <v>71.72159576416016</v>
+        <v>57.49687194824219</v>
       </c>
       <c r="H82" t="n">
-        <v>-59.74721145629883</v>
+        <v>-77.74256896972656</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>-0.5675090610980987</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4496121942996979</v>
+        <v>0.5253904461860657</v>
       </c>
       <c r="C83" t="n">
-        <v>40.96565246582031</v>
+        <v>53.14236068725586</v>
       </c>
       <c r="D83" t="n">
-        <v>24.10498237609863</v>
+        <v>23.27692604064941</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.73288345336914</v>
+        <v>-31.23920440673828</v>
       </c>
       <c r="F83" t="n">
-        <v>37.63470458984375</v>
+        <v>14.16840553283691</v>
       </c>
       <c r="G83" t="n">
-        <v>71.75645446777344</v>
+        <v>57.49456024169922</v>
       </c>
       <c r="H83" t="n">
-        <v>-59.80481719970703</v>
+        <v>-77.74156951904297</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>-0.5607171750068665</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4379606527090073</v>
+        <v>0.5255755347013473</v>
       </c>
       <c r="C84" t="n">
-        <v>40.89674377441406</v>
+        <v>53.14573669433594</v>
       </c>
       <c r="D84" t="n">
-        <v>24.15016746520996</v>
+        <v>23.27551460266113</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.69266796112061</v>
+        <v>-31.24210357666016</v>
       </c>
       <c r="F84" t="n">
-        <v>37.7139778137207</v>
+        <v>14.16083812713623</v>
       </c>
       <c r="G84" t="n">
-        <v>71.78821563720703</v>
+        <v>57.49227142333984</v>
       </c>
       <c r="H84" t="n">
-        <v>-59.86362838745117</v>
+        <v>-77.74076080322266</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>1.024709615483968</v>
-      </c>
+      <c r="A85" t="inlineStr"/>
       <c r="B85" t="n">
-        <v>0.5482944020319546</v>
+        <v>0.529376880283327</v>
       </c>
       <c r="C85" t="n">
-        <v>40.82678604125977</v>
+        <v>53.14892959594727</v>
       </c>
       <c r="D85" t="n">
-        <v>24.19747352600098</v>
+        <v>23.27411460876465</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.65306663513184</v>
+        <v>-31.24485397338867</v>
       </c>
       <c r="F85" t="n">
-        <v>37.795654296875</v>
+        <v>14.15356826782227</v>
       </c>
       <c r="G85" t="n">
-        <v>71.81707000732422</v>
+        <v>57.4899787902832</v>
       </c>
       <c r="H85" t="n">
-        <v>-59.92328643798828</v>
+        <v>-77.74008178710938</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>1.024709615483968</v>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="n">
-        <v>0.6474383803045838</v>
+        <v>0.5329961531577234</v>
       </c>
       <c r="C86" t="n">
-        <v>40.75611877441406</v>
+        <v>53.15194320678711</v>
       </c>
       <c r="D86" t="n">
-        <v>24.24650382995605</v>
+        <v>23.27272605895996</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.61420059204102</v>
+        <v>-31.24749183654785</v>
       </c>
       <c r="F86" t="n">
-        <v>37.87923431396484</v>
+        <v>14.14658832550049</v>
       </c>
       <c r="G86" t="n">
-        <v>71.84322357177734</v>
+        <v>57.48770523071289</v>
       </c>
       <c r="H86" t="n">
-        <v>-59.98356628417969</v>
+        <v>-77.73954010009766</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>1.004360914404689</v>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="n">
-        <v>0.7331368459190599</v>
+        <v>0.5364431045171144</v>
       </c>
       <c r="C87" t="n">
-        <v>40.6850471496582</v>
+        <v>53.15479278564453</v>
       </c>
       <c r="D87" t="n">
-        <v>24.29689979553223</v>
+        <v>23.27136039733887</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.57614803314209</v>
+        <v>-31.25002098083496</v>
       </c>
       <c r="F87" t="n">
-        <v>37.96428298950195</v>
+        <v>14.13988304138184</v>
       </c>
       <c r="G87" t="n">
-        <v>71.86680603027344</v>
+        <v>57.48545837402344</v>
       </c>
       <c r="H87" t="n">
-        <v>-60.04412841796875</v>
+        <v>-77.73911285400391</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>1.004360914404689</v>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="n">
-        <v>0.8043785917728988</v>
+        <v>0.5397269048847303</v>
       </c>
       <c r="C88" t="n">
-        <v>40.61381530761719</v>
+        <v>53.15748596191406</v>
       </c>
       <c r="D88" t="n">
-        <v>24.34836959838867</v>
+        <v>23.27001762390137</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.53898239135742</v>
+        <v>-31.25243759155273</v>
       </c>
       <c r="F88" t="n">
-        <v>38.0504150390625</v>
+        <v>14.13344573974609</v>
       </c>
       <c r="G88" t="n">
-        <v>71.88798522949219</v>
+        <v>57.48324584960938</v>
       </c>
       <c r="H88" t="n">
-        <v>-60.10480499267578</v>
+        <v>-77.73877716064453</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>0.9828611422207668</v>
-      </c>
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="n">
-        <v>0.8613121599032801</v>
+        <v>0.5428560573181925</v>
       </c>
       <c r="C89" t="n">
-        <v>40.54270172119141</v>
+        <v>53.16003036499023</v>
       </c>
       <c r="D89" t="n">
-        <v>24.40058135986328</v>
+        <v>23.26870536804199</v>
       </c>
       <c r="E89" t="n">
-        <v>-15.50275421142578</v>
+        <v>-31.25474739074707</v>
       </c>
       <c r="F89" t="n">
-        <v>38.13724517822266</v>
+        <v>14.12726020812988</v>
       </c>
       <c r="G89" t="n">
-        <v>71.906982421875</v>
+        <v>57.4810791015625</v>
       </c>
       <c r="H89" t="n">
-        <v>-60.16536331176758</v>
+        <v>-77.73853302001953</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>0.9828611422207668</v>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="n">
-        <v>0.905029015743356</v>
+        <v>0.5458385942666723</v>
       </c>
       <c r="C90" t="n">
-        <v>40.4719352722168</v>
+        <v>53.16243743896484</v>
       </c>
       <c r="D90" t="n">
-        <v>24.45326614379883</v>
+        <v>23.26742362976074</v>
       </c>
       <c r="E90" t="n">
-        <v>-15.46750545501709</v>
+        <v>-31.25696563720703</v>
       </c>
       <c r="F90" t="n">
-        <v>38.22443008422852</v>
+        <v>14.12131881713867</v>
       </c>
       <c r="G90" t="n">
-        <v>71.92394256591797</v>
+        <v>57.47894668579102</v>
       </c>
       <c r="H90" t="n">
-        <v>-60.22554779052734</v>
+        <v>-77.73835754394531</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0.9637908294159463</v>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="n">
-        <v>0.9372629701651608</v>
+        <v>0.5486820650349196</v>
       </c>
       <c r="C91" t="n">
-        <v>40.40172576904297</v>
+        <v>53.16471862792969</v>
       </c>
       <c r="D91" t="n">
-        <v>24.50617027282715</v>
+        <v>23.26617431640625</v>
       </c>
       <c r="E91" t="n">
-        <v>-15.43325710296631</v>
+        <v>-31.25908660888672</v>
       </c>
       <c r="F91" t="n">
-        <v>38.31166076660156</v>
+        <v>14.11561107635498</v>
       </c>
       <c r="G91" t="n">
-        <v>71.93901062011719</v>
+        <v>57.47686386108398</v>
       </c>
       <c r="H91" t="n">
-        <v>-60.28518676757812</v>
+        <v>-77.73825073242188</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>0.9637908294159463</v>
-      </c>
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="n">
-        <v>0.9600696598945152</v>
+        <v>0.5513936416830532</v>
       </c>
       <c r="C92" t="n">
-        <v>40.33226013183594</v>
+        <v>53.16686630249023</v>
       </c>
       <c r="D92" t="n">
-        <v>24.5590705871582</v>
+        <v>23.26496315002441</v>
       </c>
       <c r="E92" t="n">
-        <v>-15.40002536773682</v>
+        <v>-31.26112174987793</v>
       </c>
       <c r="F92" t="n">
-        <v>38.39863586425781</v>
+        <v>14.11013317108154</v>
       </c>
       <c r="G92" t="n">
-        <v>71.95238494873047</v>
+        <v>57.474853515625</v>
       </c>
       <c r="H92" t="n">
-        <v>-60.34408187866211</v>
+        <v>-77.73818206787109</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>0.9501042725897478</v>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="n">
-        <v>0.9755429270013836</v>
+        <v>0.5539797065349839</v>
       </c>
       <c r="C93" t="n">
-        <v>40.26372146606445</v>
+        <v>53.16889572143555</v>
       </c>
       <c r="D93" t="n">
-        <v>24.61176300048828</v>
+        <v>23.26379013061523</v>
       </c>
       <c r="E93" t="n">
-        <v>-15.36782169342041</v>
+        <v>-31.26307487487793</v>
       </c>
       <c r="F93" t="n">
-        <v>38.48509979248047</v>
+        <v>14.10485744476318</v>
       </c>
       <c r="G93" t="n">
-        <v>71.96420288085938</v>
+        <v>57.47288513183594</v>
       </c>
       <c r="H93" t="n">
-        <v>-60.40209579467773</v>
+        <v>-77.73818206787109</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>0.9501042725897478</v>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="n">
-        <v>0.9856014631748578</v>
+        <v>0.5564466699377264</v>
       </c>
       <c r="C94" t="n">
-        <v>40.19626235961914</v>
+        <v>53.17082977294922</v>
       </c>
       <c r="D94" t="n">
-        <v>24.66406059265137</v>
+        <v>23.26265335083008</v>
       </c>
       <c r="E94" t="n">
-        <v>-15.33664894104004</v>
+        <v>-31.26494598388672</v>
       </c>
       <c r="F94" t="n">
-        <v>38.57080078125</v>
+        <v>14.09979724884033</v>
       </c>
       <c r="G94" t="n">
-        <v>71.97461700439453</v>
+        <v>57.47098922729492</v>
       </c>
       <c r="H94" t="n">
-        <v>-60.45907974243164</v>
+        <v>-77.73819732666016</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>0.9433370209818013</v>
-      </c>
+      <c r="A95" t="inlineStr"/>
       <c r="B95" t="n">
-        <v>0.9918614680958627</v>
+        <v>0.5588004314365808</v>
       </c>
       <c r="C95" t="n">
-        <v>40.13001251220703</v>
+        <v>53.17265319824219</v>
       </c>
       <c r="D95" t="n">
-        <v>24.71580123901367</v>
+        <v>23.26155662536621</v>
       </c>
       <c r="E95" t="n">
-        <v>-15.30650615692139</v>
+        <v>-31.26674652099609</v>
       </c>
       <c r="F95" t="n">
-        <v>38.655517578125</v>
+        <v>14.09493350982666</v>
       </c>
       <c r="G95" t="n">
-        <v>71.98374176025391</v>
+        <v>57.46916198730469</v>
       </c>
       <c r="H95" t="n">
-        <v>-60.51488876342773</v>
+        <v>-77.73825836181641</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>0.9433370209818013</v>
-      </c>
+      <c r="A96" t="inlineStr"/>
       <c r="B96" t="n">
-        <v>0.995588348622815</v>
+        <v>0.5610464795846595</v>
       </c>
       <c r="C96" t="n">
-        <v>40.06509780883789</v>
+        <v>53.17437362670898</v>
       </c>
       <c r="D96" t="n">
-        <v>24.76684188842773</v>
+        <v>23.26050186157227</v>
       </c>
       <c r="E96" t="n">
-        <v>-15.27738571166992</v>
+        <v>-31.26847648620605</v>
       </c>
       <c r="F96" t="n">
-        <v>38.73904418945312</v>
+        <v>14.09025573730469</v>
       </c>
       <c r="G96" t="n">
-        <v>71.99170684814453</v>
+        <v>57.46739196777344</v>
       </c>
       <c r="H96" t="n">
-        <v>-60.56937408447266</v>
+        <v>-77.73833465576172</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>0.05630161468394124</v>
-      </c>
+      <c r="A97" t="inlineStr"/>
       <c r="B97" t="n">
-        <v>0.9977091057278308</v>
+        <v>0.5631901805612691</v>
       </c>
       <c r="C97" t="n">
-        <v>40.00162506103516</v>
+        <v>53.17601776123047</v>
       </c>
       <c r="D97" t="n">
-        <v>24.81705665588379</v>
+        <v>23.25948524475098</v>
       </c>
       <c r="E97" t="n">
-        <v>-15.24928665161133</v>
+        <v>-31.27012825012207</v>
       </c>
       <c r="F97" t="n">
-        <v>38.82121276855469</v>
+        <v>14.08576774597168</v>
       </c>
       <c r="G97" t="n">
-        <v>71.99861907958984</v>
+        <v>57.46567535400391</v>
       </c>
       <c r="H97" t="n">
-        <v>-60.62251663208008</v>
+        <v>-77.73843383789062</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>1.830428067828682</v>
-      </c>
+      <c r="A98" t="inlineStr"/>
       <c r="B98" t="n">
-        <v>0.9988616162023403</v>
+        <v>0.5652364806218424</v>
       </c>
       <c r="C98" t="n">
-        <v>39.93967819213867</v>
+        <v>53.17755889892578</v>
       </c>
       <c r="D98" t="n">
-        <v>24.86635208129883</v>
+        <v>23.25851058959961</v>
       </c>
       <c r="E98" t="n">
-        <v>-15.22219085693359</v>
+        <v>-31.27172470092773</v>
       </c>
       <c r="F98" t="n">
-        <v>38.90186309814453</v>
+        <v>14.08145523071289</v>
       </c>
       <c r="G98" t="n">
-        <v>72.00460052490234</v>
+        <v>57.46403503417969</v>
       </c>
       <c r="H98" t="n">
-        <v>-60.6741943359375</v>
+        <v>-77.73855590820312</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>0.278565919838868</v>
-      </c>
+      <c r="A99" t="inlineStr"/>
       <c r="B99" t="n">
-        <v>0.9994592635714323</v>
+        <v>0.567189999268822</v>
       </c>
       <c r="C99" t="n">
-        <v>39.87933349609375</v>
+        <v>53.17903137207031</v>
       </c>
       <c r="D99" t="n">
-        <v>24.91463470458984</v>
+        <v>23.25757217407227</v>
       </c>
       <c r="E99" t="n">
-        <v>-15.19609451293945</v>
+        <v>-31.27326011657715</v>
       </c>
       <c r="F99" t="n">
-        <v>38.98088073730469</v>
+        <v>14.07730960845947</v>
       </c>
       <c r="G99" t="n">
-        <v>72.00971221923828</v>
+        <v>57.46245574951172</v>
       </c>
       <c r="H99" t="n">
-        <v>-60.72438430786133</v>
+        <v>-77.73869323730469</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>1.618868512618755</v>
-      </c>
+      <c r="A100" t="inlineStr"/>
       <c r="B100" t="n">
-        <v>0.9997547383433513</v>
+        <v>0.5690552712670721</v>
       </c>
       <c r="C100" t="n">
-        <v>39.82062149047852</v>
+        <v>53.18043899536133</v>
       </c>
       <c r="D100" t="n">
-        <v>24.96184539794922</v>
+        <v>23.25667572021484</v>
       </c>
       <c r="E100" t="n">
-        <v>-15.17097949981689</v>
+        <v>-31.27472305297852</v>
       </c>
       <c r="F100" t="n">
-        <v>39.05817031860352</v>
+        <v>14.07332992553711</v>
       </c>
       <c r="G100" t="n">
-        <v>72.0140380859375</v>
+        <v>57.46094512939453</v>
       </c>
       <c r="H100" t="n">
-        <v>-60.77303314208984</v>
+        <v>-77.73881530761719</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>0.4756798769866889</v>
-      </c>
+      <c r="A101" t="inlineStr"/>
       <c r="B101" t="n">
-        <v>0.9998938917200146</v>
+        <v>0.5708364126763554</v>
       </c>
       <c r="C101" t="n">
-        <v>39.76358413696289</v>
+        <v>53.18175506591797</v>
       </c>
       <c r="D101" t="n">
-        <v>25.00792503356934</v>
+        <v>23.25581550598145</v>
       </c>
       <c r="E101" t="n">
-        <v>-15.14683532714844</v>
+        <v>-31.27613830566406</v>
       </c>
       <c r="F101" t="n">
-        <v>39.1336669921875</v>
+        <v>14.069504737854</v>
       </c>
       <c r="G101" t="n">
-        <v>72.01764678955078</v>
+        <v>57.45948791503906</v>
       </c>
       <c r="H101" t="n">
-        <v>-60.8202018737793</v>
+        <v>-77.73896026611328</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>1.438820800942521</v>
-      </c>
+      <c r="A102" t="inlineStr"/>
       <c r="B102" t="n">
-        <v>0.999956260952367</v>
+        <v>0.5725374370931012</v>
       </c>
       <c r="C102" t="n">
-        <v>39.70824813842773</v>
+        <v>53.18301391601562</v>
       </c>
       <c r="D102" t="n">
-        <v>25.05282592773438</v>
+        <v>23.25499725341797</v>
       </c>
       <c r="E102" t="n">
-        <v>-15.1236457824707</v>
+        <v>-31.27748489379883</v>
       </c>
       <c r="F102" t="n">
-        <v>39.20730590820312</v>
+        <v>14.06583023071289</v>
       </c>
       <c r="G102" t="n">
-        <v>72.02058410644531</v>
+        <v>57.45809936523438</v>
       </c>
       <c r="H102" t="n">
-        <v>-60.8658447265625</v>
+        <v>-77.73911285400391</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>0.6371133787325305</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999828405315495</v>
+        <v>0.5741620366897187</v>
       </c>
       <c r="C103" t="n">
-        <v>39.65461349487305</v>
+        <v>53.18420791625977</v>
       </c>
       <c r="D103" t="n">
-        <v>25.09652900695801</v>
+        <v>23.25421142578125</v>
       </c>
       <c r="E103" t="n">
-        <v>-15.10138607025146</v>
+        <v>-31.2787914276123</v>
       </c>
       <c r="F103" t="n">
-        <v>39.279052734375</v>
+        <v>14.06229782104492</v>
       </c>
       <c r="G103" t="n">
-        <v>72.02291107177734</v>
+        <v>57.45677185058594</v>
       </c>
       <c r="H103" t="n">
-        <v>-60.91003036499023</v>
+        <v>-77.73924255371094</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>-0.4331696748733521</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1976606661081314</v>
+        <v>0.5280685591697694</v>
       </c>
       <c r="C104" t="n">
-        <v>39.60268402099609</v>
+        <v>53.18534088134766</v>
       </c>
       <c r="D104" t="n">
-        <v>25.13900566101074</v>
+        <v>23.25346565246582</v>
       </c>
       <c r="E104" t="n">
-        <v>-15.08004379272461</v>
+        <v>-31.28004837036133</v>
       </c>
       <c r="F104" t="n">
-        <v>39.34889984130859</v>
+        <v>14.05891036987305</v>
       </c>
       <c r="G104" t="n">
-        <v>72.02465057373047</v>
+        <v>57.45550155639648</v>
       </c>
       <c r="H104" t="n">
-        <v>-60.95277404785156</v>
+        <v>-77.7393798828125</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>-0.428217111825943</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1876737996935844</v>
+        <v>0.5281482934951782</v>
       </c>
       <c r="C105" t="n">
-        <v>39.55243682861328</v>
+        <v>53.18642425537109</v>
       </c>
       <c r="D105" t="n">
-        <v>25.18025398254395</v>
+        <v>23.25275230407715</v>
       </c>
       <c r="E105" t="n">
-        <v>-15.05959701538086</v>
+        <v>-31.28124809265137</v>
       </c>
       <c r="F105" t="n">
-        <v>39.41684722900391</v>
+        <v>14.05565071105957</v>
       </c>
       <c r="G105" t="n">
-        <v>72.02586364746094</v>
+        <v>57.45429611206055</v>
       </c>
       <c r="H105" t="n">
-        <v>-60.99412536621094</v>
+        <v>-77.73954010009766</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>-0.4234322625398636</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B106" t="n">
-        <v>0.177974548637867</v>
+        <v>0.5282246476411819</v>
       </c>
       <c r="C106" t="n">
-        <v>39.50389099121094</v>
+        <v>53.18743896484375</v>
       </c>
       <c r="D106" t="n">
-        <v>25.22021865844727</v>
+        <v>23.25207138061523</v>
       </c>
       <c r="E106" t="n">
-        <v>-15.0400276184082</v>
+        <v>-31.28240394592285</v>
       </c>
       <c r="F106" t="n">
-        <v>39.48283767700195</v>
+        <v>14.05252742767334</v>
       </c>
       <c r="G106" t="n">
-        <v>72.02657318115234</v>
+        <v>57.45314788818359</v>
       </c>
       <c r="H106" t="n">
-        <v>-61.03407287597656</v>
+        <v>-77.73965454101562</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>-0.4188131999969483</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1685629445314407</v>
+        <v>0.5282980638742447</v>
       </c>
       <c r="C107" t="n">
-        <v>39.45702743530273</v>
+        <v>53.18842315673828</v>
       </c>
       <c r="D107" t="n">
-        <v>25.25889205932617</v>
+        <v>23.25142478942871</v>
       </c>
       <c r="E107" t="n">
-        <v>-15.0213098526001</v>
+        <v>-31.28351974487305</v>
       </c>
       <c r="F107" t="n">
-        <v>39.54687118530273</v>
+        <v>14.04952716827393</v>
       </c>
       <c r="G107" t="n">
-        <v>72.02682495117188</v>
+        <v>57.45202255249023</v>
       </c>
       <c r="H107" t="n">
-        <v>-61.07267761230469</v>
+        <v>-77.73980712890625</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>-0.4143584710359574</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1594395244121552</v>
+        <v>0.5283687001466751</v>
       </c>
       <c r="C108" t="n">
-        <v>39.41183090209961</v>
+        <v>53.18935775756836</v>
       </c>
       <c r="D108" t="n">
-        <v>25.29628944396973</v>
+        <v>23.25080490112305</v>
       </c>
       <c r="E108" t="n">
-        <v>-15.00341510772705</v>
+        <v>-31.28457832336426</v>
       </c>
       <c r="F108" t="n">
-        <v>39.60894393920898</v>
+        <v>14.04663848876953</v>
       </c>
       <c r="G108" t="n">
-        <v>72.02665710449219</v>
+        <v>57.45096969604492</v>
       </c>
       <c r="H108" t="n">
-        <v>-61.10995483398438</v>
+        <v>-77.73992919921875</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>-0.4100661486387253</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1506026139855385</v>
+        <v>0.5284364932775498</v>
       </c>
       <c r="C109" t="n">
-        <v>39.36828231811523</v>
+        <v>53.19025039672852</v>
       </c>
       <c r="D109" t="n">
-        <v>25.3324089050293</v>
+        <v>23.25021934509277</v>
       </c>
       <c r="E109" t="n">
-        <v>-14.98632144927979</v>
+        <v>-31.28560829162598</v>
       </c>
       <c r="F109" t="n">
-        <v>39.6690673828125</v>
+        <v>14.04386711120605</v>
       </c>
       <c r="G109" t="n">
-        <v>72.02607727050781</v>
+        <v>57.44998931884766</v>
       </c>
       <c r="H109" t="n">
-        <v>-61.14590454101562</v>
+        <v>-77.74001312255859</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>-0.4059325051307678</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1420494017004967</v>
+        <v>0.5285013800859452</v>
       </c>
       <c r="C110" t="n">
-        <v>39.32634353637695</v>
+        <v>53.19109344482422</v>
       </c>
       <c r="D110" t="n">
-        <v>25.36726951599121</v>
+        <v>23.24966430664062</v>
       </c>
       <c r="E110" t="n">
-        <v>-14.97000312805176</v>
+        <v>-31.28659057617188</v>
       </c>
       <c r="F110" t="n">
-        <v>39.72726058959961</v>
+        <v>14.0412130355835</v>
       </c>
       <c r="G110" t="n">
-        <v>72.02516174316406</v>
+        <v>57.44903564453125</v>
       </c>
       <c r="H110" t="n">
-        <v>-61.18061065673828</v>
+        <v>-77.74013519287109</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>-0.4019537496566772</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1337759703397751</v>
+        <v>0.5285638028383255</v>
       </c>
       <c r="C111" t="n">
-        <v>39.28597640991211</v>
+        <v>53.1919059753418</v>
       </c>
       <c r="D111" t="n">
-        <v>25.40089797973633</v>
+        <v>23.2491340637207</v>
       </c>
       <c r="E111" t="n">
-        <v>-14.95443153381348</v>
+        <v>-31.28753662109375</v>
       </c>
       <c r="F111" t="n">
-        <v>39.78355026245117</v>
+        <v>14.03866195678711</v>
       </c>
       <c r="G111" t="n">
-        <v>72.02389526367188</v>
+        <v>57.4481315612793</v>
       </c>
       <c r="H111" t="n">
-        <v>-61.214111328125</v>
+        <v>-77.74025726318359</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>-0.398128429055214</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1257834492623806</v>
+        <v>0.5286236035823823</v>
       </c>
       <c r="C112" t="n">
-        <v>39.24716567993164</v>
+        <v>53.19268798828125</v>
       </c>
       <c r="D112" t="n">
-        <v>25.43331336975098</v>
+        <v>23.24863052368164</v>
       </c>
       <c r="E112" t="n">
-        <v>-14.9395866394043</v>
+        <v>-31.28845024108887</v>
       </c>
       <c r="F112" t="n">
-        <v>39.83792877197266</v>
+        <v>14.03621673583984</v>
       </c>
       <c r="G112" t="n">
-        <v>72.02231597900391</v>
+        <v>57.44726943969727</v>
       </c>
       <c r="H112" t="n">
-        <v>-61.24643707275391</v>
+        <v>-77.7403564453125</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>-0.3944523417949677</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1180617295205593</v>
+        <v>0.5286812245845794</v>
       </c>
       <c r="C113" t="n">
-        <v>39.20986938476562</v>
+        <v>53.19342041015625</v>
       </c>
       <c r="D113" t="n">
-        <v>25.46452903747559</v>
+        <v>23.2481517791748</v>
       </c>
       <c r="E113" t="n">
-        <v>-14.92544460296631</v>
+        <v>-31.28931999206543</v>
       </c>
       <c r="F113" t="n">
-        <v>39.89046478271484</v>
+        <v>14.03386116027832</v>
       </c>
       <c r="G113" t="n">
-        <v>72.02044677734375</v>
+        <v>57.44645309448242</v>
       </c>
       <c r="H113" t="n">
-        <v>-61.27761840820312</v>
+        <v>-77.74044036865234</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>-0.3909221708774567</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1106091447174549</v>
+        <v>0.5287363183498383</v>
       </c>
       <c r="C114" t="n">
-        <v>39.17405319213867</v>
+        <v>53.19413375854492</v>
       </c>
       <c r="D114" t="n">
-        <v>25.49458312988281</v>
+        <v>23.24769973754883</v>
       </c>
       <c r="E114" t="n">
-        <v>-14.9119758605957</v>
+        <v>-31.29015922546387</v>
       </c>
       <c r="F114" t="n">
-        <v>39.94116973876953</v>
+        <v>14.03160762786865</v>
       </c>
       <c r="G114" t="n">
-        <v>72.01832580566406</v>
+        <v>57.44568252563477</v>
       </c>
       <c r="H114" t="n">
-        <v>-61.30767059326172</v>
+        <v>-77.74052429199219</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>-0.3875348836183548</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B115" t="n">
-        <v>0.103419518917799</v>
+        <v>0.5287893271446228</v>
       </c>
       <c r="C115" t="n">
-        <v>39.13968658447266</v>
+        <v>53.19480895996094</v>
       </c>
       <c r="D115" t="n">
-        <v>25.52349472045898</v>
+        <v>23.24726676940918</v>
       </c>
       <c r="E115" t="n">
-        <v>-14.899169921875</v>
+        <v>-31.29096412658691</v>
       </c>
       <c r="F115" t="n">
-        <v>39.99008560180664</v>
+        <v>14.02944278717041</v>
       </c>
       <c r="G115" t="n">
-        <v>72.01594543457031</v>
+        <v>57.44493865966797</v>
       </c>
       <c r="H115" t="n">
-        <v>-61.33665466308594</v>
+        <v>-77.74057769775391</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>-0.3842851728200913</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B116" t="n">
-        <v>0.09648780554533005</v>
+        <v>0.5288400614261628</v>
       </c>
       <c r="C116" t="n">
-        <v>39.10671615600586</v>
+        <v>53.19545364379883</v>
       </c>
       <c r="D116" t="n">
-        <v>25.55130004882812</v>
+        <v>23.24685668945312</v>
       </c>
       <c r="E116" t="n">
-        <v>-14.88699722290039</v>
+        <v>-31.29174423217773</v>
       </c>
       <c r="F116" t="n">
-        <v>40.03724670410156</v>
+        <v>14.02736568450928</v>
       </c>
       <c r="G116" t="n">
-        <v>72.01335906982422</v>
+        <v>57.44424057006836</v>
       </c>
       <c r="H116" t="n">
-        <v>-61.36460113525391</v>
+        <v>-77.74067687988281</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>-0.3811697214841843</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B117" t="n">
-        <v>0.08980727583169938</v>
+        <v>0.5288888686895371</v>
       </c>
       <c r="C117" t="n">
-        <v>39.07510757446289</v>
+        <v>53.19607162475586</v>
       </c>
       <c r="D117" t="n">
-        <v>25.57802581787109</v>
+        <v>23.2464656829834</v>
       </c>
       <c r="E117" t="n">
-        <v>-14.87543487548828</v>
+        <v>-31.2924861907959</v>
       </c>
       <c r="F117" t="n">
-        <v>40.08269882202148</v>
+        <v>14.02537155151367</v>
       </c>
       <c r="G117" t="n">
-        <v>72.01055908203125</v>
+        <v>57.44356918334961</v>
       </c>
       <c r="H117" t="n">
-        <v>-61.39153289794922</v>
+        <v>-77.74072265625</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>-0.3781836014986039</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B118" t="n">
-        <v>0.08337007954716683</v>
+        <v>0.5289355593919755</v>
       </c>
       <c r="C118" t="n">
-        <v>39.0448112487793</v>
+        <v>53.19665908813477</v>
       </c>
       <c r="D118" t="n">
-        <v>25.60371589660645</v>
+        <v>23.24609756469727</v>
       </c>
       <c r="E118" t="n">
-        <v>-14.86446189880371</v>
+        <v>-31.2932014465332</v>
       </c>
       <c r="F118" t="n">
-        <v>40.12649536132812</v>
+        <v>14.02346229553223</v>
       </c>
       <c r="G118" t="n">
-        <v>72.00759124755859</v>
+        <v>57.44294738769531</v>
       </c>
       <c r="H118" t="n">
-        <v>-61.41754531860352</v>
+        <v>-77.74078369140625</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>-0.3753238117694855</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B119" t="n">
-        <v>0.07717229947447778</v>
+        <v>0.5289802914857865</v>
       </c>
       <c r="C119" t="n">
-        <v>39.01579666137695</v>
+        <v>53.19722747802734</v>
       </c>
       <c r="D119" t="n">
-        <v>25.62838745117188</v>
+        <v>23.24574661254883</v>
       </c>
       <c r="E119" t="n">
-        <v>-14.85406303405762</v>
+        <v>-31.29389572143555</v>
       </c>
       <c r="F119" t="n">
-        <v>40.16866302490234</v>
+        <v>14.02163219451904</v>
       </c>
       <c r="G119" t="n">
-        <v>72.00444030761719</v>
+        <v>57.44234466552734</v>
       </c>
       <c r="H119" t="n">
-        <v>-61.44260406494141</v>
+        <v>-77.74082183837891</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>-0.3725865930318832</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B120" t="n">
-        <v>0.07120607748627664</v>
+        <v>0.5290234124660492</v>
       </c>
       <c r="C120" t="n">
-        <v>38.9880256652832</v>
+        <v>53.19777297973633</v>
       </c>
       <c r="D120" t="n">
-        <v>25.65207481384277</v>
+        <v>23.24541473388672</v>
       </c>
       <c r="E120" t="n">
-        <v>-14.84420871734619</v>
+        <v>-31.2945499420166</v>
       </c>
       <c r="F120" t="n">
-        <v>40.20925521850586</v>
+        <v>14.01986980438232</v>
       </c>
       <c r="G120" t="n">
-        <v>72.00114440917969</v>
+        <v>57.44176864624023</v>
       </c>
       <c r="H120" t="n">
-        <v>-61.46677398681641</v>
+        <v>-77.74086761474609</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>-0.3699674278497696</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B121" t="n">
-        <v>0.06546749636530877</v>
+        <v>0.5290648275613785</v>
       </c>
       <c r="C121" t="n">
-        <v>38.96145248413086</v>
+        <v>53.19830322265625</v>
       </c>
       <c r="D121" t="n">
-        <v>25.67481422424316</v>
+        <v>23.24509620666504</v>
       </c>
       <c r="E121" t="n">
-        <v>-14.83488273620605</v>
+        <v>-31.29518699645996</v>
       </c>
       <c r="F121" t="n">
-        <v>40.24829864501953</v>
+        <v>14.0181770324707</v>
       </c>
       <c r="G121" t="n">
-        <v>71.99770355224609</v>
+        <v>57.44123077392578</v>
       </c>
       <c r="H121" t="n">
-        <v>-61.49007797241211</v>
+        <v>-77.74092864990234</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>-0.3674618303775787</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B122" t="n">
-        <v>0.05994758047163487</v>
+        <v>0.5291042840480805</v>
       </c>
       <c r="C122" t="n">
-        <v>38.93603134155273</v>
+        <v>53.19879913330078</v>
       </c>
       <c r="D122" t="n">
-        <v>25.69663619995117</v>
+        <v>23.24479484558105</v>
       </c>
       <c r="E122" t="n">
-        <v>-14.82606410980225</v>
+        <v>-31.29578399658203</v>
       </c>
       <c r="F122" t="n">
-        <v>40.28585433959961</v>
+        <v>14.01656246185303</v>
       </c>
       <c r="G122" t="n">
-        <v>71.994140625</v>
+        <v>57.44071578979492</v>
       </c>
       <c r="H122" t="n">
-        <v>-61.51255416870117</v>
+        <v>-77.74095153808594</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>-0.3650667679309845</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B123" t="n">
-        <v>0.05464240469038487</v>
+        <v>0.529142382144928</v>
       </c>
       <c r="C123" t="n">
-        <v>38.9117317199707</v>
+        <v>53.19927597045898</v>
       </c>
       <c r="D123" t="n">
-        <v>25.71756744384766</v>
+        <v>23.24450874328613</v>
       </c>
       <c r="E123" t="n">
-        <v>-14.81772994995117</v>
+        <v>-31.2963695526123</v>
       </c>
       <c r="F123" t="n">
-        <v>40.32194900512695</v>
+        <v>14.01500701904297</v>
       </c>
       <c r="G123" t="n">
-        <v>71.99047088623047</v>
+        <v>57.44020843505859</v>
       </c>
       <c r="H123" t="n">
-        <v>-61.53423309326172</v>
+        <v>-77.74097442626953</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>-0.3627777230739594</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B124" t="n">
-        <v>0.04954356200993061</v>
+        <v>0.5291787427663803</v>
       </c>
       <c r="C124" t="n">
-        <v>38.88850784301758</v>
+        <v>53.19974517822266</v>
       </c>
       <c r="D124" t="n">
-        <v>25.73764228820801</v>
+        <v>23.24423599243164</v>
       </c>
       <c r="E124" t="n">
-        <v>-14.80986404418945</v>
+        <v>-31.29693222045898</v>
       </c>
       <c r="F124" t="n">
-        <v>40.35663986206055</v>
+        <v>14.01351928710938</v>
       </c>
       <c r="G124" t="n">
-        <v>71.9866943359375</v>
+        <v>57.43975067138672</v>
       </c>
       <c r="H124" t="n">
-        <v>-61.55513381958008</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>-0.3605913472175598</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B125" t="n">
-        <v>0.04464431971311569</v>
+        <v>0.5292136502265931</v>
       </c>
       <c r="C125" t="n">
-        <v>38.86632537841797</v>
+        <v>53.2001838684082</v>
       </c>
       <c r="D125" t="n">
-        <v>25.75688362121582</v>
+        <v>23.24397659301758</v>
       </c>
       <c r="E125" t="n">
-        <v>-14.8024435043335</v>
+        <v>-31.29746437072754</v>
       </c>
       <c r="F125" t="n">
-        <v>40.38997268676758</v>
+        <v>14.01209354400635</v>
       </c>
       <c r="G125" t="n">
-        <v>71.98285675048828</v>
+        <v>57.43930435180664</v>
       </c>
       <c r="H125" t="n">
-        <v>-61.57529830932617</v>
+        <v>-77.74102020263672</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>-0.3585038495063782</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B126" t="n">
-        <v>0.03994131736457348</v>
+        <v>0.5292471361160278</v>
       </c>
       <c r="C126" t="n">
-        <v>38.84514617919922</v>
+        <v>53.20060348510742</v>
       </c>
       <c r="D126" t="n">
-        <v>25.77532386779785</v>
+        <v>23.24373054504395</v>
       </c>
       <c r="E126" t="n">
-        <v>-14.79545307159424</v>
+        <v>-31.29798126220703</v>
       </c>
       <c r="F126" t="n">
-        <v>40.42197036743164</v>
+        <v>14.01072216033936</v>
       </c>
       <c r="G126" t="n">
-        <v>71.97891998291016</v>
+        <v>57.43888473510742</v>
       </c>
       <c r="H126" t="n">
-        <v>-61.5947380065918</v>
+        <v>-77.74104309082031</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>-0.3565107125043869</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B127" t="n">
-        <v>0.03542558327317238</v>
+        <v>0.5292793267965317</v>
       </c>
       <c r="C127" t="n">
-        <v>38.82492446899414</v>
+        <v>53.20101165771484</v>
       </c>
       <c r="D127" t="n">
-        <v>25.79299736022949</v>
+        <v>23.24349784851074</v>
       </c>
       <c r="E127" t="n">
-        <v>-14.78886795043945</v>
+        <v>-31.29847526550293</v>
       </c>
       <c r="F127" t="n">
-        <v>40.45269393920898</v>
+        <v>14.00940704345703</v>
       </c>
       <c r="G127" t="n">
-        <v>71.97493743896484</v>
+        <v>57.4384765625</v>
       </c>
       <c r="H127" t="n">
-        <v>-61.61349868774414</v>
+        <v>-77.74105834960938</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>-0.3546096932888031</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0310926315933466</v>
+        <v>0.5293101274967194</v>
       </c>
       <c r="C128" t="n">
-        <v>38.80563735961914</v>
+        <v>53.2014045715332</v>
       </c>
       <c r="D128" t="n">
-        <v>25.8099250793457</v>
+        <v>23.2432746887207</v>
       </c>
       <c r="E128" t="n">
-        <v>-14.78267097473145</v>
+        <v>-31.2989501953125</v>
       </c>
       <c r="F128" t="n">
-        <v>40.48217391967773</v>
+        <v>14.00814819335938</v>
       </c>
       <c r="G128" t="n">
-        <v>71.97089385986328</v>
+        <v>57.43809509277344</v>
       </c>
       <c r="H128" t="n">
-        <v>-61.63156890869141</v>
+        <v>-77.74105072021484</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>-0.352796306014061</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B129" t="n">
-        <v>0.02693629428744316</v>
+        <v>0.5293395698070527</v>
       </c>
       <c r="C129" t="n">
-        <v>38.78723907470703</v>
+        <v>53.20177459716797</v>
       </c>
       <c r="D129" t="n">
-        <v>25.82613754272461</v>
+        <v>23.2430591583252</v>
       </c>
       <c r="E129" t="n">
-        <v>-14.77684497833252</v>
+        <v>-31.29940223693848</v>
       </c>
       <c r="F129" t="n">
-        <v>40.51045227050781</v>
+        <v>14.00694465637207</v>
       </c>
       <c r="G129" t="n">
-        <v>71.96683502197266</v>
+        <v>57.43773651123047</v>
       </c>
       <c r="H129" t="n">
-        <v>-61.64901351928711</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>-0.3510674864053727</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B130" t="n">
-        <v>0.02294984456151724</v>
+        <v>0.5293679696321487</v>
       </c>
       <c r="C130" t="n">
-        <v>38.76969909667969</v>
+        <v>53.20214080810547</v>
       </c>
       <c r="D130" t="n">
-        <v>25.84165191650391</v>
+        <v>23.24285697937012</v>
       </c>
       <c r="E130" t="n">
-        <v>-14.77137470245361</v>
+        <v>-31.29984474182129</v>
       </c>
       <c r="F130" t="n">
-        <v>40.53757476806641</v>
+        <v>14.005784034729</v>
       </c>
       <c r="G130" t="n">
-        <v>71.96271514892578</v>
+        <v>57.4373893737793</v>
       </c>
       <c r="H130" t="n">
-        <v>-61.66585159301758</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>-0.3494198858737946</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B131" t="n">
-        <v>0.01912879459559918</v>
+        <v>0.5293951374292374</v>
       </c>
       <c r="C131" t="n">
-        <v>38.75298309326172</v>
+        <v>53.20248413085938</v>
       </c>
       <c r="D131" t="n">
-        <v>25.85650825500488</v>
+        <v>23.24266624450684</v>
       </c>
       <c r="E131" t="n">
-        <v>-14.76623821258545</v>
+        <v>-31.30026817321777</v>
       </c>
       <c r="F131" t="n">
-        <v>40.56357192993164</v>
+        <v>14.00467395782471</v>
       </c>
       <c r="G131" t="n">
-        <v>71.95859527587891</v>
+        <v>57.43705749511719</v>
       </c>
       <c r="H131" t="n">
-        <v>-61.68207168579102</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>-0.3478501242399216</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B132" t="n">
-        <v>0.01546473639085889</v>
+        <v>0.5294211679697037</v>
       </c>
       <c r="C132" t="n">
-        <v>38.73705673217773</v>
+        <v>53.20281982421875</v>
       </c>
       <c r="D132" t="n">
-        <v>25.87071990966797</v>
+        <v>23.24247932434082</v>
       </c>
       <c r="E132" t="n">
-        <v>-14.7614221572876</v>
+        <v>-31.30066680908203</v>
       </c>
       <c r="F132" t="n">
-        <v>40.5885009765625</v>
+        <v>14.00360774993896</v>
       </c>
       <c r="G132" t="n">
-        <v>71.95446014404297</v>
+        <v>57.43674850463867</v>
       </c>
       <c r="H132" t="n">
-        <v>-61.69773101806641</v>
+        <v>-77.7410888671875</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>-0.3463552004098893</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B133" t="n">
-        <v>0.01195654848590493</v>
+        <v>0.5294462507963181</v>
       </c>
       <c r="C133" t="n">
-        <v>38.72188949584961</v>
+        <v>53.20312881469727</v>
       </c>
       <c r="D133" t="n">
-        <v>25.88431549072266</v>
+        <v>23.2423038482666</v>
       </c>
       <c r="E133" t="n">
-        <v>-14.7569055557251</v>
+        <v>-31.30105400085449</v>
       </c>
       <c r="F133" t="n">
-        <v>40.61236953735352</v>
+        <v>14.00258255004883</v>
       </c>
       <c r="G133" t="n">
-        <v>71.95030975341797</v>
+        <v>57.43643569946289</v>
       </c>
       <c r="H133" t="n">
-        <v>-61.71282577514648</v>
+        <v>-77.74108123779297</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>-0.3449320501089096</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B134" t="n">
-        <v>0.008596940394490958</v>
+        <v>0.5294700384140015</v>
       </c>
       <c r="C134" t="n">
-        <v>38.70745086669922</v>
+        <v>53.20343780517578</v>
       </c>
       <c r="D134" t="n">
-        <v>25.8973217010498</v>
+        <v>23.24213790893555</v>
       </c>
       <c r="E134" t="n">
-        <v>-14.75267791748047</v>
+        <v>-31.30142211914062</v>
       </c>
       <c r="F134" t="n">
-        <v>40.63522720336914</v>
+        <v>14.00160980224609</v>
       </c>
       <c r="G134" t="n">
-        <v>71.9461669921875</v>
+        <v>57.43614959716797</v>
       </c>
       <c r="H134" t="n">
-        <v>-61.72736740112305</v>
+        <v>-77.74108123779297</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>-0.3435784935951233</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B135" t="n">
-        <v>0.005377503130584956</v>
+        <v>0.5294930046796799</v>
       </c>
       <c r="C135" t="n">
-        <v>38.69371795654297</v>
+        <v>53.20373916625977</v>
       </c>
       <c r="D135" t="n">
-        <v>25.90974807739258</v>
+        <v>23.24197578430176</v>
       </c>
       <c r="E135" t="n">
-        <v>-14.74872016906738</v>
+        <v>-31.3017749786377</v>
       </c>
       <c r="F135" t="n">
-        <v>40.65713119506836</v>
+        <v>14.00067138671875</v>
       </c>
       <c r="G135" t="n">
-        <v>71.94206237792969</v>
+        <v>57.43588256835938</v>
       </c>
       <c r="H135" t="n">
-        <v>-61.74138641357422</v>
+        <v>-77.74108123779297</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>0.7607503477564335</v>
-      </c>
+      <c r="A136" t="inlineStr"/>
       <c r="B136" t="n">
-        <v>0.9956870233649314</v>
+        <v>0.5299235492229439</v>
       </c>
       <c r="C136" t="n">
-        <v>38.68064880371094</v>
+        <v>53.20401000976562</v>
       </c>
       <c r="D136" t="n">
-        <v>25.9216365814209</v>
+        <v>23.24182319641113</v>
       </c>
       <c r="E136" t="n">
-        <v>-14.74501800537109</v>
+        <v>-31.3021125793457</v>
       </c>
       <c r="F136" t="n">
-        <v>40.67808151245117</v>
+        <v>13.99977111816406</v>
       </c>
       <c r="G136" t="n">
-        <v>71.93794250488281</v>
+        <v>57.43560791015625</v>
       </c>
       <c r="H136" t="n">
-        <v>-61.75492858886719</v>
+        <v>-77.74105834960938</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0.7607503477564335</v>
-      </c>
+      <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
-        <v>1.000005265308515</v>
+        <v>0.5303348734617107</v>
       </c>
       <c r="C137" t="n">
-        <v>38.6682243347168</v>
+        <v>53.20429229736328</v>
       </c>
       <c r="D137" t="n">
-        <v>25.93299102783203</v>
+        <v>23.24168014526367</v>
       </c>
       <c r="E137" t="n">
-        <v>-14.7415599822998</v>
+        <v>-31.30243492126465</v>
       </c>
       <c r="F137" t="n">
-        <v>40.6981201171875</v>
+        <v>13.99890327453613</v>
       </c>
       <c r="G137" t="n">
-        <v>71.93387603759766</v>
+        <v>57.43536758422852</v>
       </c>
       <c r="H137" t="n">
-        <v>-61.7679443359375</v>
+        <v>-77.74109649658203</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>0.4460313638329113</v>
-      </c>
+      <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
-        <v>0.9999999655655039</v>
+        <v>0.5307279374179614</v>
       </c>
       <c r="C138" t="n">
-        <v>38.65640640258789</v>
+        <v>53.20454788208008</v>
       </c>
       <c r="D138" t="n">
-        <v>25.9438419342041</v>
+        <v>23.24153709411621</v>
       </c>
       <c r="E138" t="n">
-        <v>-14.73832702636719</v>
+        <v>-31.30274963378906</v>
       </c>
       <c r="F138" t="n">
-        <v>40.71730041503906</v>
+        <v>13.99807739257812</v>
       </c>
       <c r="G138" t="n">
-        <v>71.92981719970703</v>
+        <v>57.43511581420898</v>
       </c>
       <c r="H138" t="n">
-        <v>-61.78052520751953</v>
+        <v>-77.74107360839844</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>1.354116357184333</v>
-      </c>
+      <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>1.000000000400416</v>
+        <v>0.5311034892290788</v>
       </c>
       <c r="C139" t="n">
-        <v>38.64518356323242</v>
+        <v>53.20479583740234</v>
       </c>
       <c r="D139" t="n">
-        <v>25.95421409606934</v>
+        <v>23.24140548706055</v>
       </c>
       <c r="E139" t="n">
-        <v>-14.73531150817871</v>
+        <v>-31.30305099487305</v>
       </c>
       <c r="F139" t="n">
-        <v>40.73564910888672</v>
+        <v>13.99728393554688</v>
       </c>
       <c r="G139" t="n">
-        <v>71.92580413818359</v>
+        <v>57.43489456176758</v>
       </c>
       <c r="H139" t="n">
-        <v>-61.79265213012695</v>
+        <v>-77.74106597900391</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>0.7743384418243278</v>
-      </c>
+      <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
-        <v>0.9999999999933978</v>
+        <v>0.5314623965076724</v>
       </c>
       <c r="C140" t="n">
-        <v>38.634521484375</v>
+        <v>53.20503997802734</v>
       </c>
       <c r="D140" t="n">
-        <v>25.96412086486816</v>
+        <v>23.24127578735352</v>
       </c>
       <c r="E140" t="n">
-        <v>-14.732497215271</v>
+        <v>-31.30334091186523</v>
       </c>
       <c r="F140" t="n">
-        <v>40.753173828125</v>
+        <v>13.99652767181396</v>
       </c>
       <c r="G140" t="n">
-        <v>71.92183685302734</v>
+        <v>57.43466186523438</v>
       </c>
       <c r="H140" t="n">
-        <v>-61.80431365966797</v>
+        <v>-77.74104309082031</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>1.143378213249643</v>
-      </c>
+      <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
-        <v>1.00000000000014</v>
+        <v>0.5318051924876026</v>
       </c>
       <c r="C141" t="n">
-        <v>38.6243896484375</v>
+        <v>53.20527267456055</v>
       </c>
       <c r="D141" t="n">
-        <v>25.97358322143555</v>
+        <v>23.24115371704102</v>
       </c>
       <c r="E141" t="n">
-        <v>-14.72987461090088</v>
+        <v>-31.30361938476562</v>
       </c>
       <c r="F141" t="n">
-        <v>40.76994705200195</v>
+        <v>13.99579620361328</v>
       </c>
       <c r="G141" t="n">
-        <v>71.91791534423828</v>
+        <v>57.43446731567383</v>
       </c>
       <c r="H141" t="n">
-        <v>-61.81557846069336</v>
+        <v>-77.74105834960938</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>0.909158443839833</v>
-      </c>
+      <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>0.9999999999999964</v>
+        <v>0.5321326544705454</v>
       </c>
       <c r="C142" t="n">
-        <v>38.61477279663086</v>
+        <v>53.20549011230469</v>
       </c>
       <c r="D142" t="n">
-        <v>25.98261833190918</v>
+        <v>23.24103546142578</v>
       </c>
       <c r="E142" t="n">
-        <v>-14.72743225097656</v>
+        <v>-31.30388832092285</v>
       </c>
       <c r="F142" t="n">
-        <v>40.78596496582031</v>
+        <v>13.99509811401367</v>
       </c>
       <c r="G142" t="n">
-        <v>71.91403198242188</v>
+        <v>57.43426513671875</v>
       </c>
       <c r="H142" t="n">
-        <v>-61.82644271850586</v>
+        <v>-77.74103546142578</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>1.057401105115886</v>
-      </c>
+      <c r="A143" t="inlineStr"/>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0.5324453913234775</v>
       </c>
       <c r="C143" t="n">
-        <v>38.60564041137695</v>
+        <v>53.20570373535156</v>
       </c>
       <c r="D143" t="n">
-        <v>25.99124908447266</v>
+        <v>23.24092483520508</v>
       </c>
       <c r="E143" t="n">
-        <v>-14.72515487670898</v>
+        <v>-31.30414199829102</v>
       </c>
       <c r="F143" t="n">
-        <v>40.80128479003906</v>
+        <v>13.99442768096924</v>
       </c>
       <c r="G143" t="n">
-        <v>71.91020965576172</v>
+        <v>57.43406677246094</v>
       </c>
       <c r="H143" t="n">
-        <v>-61.83691787719727</v>
+        <v>-77.74102783203125</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>0.9638217777483964</v>
-      </c>
+      <c r="A144" t="inlineStr"/>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0.5327441323523345</v>
       </c>
       <c r="C144" t="n">
-        <v>38.59697723388672</v>
+        <v>53.20591354370117</v>
       </c>
       <c r="D144" t="n">
-        <v>25.99948883056641</v>
+        <v>23.24081611633301</v>
       </c>
       <c r="E144" t="n">
-        <v>-14.72303867340088</v>
+        <v>-31.30437850952148</v>
       </c>
       <c r="F144" t="n">
-        <v>40.81591415405273</v>
+        <v>13.99378776550293</v>
       </c>
       <c r="G144" t="n">
-        <v>71.90644073486328</v>
+        <v>57.43389129638672</v>
       </c>
       <c r="H144" t="n">
-        <v>-61.84698486328125</v>
+        <v>-77.74102020263672</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>1.022746756553813</v>
-      </c>
+      <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0.5330293980696083</v>
       </c>
       <c r="C145" t="n">
-        <v>38.5887565612793</v>
+        <v>53.20610809326172</v>
       </c>
       <c r="D145" t="n">
-        <v>26.00736045837402</v>
+        <v>23.24071311950684</v>
       </c>
       <c r="E145" t="n">
-        <v>-14.72107124328613</v>
+        <v>-31.30461311340332</v>
       </c>
       <c r="F145" t="n">
-        <v>40.82988739013672</v>
+        <v>13.99317073822021</v>
       </c>
       <c r="G145" t="n">
-        <v>71.90273284912109</v>
+        <v>57.43369293212891</v>
       </c>
       <c r="H145" t="n">
-        <v>-61.85671997070312</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>0.9857311820575246</v>
-      </c>
+      <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0.5333015832343907</v>
       </c>
       <c r="C146" t="n">
-        <v>38.58095169067383</v>
+        <v>53.20629501342773</v>
       </c>
       <c r="D146" t="n">
-        <v>26.01487350463867</v>
+        <v>23.24061393737793</v>
       </c>
       <c r="E146" t="n">
-        <v>-14.71924114227295</v>
+        <v>-31.30483627319336</v>
       </c>
       <c r="F146" t="n">
-        <v>40.8432502746582</v>
+        <v>13.99257373809814</v>
       </c>
       <c r="G146" t="n">
-        <v>71.89908599853516</v>
+        <v>57.43354034423828</v>
       </c>
       <c r="H146" t="n">
-        <v>-61.86608505249023</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>1.008931052217671</v>
-      </c>
+      <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0.5335615324622973</v>
       </c>
       <c r="C147" t="n">
-        <v>38.57355117797852</v>
+        <v>53.20647811889648</v>
       </c>
       <c r="D147" t="n">
-        <v>26.02205657958984</v>
+        <v>23.24052047729492</v>
       </c>
       <c r="E147" t="n">
-        <v>-14.71754264831543</v>
+        <v>-31.3050537109375</v>
       </c>
       <c r="F147" t="n">
-        <v>40.85600662231445</v>
+        <v>13.99201202392578</v>
       </c>
       <c r="G147" t="n">
-        <v>71.8955078125</v>
+        <v>57.43336868286133</v>
       </c>
       <c r="H147" t="n">
-        <v>-61.87512969970703</v>
+        <v>-77.74099731445312</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>0.9944216131128728</v>
-      </c>
+      <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0.5338095947899624</v>
       </c>
       <c r="C148" t="n">
-        <v>38.5665168762207</v>
+        <v>53.20664978027344</v>
       </c>
       <c r="D148" t="n">
-        <v>26.02891159057617</v>
+        <v>23.24043083190918</v>
       </c>
       <c r="E148" t="n">
-        <v>-14.71596431732178</v>
+        <v>-31.30525588989258</v>
       </c>
       <c r="F148" t="n">
-        <v>40.86818695068359</v>
+        <v>13.99146747589111</v>
       </c>
       <c r="G148" t="n">
-        <v>71.89199829101562</v>
+        <v>57.43321990966797</v>
       </c>
       <c r="H148" t="n">
-        <v>-61.88384628295898</v>
+        <v>-77.74098205566406</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>1.003477383096273</v>
-      </c>
+      <c r="A149" t="inlineStr"/>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0.5340463638106649</v>
       </c>
       <c r="C149" t="n">
-        <v>38.55985641479492</v>
+        <v>53.20681762695312</v>
       </c>
       <c r="D149" t="n">
-        <v>26.03545379638672</v>
+        <v>23.2403450012207</v>
       </c>
       <c r="E149" t="n">
-        <v>-14.71450424194336</v>
+        <v>-31.30545234680176</v>
       </c>
       <c r="F149" t="n">
-        <v>40.87982177734375</v>
+        <v>13.99094867706299</v>
       </c>
       <c r="G149" t="n">
-        <v>71.88853454589844</v>
+        <v>57.43307876586914</v>
       </c>
       <c r="H149" t="n">
-        <v>-61.89225769042969</v>
+        <v>-77.74100494384766</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>0.997836396379971</v>
-      </c>
+      <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0.5342722670042503</v>
       </c>
       <c r="C150" t="n">
-        <v>38.55354309082031</v>
+        <v>53.20698547363281</v>
       </c>
       <c r="D150" t="n">
-        <v>26.04170036315918</v>
+        <v>23.24025917053223</v>
       </c>
       <c r="E150" t="n">
-        <v>-14.71314811706543</v>
+        <v>-31.30564880371094</v>
       </c>
       <c r="F150" t="n">
-        <v>40.89093780517578</v>
+        <v>13.99044704437256</v>
       </c>
       <c r="G150" t="n">
-        <v>71.88515472412109</v>
+        <v>57.43293380737305</v>
       </c>
       <c r="H150" t="n">
-        <v>-61.9003791809082</v>
+        <v>-77.740966796875</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>1.001343764756675</v>
-      </c>
+      <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0.5344877302462554</v>
       </c>
       <c r="C151" t="n">
-        <v>38.54754257202148</v>
+        <v>53.20713424682617</v>
       </c>
       <c r="D151" t="n">
-        <v>26.04767417907715</v>
+        <v>23.24018096923828</v>
       </c>
       <c r="E151" t="n">
-        <v>-14.71189022064209</v>
+        <v>-31.30582618713379</v>
       </c>
       <c r="F151" t="n">
-        <v>40.90155410766602</v>
+        <v>13.98996639251709</v>
       </c>
       <c r="G151" t="n">
-        <v>71.8818359375</v>
+        <v>57.43280029296875</v>
       </c>
       <c r="H151" t="n">
-        <v>-61.9081916809082</v>
+        <v>-77.74097442626953</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>0.9991668397783794</v>
-      </c>
+      <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0.5346932598542882</v>
       </c>
       <c r="C152" t="n">
-        <v>38.54185485839844</v>
+        <v>53.2072868347168</v>
       </c>
       <c r="D152" t="n">
-        <v>26.05337524414062</v>
+        <v>23.24010467529297</v>
       </c>
       <c r="E152" t="n">
-        <v>-14.71072959899902</v>
+        <v>-31.30599784851074</v>
       </c>
       <c r="F152" t="n">
-        <v>40.91168975830078</v>
+        <v>13.98950958251953</v>
       </c>
       <c r="G152" t="n">
-        <v>71.87860107421875</v>
+        <v>57.43266296386719</v>
       </c>
       <c r="H152" t="n">
-        <v>-61.91575241088867</v>
+        <v>-77.74095916748047</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>1.000515740337462</v>
-      </c>
+      <c r="A153" t="inlineStr"/>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0.5348891967613449</v>
       </c>
       <c r="C153" t="n">
-        <v>38.53646469116211</v>
+        <v>53.20742416381836</v>
       </c>
       <c r="D153" t="n">
-        <v>26.05882453918457</v>
+        <v>23.24003028869629</v>
       </c>
       <c r="E153" t="n">
-        <v>-14.7096529006958</v>
+        <v>-31.30617141723633</v>
       </c>
       <c r="F153" t="n">
-        <v>40.92136383056641</v>
+        <v>13.9890661239624</v>
       </c>
       <c r="G153" t="n">
-        <v>71.87541961669922</v>
+        <v>57.43254852294922</v>
       </c>
       <c r="H153" t="n">
-        <v>-61.92301177978516</v>
+        <v>-77.74095916748047</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>0.9996812386042161</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0.5350759625997681</v>
       </c>
       <c r="C154" t="n">
-        <v>38.53134918212891</v>
+        <v>53.20756530761719</v>
       </c>
       <c r="D154" t="n">
-        <v>26.06402969360352</v>
+        <v>23.23995590209961</v>
       </c>
       <c r="E154" t="n">
-        <v>-14.70865917205811</v>
+        <v>-31.30632972717285</v>
       </c>
       <c r="F154" t="n">
-        <v>40.93062210083008</v>
+        <v>13.98864269256592</v>
       </c>
       <c r="G154" t="n">
-        <v>71.87232971191406</v>
+        <v>57.43243026733398</v>
       </c>
       <c r="H154" t="n">
-        <v>-61.93003082275391</v>
+        <v>-77.74095153808594</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>-0.3270957911014557</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.03611746571958065</v>
+        <v>0.5297970628738403</v>
       </c>
       <c r="C155" t="n">
-        <v>38.5264892578125</v>
+        <v>53.20769500732422</v>
       </c>
       <c r="D155" t="n">
-        <v>26.06900215148926</v>
+        <v>23.23989105224609</v>
       </c>
       <c r="E155" t="n">
-        <v>-14.70773601531982</v>
+        <v>-31.30647850036621</v>
       </c>
       <c r="F155" t="n">
-        <v>40.93944931030273</v>
+        <v>13.98824024200439</v>
       </c>
       <c r="G155" t="n">
-        <v>71.86930084228516</v>
+        <v>57.43230438232422</v>
       </c>
       <c r="H155" t="n">
-        <v>-61.93681335449219</v>
+        <v>-77.74095153808594</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>-0.3266419625282288</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.03735713467001915</v>
+        <v>0.5298064768314362</v>
       </c>
       <c r="C156" t="n">
-        <v>38.52188491821289</v>
+        <v>53.20782470703125</v>
       </c>
       <c r="D156" t="n">
-        <v>26.0737476348877</v>
+        <v>23.23982620239258</v>
       </c>
       <c r="E156" t="n">
-        <v>-14.70688819885254</v>
+        <v>-31.30662727355957</v>
       </c>
       <c r="F156" t="n">
-        <v>40.94788360595703</v>
+        <v>13.98785495758057</v>
       </c>
       <c r="G156" t="n">
-        <v>71.86634063720703</v>
+        <v>57.43220520019531</v>
       </c>
       <c r="H156" t="n">
-        <v>-61.943359375</v>
+        <v>-77.74093627929688</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>-0.3262122058868409</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.03854129523038864</v>
+        <v>0.5298156380653382</v>
       </c>
       <c r="C157" t="n">
-        <v>38.51752471923828</v>
+        <v>53.20793914794922</v>
       </c>
       <c r="D157" t="n">
-        <v>26.07829093933105</v>
+        <v>23.2397632598877</v>
       </c>
       <c r="E157" t="n">
-        <v>-14.70610237121582</v>
+        <v>-31.30676460266113</v>
       </c>
       <c r="F157" t="n">
-        <v>40.95594024658203</v>
+        <v>13.98748016357422</v>
       </c>
       <c r="G157" t="n">
-        <v>71.86346435546875</v>
+        <v>57.43209075927734</v>
       </c>
       <c r="H157" t="n">
-        <v>-61.94965362548828</v>
+        <v>-77.74092102050781</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>-0.3258035200834274</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.03967219032347202</v>
+        <v>0.5298244202136994</v>
       </c>
       <c r="C158" t="n">
-        <v>38.51337814331055</v>
+        <v>53.20805358886719</v>
       </c>
       <c r="D158" t="n">
-        <v>26.08263206481934</v>
+        <v>23.23970222473145</v>
       </c>
       <c r="E158" t="n">
-        <v>-14.70537757873535</v>
+        <v>-31.3069019317627</v>
       </c>
       <c r="F158" t="n">
-        <v>40.9636344909668</v>
+        <v>13.98712253570557</v>
       </c>
       <c r="G158" t="n">
-        <v>71.86064147949219</v>
+        <v>57.43199157714844</v>
       </c>
       <c r="H158" t="n">
-        <v>-61.95573806762695</v>
+        <v>-77.74093627929688</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>-0.3254151153564454</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.04075430974364281</v>
+        <v>0.5298326969146728</v>
       </c>
       <c r="C159" t="n">
-        <v>38.50943756103516</v>
+        <v>53.20816802978516</v>
       </c>
       <c r="D159" t="n">
-        <v>26.08677864074707</v>
+        <v>23.23964881896973</v>
       </c>
       <c r="E159" t="n">
-        <v>-14.7047061920166</v>
+        <v>-31.30703353881836</v>
       </c>
       <c r="F159" t="n">
-        <v>40.97099685668945</v>
+        <v>13.98678112030029</v>
       </c>
       <c r="G159" t="n">
-        <v>71.85792541503906</v>
+        <v>57.431884765625</v>
       </c>
       <c r="H159" t="n">
-        <v>-61.96161651611328</v>
+        <v>-77.74092864990234</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>-0.3250470232963562</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.04178652413189411</v>
+        <v>0.529840784072876</v>
       </c>
       <c r="C160" t="n">
-        <v>38.50570297241211</v>
+        <v>53.20828247070312</v>
       </c>
       <c r="D160" t="n">
-        <v>26.09074974060059</v>
+        <v>23.23959350585938</v>
       </c>
       <c r="E160" t="n">
-        <v>-14.70408725738525</v>
+        <v>-31.30716133117676</v>
       </c>
       <c r="F160" t="n">
-        <v>40.97801971435547</v>
+        <v>13.98645210266113</v>
       </c>
       <c r="G160" t="n">
-        <v>71.85525512695312</v>
+        <v>57.43180084228516</v>
       </c>
       <c r="H160" t="n">
-        <v>-61.96728134155273</v>
+        <v>-77.74091339111328</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>-0.324697727560997</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.04277388401329518</v>
+        <v>0.5298484921455383</v>
       </c>
       <c r="C161" t="n">
-        <v>38.50215911865234</v>
+        <v>53.2083854675293</v>
       </c>
       <c r="D161" t="n">
-        <v>26.09454345703125</v>
+        <v>23.23954010009766</v>
       </c>
       <c r="E161" t="n">
-        <v>-14.70351696014404</v>
+        <v>-31.30727767944336</v>
       </c>
       <c r="F161" t="n">
-        <v>40.98473739624023</v>
+        <v>13.9861364364624</v>
       </c>
       <c r="G161" t="n">
-        <v>71.85264587402344</v>
+        <v>57.43169403076172</v>
       </c>
       <c r="H161" t="n">
-        <v>-61.9727668762207</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>-0.3243653327226639</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.04371807552874089</v>
+        <v>0.5298559474945068</v>
       </c>
       <c r="C162" t="n">
-        <v>38.49878692626953</v>
+        <v>53.20847702026367</v>
       </c>
       <c r="D162" t="n">
-        <v>26.09816741943359</v>
+        <v>23.23948860168457</v>
       </c>
       <c r="E162" t="n">
-        <v>-14.70298767089844</v>
+        <v>-31.3073844909668</v>
       </c>
       <c r="F162" t="n">
-        <v>40.99116134643555</v>
+        <v>13.98583316802979</v>
       </c>
       <c r="G162" t="n">
-        <v>71.85012054443359</v>
+        <v>57.43161773681641</v>
       </c>
       <c r="H162" t="n">
-        <v>-61.97804260253906</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>-0.3240499019622803</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.04462077297270298</v>
+        <v>0.5298629921674729</v>
       </c>
       <c r="C163" t="n">
-        <v>38.49558639526367</v>
+        <v>53.20857238769531</v>
       </c>
       <c r="D163" t="n">
-        <v>26.10164070129395</v>
+        <v>23.23943901062012</v>
       </c>
       <c r="E163" t="n">
-        <v>-14.70249652862549</v>
+        <v>-31.3075008392334</v>
       </c>
       <c r="F163" t="n">
-        <v>40.9973030090332</v>
+        <v>13.98554420471191</v>
       </c>
       <c r="G163" t="n">
-        <v>71.84766387939453</v>
+        <v>57.43154144287109</v>
       </c>
       <c r="H163" t="n">
-        <v>-61.98316955566406</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>-0.3237498557567597</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.04548310175538063</v>
+        <v>0.5298698472976685</v>
       </c>
       <c r="C164" t="n">
-        <v>38.4925422668457</v>
+        <v>53.20866012573242</v>
       </c>
       <c r="D164" t="n">
-        <v>26.10495758056641</v>
+        <v>23.2393913269043</v>
       </c>
       <c r="E164" t="n">
-        <v>-14.70204830169678</v>
+        <v>-31.30760192871094</v>
       </c>
       <c r="F164" t="n">
-        <v>41.00317001342773</v>
+        <v>13.98526287078857</v>
       </c>
       <c r="G164" t="n">
-        <v>71.84526824951172</v>
+        <v>57.43146896362305</v>
       </c>
       <c r="H164" t="n">
-        <v>-61.98809051513672</v>
+        <v>-77.74089813232422</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>-0.323464846611023</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.04630674406886101</v>
+        <v>0.5298761969804764</v>
       </c>
       <c r="C165" t="n">
-        <v>38.48965072631836</v>
+        <v>53.20875930786133</v>
       </c>
       <c r="D165" t="n">
-        <v>26.10813140869141</v>
+        <v>23.23934745788574</v>
       </c>
       <c r="E165" t="n">
-        <v>-14.70163059234619</v>
+        <v>-31.30770111083984</v>
       </c>
       <c r="F165" t="n">
-        <v>41.00877380371094</v>
+        <v>13.98500347137451</v>
       </c>
       <c r="G165" t="n">
-        <v>71.84294891357422</v>
+        <v>57.43137741088867</v>
       </c>
       <c r="H165" t="n">
-        <v>-61.99283981323242</v>
+        <v>-77.74089050292969</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>-0.3231944954395294</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.04709730722010136</v>
+        <v>0.5298825466632844</v>
       </c>
       <c r="C166" t="n">
-        <v>38.48690795898438</v>
+        <v>53.20883178710938</v>
       </c>
       <c r="D166" t="n">
-        <v>26.11117553710938</v>
+        <v>23.23930549621582</v>
       </c>
       <c r="E166" t="n">
-        <v>-14.70124435424805</v>
+        <v>-31.30780029296875</v>
       </c>
       <c r="F166" t="n">
-        <v>41.01415252685547</v>
+        <v>13.98474597930908</v>
       </c>
       <c r="G166" t="n">
-        <v>71.84069061279297</v>
+        <v>57.43131256103516</v>
       </c>
       <c r="H166" t="n">
-        <v>-61.99742889404297</v>
+        <v>-77.74088287353516</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>-0.3229358327388764</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.04785198360681534</v>
+        <v>0.529888454079628</v>
       </c>
       <c r="C167" t="n">
-        <v>38.48428344726562</v>
+        <v>53.20891189575195</v>
       </c>
       <c r="D167" t="n">
-        <v>26.11408996582031</v>
+        <v>23.2392635345459</v>
       </c>
       <c r="E167" t="n">
-        <v>-14.70088672637939</v>
+        <v>-31.30789184570312</v>
       </c>
       <c r="F167" t="n">
-        <v>41.019287109375</v>
+        <v>13.9845027923584</v>
       </c>
       <c r="G167" t="n">
-        <v>71.83848571777344</v>
+        <v>57.43124008178711</v>
       </c>
       <c r="H167" t="n">
-        <v>-62.00186157226562</v>
+        <v>-77.74085998535156</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>-0.3226910698413849</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.04857470229268075</v>
+        <v>0.529894203543663</v>
       </c>
       <c r="C168" t="n">
-        <v>38.4818000793457</v>
+        <v>53.208984375</v>
       </c>
       <c r="D168" t="n">
-        <v>26.11687660217285</v>
+        <v>23.23922348022461</v>
       </c>
       <c r="E168" t="n">
-        <v>-14.7005558013916</v>
+        <v>-31.3079833984375</v>
       </c>
       <c r="F168" t="n">
-        <v>41.02420425415039</v>
+        <v>13.98426818847656</v>
       </c>
       <c r="G168" t="n">
-        <v>71.83636474609375</v>
+        <v>57.43117904663086</v>
       </c>
       <c r="H168" t="n">
-        <v>-62.00614929199219</v>
+        <v>-77.74088287353516</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>-0.3224575531482697</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.04926602400839329</v>
+        <v>0.5298997318744659</v>
       </c>
       <c r="C169" t="n">
-        <v>38.47943115234375</v>
+        <v>53.20906448364258</v>
       </c>
       <c r="D169" t="n">
-        <v>26.11954879760742</v>
+        <v>23.23918533325195</v>
       </c>
       <c r="E169" t="n">
-        <v>-14.70024681091309</v>
+        <v>-31.30806350708008</v>
       </c>
       <c r="F169" t="n">
-        <v>41.02890777587891</v>
+        <v>13.98404121398926</v>
       </c>
       <c r="G169" t="n">
-        <v>71.83429718017578</v>
+        <v>57.43110275268555</v>
       </c>
       <c r="H169" t="n">
-        <v>-62.01028442382812</v>
+        <v>-77.7408447265625</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>-0.3222353458404541</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.04992707021534443</v>
+        <v>0.529905007481575</v>
       </c>
       <c r="C170" t="n">
-        <v>38.47717666625977</v>
+        <v>53.20913314819336</v>
       </c>
       <c r="D170" t="n">
-        <v>26.12211227416992</v>
+        <v>23.2391471862793</v>
       </c>
       <c r="E170" t="n">
-        <v>-14.69996356964111</v>
+        <v>-31.30814552307129</v>
       </c>
       <c r="F170" t="n">
-        <v>41.03340530395508</v>
+        <v>13.98382472991943</v>
       </c>
       <c r="G170" t="n">
-        <v>71.83229064941406</v>
+        <v>57.43104934692383</v>
       </c>
       <c r="H170" t="n">
-        <v>-62.0142936706543</v>
+        <v>-77.74085998535156</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>-0.3220232790708542</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.05056176207959652</v>
+        <v>0.5299099671840668</v>
       </c>
       <c r="C171" t="n">
-        <v>38.47502517700195</v>
+        <v>53.20919418334961</v>
       </c>
       <c r="D171" t="n">
-        <v>26.12456703186035</v>
+        <v>23.23911285400391</v>
       </c>
       <c r="E171" t="n">
-        <v>-14.69969654083252</v>
+        <v>-31.30822563171387</v>
       </c>
       <c r="F171" t="n">
-        <v>41.03772354125977</v>
+        <v>13.98362255096436</v>
       </c>
       <c r="G171" t="n">
-        <v>71.83034515380859</v>
+        <v>57.43099212646484</v>
       </c>
       <c r="H171" t="n">
-        <v>-62.01816177368164</v>
+        <v>-77.74086761474609</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>-0.3218213844299316</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.05116897813975811</v>
+        <v>0.529914990067482</v>
       </c>
       <c r="C172" t="n">
-        <v>38.47297668457031</v>
+        <v>53.20925903320312</v>
       </c>
       <c r="D172" t="n">
-        <v>26.12692260742188</v>
+        <v>23.23907661437988</v>
       </c>
       <c r="E172" t="n">
-        <v>-14.69944858551025</v>
+        <v>-31.30830192565918</v>
       </c>
       <c r="F172" t="n">
-        <v>41.04185485839844</v>
+        <v>13.98341655731201</v>
       </c>
       <c r="G172" t="n">
-        <v>71.82846832275391</v>
+        <v>57.43093490600586</v>
       </c>
       <c r="H172" t="n">
-        <v>-62.02188110351562</v>
+        <v>-77.74085998535156</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>-0.3216288721561432</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.05174928702414036</v>
+        <v>0.5299196338653565</v>
       </c>
       <c r="C173" t="n">
-        <v>38.47102355957031</v>
+        <v>53.20933151245117</v>
       </c>
       <c r="D173" t="n">
-        <v>26.12918090820312</v>
+        <v>23.23904991149902</v>
       </c>
       <c r="E173" t="n">
-        <v>-14.69921875</v>
+        <v>-31.30837249755859</v>
       </c>
       <c r="F173" t="n">
-        <v>41.04580307006836</v>
+        <v>13.98322868347168</v>
       </c>
       <c r="G173" t="n">
-        <v>71.82664489746094</v>
+        <v>57.43087387084961</v>
       </c>
       <c r="H173" t="n">
-        <v>-62.02549743652344</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>-0.3214446365833283</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.05230772741138935</v>
+        <v>0.5299240565299989</v>
       </c>
       <c r="C174" t="n">
-        <v>38.46915435791016</v>
+        <v>53.20938873291016</v>
       </c>
       <c r="D174" t="n">
-        <v>26.13134765625</v>
+        <v>23.239013671875</v>
       </c>
       <c r="E174" t="n">
-        <v>-14.69900417327881</v>
+        <v>-31.30844497680664</v>
       </c>
       <c r="F174" t="n">
-        <v>41.04960250854492</v>
+        <v>13.98304748535156</v>
       </c>
       <c r="G174" t="n">
-        <v>71.82487487792969</v>
+        <v>57.43082427978516</v>
       </c>
       <c r="H174" t="n">
-        <v>-62.02897262573242</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>-0.3212698149681091</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.05284261710941792</v>
+        <v>0.5299283528327943</v>
       </c>
       <c r="C175" t="n">
-        <v>38.46738052368164</v>
+        <v>53.20944595336914</v>
       </c>
       <c r="D175" t="n">
-        <v>26.13343048095703</v>
+        <v>23.23898696899414</v>
       </c>
       <c r="E175" t="n">
-        <v>-14.69880294799805</v>
+        <v>-31.30850791931152</v>
       </c>
       <c r="F175" t="n">
-        <v>41.05324172973633</v>
+        <v>13.98287200927734</v>
       </c>
       <c r="G175" t="n">
-        <v>71.82317352294922</v>
+        <v>57.43076705932617</v>
       </c>
       <c r="H175" t="n">
-        <v>-62.03234100341797</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>-0.3211017537117005</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.05335676372051239</v>
+        <v>0.529932364821434</v>
       </c>
       <c r="C176" t="n">
-        <v>38.46567535400391</v>
+        <v>53.20949935913086</v>
       </c>
       <c r="D176" t="n">
-        <v>26.13542366027832</v>
+        <v>23.23895645141602</v>
       </c>
       <c r="E176" t="n">
-        <v>-14.6986141204834</v>
+        <v>-31.30857467651367</v>
       </c>
       <c r="F176" t="n">
-        <v>41.05673980712891</v>
+        <v>13.98270702362061</v>
       </c>
       <c r="G176" t="n">
-        <v>71.82151031494141</v>
+        <v>57.43072509765625</v>
       </c>
       <c r="H176" t="n">
-        <v>-62.03560256958008</v>
+        <v>-77.74085235595703</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>-0.3209415584802628</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.05384679891169072</v>
+        <v>0.5299363768100739</v>
       </c>
       <c r="C177" t="n">
-        <v>38.46405029296875</v>
+        <v>53.20955657958984</v>
       </c>
       <c r="D177" t="n">
-        <v>26.1373462677002</v>
+        <v>23.23892974853516</v>
       </c>
       <c r="E177" t="n">
-        <v>-14.69843673706055</v>
+        <v>-31.30863189697266</v>
       </c>
       <c r="F177" t="n">
-        <v>41.06007385253906</v>
+        <v>13.9825439453125</v>
       </c>
       <c r="G177" t="n">
-        <v>71.81991577148438</v>
+        <v>57.43067169189453</v>
       </c>
       <c r="H177" t="n">
-        <v>-62.03873443603516</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>-0.320788534283638</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.0543194554001093</v>
+        <v>0.5299400097131729</v>
       </c>
       <c r="C178" t="n">
-        <v>38.46249771118164</v>
+        <v>53.20959854125977</v>
       </c>
       <c r="D178" t="n">
-        <v>26.13919067382812</v>
+        <v>23.23890495300293</v>
       </c>
       <c r="E178" t="n">
-        <v>-14.69826889038086</v>
+        <v>-31.30869102478027</v>
       </c>
       <c r="F178" t="n">
-        <v>41.06328964233398</v>
+        <v>13.98239421844482</v>
       </c>
       <c r="G178" t="n">
-        <v>71.81836700439453</v>
+        <v>57.43062973022461</v>
       </c>
       <c r="H178" t="n">
-        <v>-62.04178619384766</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>-0.3206422704458237</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.05477136485278607</v>
+        <v>0.5299437373876572</v>
       </c>
       <c r="C179" t="n">
-        <v>38.46101379394531</v>
+        <v>53.20965576171875</v>
       </c>
       <c r="D179" t="n">
-        <v>26.14096260070801</v>
+        <v>23.2388801574707</v>
       </c>
       <c r="E179" t="n">
-        <v>-14.69811344146729</v>
+        <v>-31.30875015258789</v>
       </c>
       <c r="F179" t="n">
-        <v>41.06636428833008</v>
+        <v>13.98224353790283</v>
       </c>
       <c r="G179" t="n">
-        <v>71.81687164306641</v>
+        <v>57.43058776855469</v>
       </c>
       <c r="H179" t="n">
-        <v>-62.04472351074219</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>-0.3205016613006592</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.05520757384598256</v>
+        <v>0.5299472439289094</v>
       </c>
       <c r="C180" t="n">
-        <v>38.45958709716797</v>
+        <v>53.20969772338867</v>
       </c>
       <c r="D180" t="n">
-        <v>26.14266395568848</v>
+        <v>23.23885345458984</v>
       </c>
       <c r="E180" t="n">
-        <v>-14.69796371459961</v>
+        <v>-31.30880355834961</v>
       </c>
       <c r="F180" t="n">
-        <v>41.06933212280273</v>
+        <v>13.98209953308105</v>
       </c>
       <c r="G180" t="n">
-        <v>71.81541442871094</v>
+        <v>57.43054580688477</v>
       </c>
       <c r="H180" t="n">
-        <v>-62.04756927490234</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>-0.3203674334287643</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.05562472194433213</v>
+        <v>0.5299505925178528</v>
       </c>
       <c r="C181" t="n">
-        <v>38.45822525024414</v>
+        <v>53.20974731445312</v>
       </c>
       <c r="D181" t="n">
-        <v>26.1443042755127</v>
+        <v>23.23883247375488</v>
       </c>
       <c r="E181" t="n">
-        <v>-14.6978235244751</v>
+        <v>-31.30885696411133</v>
       </c>
       <c r="F181" t="n">
-        <v>41.07217025756836</v>
+        <v>13.98196220397949</v>
       </c>
       <c r="G181" t="n">
-        <v>71.81402587890625</v>
+        <v>57.43050003051758</v>
       </c>
       <c r="H181" t="n">
-        <v>-62.05030059814453</v>
+        <v>-77.74085235595703</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>-0.3202388286590576</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.05602504812180996</v>
+        <v>0.5299538147449494</v>
       </c>
       <c r="C182" t="n">
-        <v>38.4569206237793</v>
+        <v>53.20978546142578</v>
       </c>
       <c r="D182" t="n">
-        <v>26.14588165283203</v>
+        <v>23.23880767822266</v>
       </c>
       <c r="E182" t="n">
-        <v>-14.69768905639648</v>
+        <v>-31.30890083312988</v>
       </c>
       <c r="F182" t="n">
-        <v>41.07489395141602</v>
+        <v>13.98183059692383</v>
       </c>
       <c r="G182" t="n">
-        <v>71.81266784667969</v>
+        <v>57.43046951293945</v>
       </c>
       <c r="H182" t="n">
-        <v>-62.05294799804688</v>
+        <v>-77.74085235595703</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>-0.32011549949646</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.05641079925000668</v>
+        <v>0.5299569422006607</v>
       </c>
       <c r="C183" t="n">
-        <v>38.45566940307617</v>
+        <v>53.20982360839844</v>
       </c>
       <c r="D183" t="n">
-        <v>26.14739990234375</v>
+        <v>23.2387866973877</v>
       </c>
       <c r="E183" t="n">
-        <v>-14.69756126403809</v>
+        <v>-31.30894660949707</v>
       </c>
       <c r="F183" t="n">
-        <v>41.07751846313477</v>
+        <v>13.98170280456543</v>
       </c>
       <c r="G183" t="n">
-        <v>71.81135559082031</v>
+        <v>57.43042755126953</v>
       </c>
       <c r="H183" t="n">
-        <v>-62.05552291870117</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>-0.3199970668554306</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.05678084991872311</v>
+        <v>0.5299597537517547</v>
       </c>
       <c r="C184" t="n">
-        <v>38.4544677734375</v>
+        <v>53.20986938476562</v>
       </c>
       <c r="D184" t="n">
-        <v>26.14885711669922</v>
+        <v>23.23876571655273</v>
       </c>
       <c r="E184" t="n">
-        <v>-14.69743633270264</v>
+        <v>-31.30899429321289</v>
       </c>
       <c r="F184" t="n">
-        <v>41.08003616333008</v>
+        <v>13.98158836364746</v>
       </c>
       <c r="G184" t="n">
-        <v>71.81008911132812</v>
+        <v>57.43039703369141</v>
       </c>
       <c r="H184" t="n">
-        <v>-62.05798721313477</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>-0.3198835307359695</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.05713744305074215</v>
+        <v>0.5299625021219254</v>
       </c>
       <c r="C185" t="n">
-        <v>38.45331573486328</v>
+        <v>53.20990371704102</v>
       </c>
       <c r="D185" t="n">
-        <v>26.15027046203613</v>
+        <v>23.23874664306641</v>
       </c>
       <c r="E185" t="n">
-        <v>-14.69732093811035</v>
+        <v>-31.30903434753418</v>
       </c>
       <c r="F185" t="n">
-        <v>41.08246231079102</v>
+        <v>13.98147487640381</v>
       </c>
       <c r="G185" t="n">
-        <v>71.80887603759766</v>
+        <v>57.43037033081055</v>
       </c>
       <c r="H185" t="n">
-        <v>-62.06038665771484</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>-0.3197741013765335</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.05748001791536808</v>
+        <v>0.5299651873111725</v>
       </c>
       <c r="C186" t="n">
-        <v>38.45220565795898</v>
+        <v>53.20993804931641</v>
       </c>
       <c r="D186" t="n">
-        <v>26.15162467956543</v>
+        <v>23.23872566223145</v>
       </c>
       <c r="E186" t="n">
-        <v>-14.69720649719238</v>
+        <v>-31.30908203125</v>
       </c>
       <c r="F186" t="n">
-        <v>41.08479309082031</v>
+        <v>13.98136520385742</v>
       </c>
       <c r="G186" t="n">
-        <v>71.80769348144531</v>
+        <v>57.43033218383789</v>
       </c>
       <c r="H186" t="n">
-        <v>-62.06271362304688</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>0.7380188270687777</v>
-      </c>
+      <c r="A187" t="inlineStr"/>
       <c r="B187" t="n">
-        <v>1.115344533641654</v>
+        <v>0.5299938173444603</v>
       </c>
       <c r="C187" t="n">
-        <v>38.45114135742188</v>
+        <v>53.20997619628906</v>
       </c>
       <c r="D187" t="n">
-        <v>26.15293121337891</v>
+        <v>23.23870849609375</v>
       </c>
       <c r="E187" t="n">
-        <v>-14.69709873199463</v>
+        <v>-31.30912208557129</v>
       </c>
       <c r="F187" t="n">
-        <v>41.0870361328125</v>
+        <v>13.98126125335693</v>
       </c>
       <c r="G187" t="n">
-        <v>71.80655670166016</v>
+        <v>57.43029403686523</v>
       </c>
       <c r="H187" t="n">
-        <v>-62.06494522094727</v>
+        <v>-77.74083709716797</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>0.7380188270687777</v>
-      </c>
+      <c r="A188" t="inlineStr"/>
       <c r="B188" t="n">
-        <v>0.9873498634292763</v>
+        <v>0.5300201288936955</v>
       </c>
       <c r="C188" t="n">
-        <v>38.45011901855469</v>
+        <v>53.21000671386719</v>
       </c>
       <c r="D188" t="n">
-        <v>26.15419578552246</v>
+        <v>23.23869132995605</v>
       </c>
       <c r="E188" t="n">
-        <v>-14.69699192047119</v>
+        <v>-31.30915451049805</v>
       </c>
       <c r="F188" t="n">
-        <v>41.08919143676758</v>
+        <v>13.98115539550781</v>
       </c>
       <c r="G188" t="n">
-        <v>71.80546569824219</v>
+        <v>57.43027114868164</v>
       </c>
       <c r="H188" t="n">
-        <v>-62.06710052490234</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>0.5203661856246951</v>
-      </c>
+      <c r="A189" t="inlineStr"/>
       <c r="B189" t="n">
-        <v>1.001394693759742</v>
+        <v>0.5300443291997088</v>
       </c>
       <c r="C189" t="n">
-        <v>38.44913864135742</v>
+        <v>53.21004104614258</v>
       </c>
       <c r="D189" t="n">
-        <v>26.15540885925293</v>
+        <v>23.23867416381836</v>
       </c>
       <c r="E189" t="n">
-        <v>-14.69689083099365</v>
+        <v>-31.30919456481934</v>
       </c>
       <c r="F189" t="n">
-        <v>41.09127807617188</v>
+        <v>13.98105812072754</v>
       </c>
       <c r="G189" t="n">
-        <v>71.80440521240234</v>
+        <v>57.43024444580078</v>
       </c>
       <c r="H189" t="n">
-        <v>-62.0692024230957</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>1.289027513648172</v>
-      </c>
+      <c r="A190" t="inlineStr"/>
       <c r="B190" t="n">
-        <v>0.9998454600992271</v>
+        <v>0.5300665013297922</v>
       </c>
       <c r="C190" t="n">
-        <v>38.44818878173828</v>
+        <v>53.2100715637207</v>
       </c>
       <c r="D190" t="n">
-        <v>26.15657997131348</v>
+        <v>23.23866081237793</v>
       </c>
       <c r="E190" t="n">
-        <v>-14.69679355621338</v>
+        <v>-31.30922889709473</v>
       </c>
       <c r="F190" t="n">
-        <v>41.09327697753906</v>
+        <v>13.98096370697021</v>
       </c>
       <c r="G190" t="n">
-        <v>71.80340576171875</v>
+        <v>57.43022537231445</v>
       </c>
       <c r="H190" t="n">
-        <v>-62.07122421264648</v>
+        <v>-77.74082946777344</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>0.8258809183816029</v>
-      </c>
+      <c r="A191" t="inlineStr"/>
       <c r="B191" t="n">
-        <v>1.000017206776444</v>
+        <v>0.5300866869436015</v>
       </c>
       <c r="C191" t="n">
-        <v>38.4472770690918</v>
+        <v>53.21010208129883</v>
       </c>
       <c r="D191" t="n">
-        <v>26.15771293640137</v>
+        <v>23.23864555358887</v>
       </c>
       <c r="E191" t="n">
-        <v>-14.69669628143311</v>
+        <v>-31.30926322937012</v>
       </c>
       <c r="F191" t="n">
-        <v>41.09521102905273</v>
+        <v>13.98087310791016</v>
       </c>
       <c r="G191" t="n">
-        <v>71.80241394042969</v>
+        <v>57.43019485473633</v>
       </c>
       <c r="H191" t="n">
-        <v>-62.07319259643555</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>1.104866167022206</v>
-      </c>
+      <c r="A192" t="inlineStr"/>
       <c r="B192" t="n">
-        <v>0.9999980752988658</v>
+        <v>0.5301050517541714</v>
       </c>
       <c r="C192" t="n">
-        <v>38.44639587402344</v>
+        <v>53.21013259887695</v>
       </c>
       <c r="D192" t="n">
-        <v>26.15880012512207</v>
+        <v>23.2386302947998</v>
       </c>
       <c r="E192" t="n">
-        <v>-14.69660186767578</v>
+        <v>-31.30929565429688</v>
       </c>
       <c r="F192" t="n">
-        <v>41.09706878662109</v>
+        <v>13.980788230896</v>
       </c>
       <c r="G192" t="n">
-        <v>71.80146026611328</v>
+        <v>57.43016052246094</v>
       </c>
       <c r="H192" t="n">
-        <v>-62.07507705688477</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>0.9368590151994365</v>
-      </c>
+      <c r="A193" t="inlineStr"/>
       <c r="B193" t="n">
-        <v>1.00000021624858</v>
+        <v>0.5301215959819641</v>
       </c>
       <c r="C193" t="n">
-        <v>38.44555282592773</v>
+        <v>53.21015167236328</v>
       </c>
       <c r="D193" t="n">
-        <v>26.15985107421875</v>
+        <v>23.23861312866211</v>
       </c>
       <c r="E193" t="n">
-        <v>-14.69651222229004</v>
+        <v>-31.30932235717773</v>
       </c>
       <c r="F193" t="n">
-        <v>41.09886169433594</v>
+        <v>13.98070526123047</v>
       </c>
       <c r="G193" t="n">
-        <v>71.80055236816406</v>
+        <v>57.43014526367188</v>
       </c>
       <c r="H193" t="n">
-        <v>-62.07690048217773</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>1.038008198017472</v>
-      </c>
+      <c r="A194" t="inlineStr"/>
       <c r="B194" t="n">
-        <v>0.9999999756001247</v>
+        <v>0.5301364852627319</v>
       </c>
       <c r="C194" t="n">
-        <v>38.44473266601562</v>
+        <v>53.21017837524414</v>
       </c>
       <c r="D194" t="n">
-        <v>26.16086959838867</v>
+        <v>23.23860168457031</v>
       </c>
       <c r="E194" t="n">
-        <v>-14.69642543792725</v>
+        <v>-31.30935668945312</v>
       </c>
       <c r="F194" t="n">
-        <v>41.1005859375</v>
+        <v>13.98062896728516</v>
       </c>
       <c r="G194" t="n">
-        <v>71.79965972900391</v>
+        <v>57.43011474609375</v>
       </c>
       <c r="H194" t="n">
-        <v>-62.07867050170898</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>0.9771262294462922</v>
-      </c>
+      <c r="A195" t="inlineStr"/>
       <c r="B195" t="n">
-        <v>1.00000000276438</v>
+        <v>0.530149637043983</v>
       </c>
       <c r="C195" t="n">
-        <v>38.44394683837891</v>
+        <v>53.210205078125</v>
       </c>
       <c r="D195" t="n">
-        <v>26.1618537902832</v>
+        <v>23.23858642578125</v>
       </c>
       <c r="E195" t="n">
-        <v>-14.6963357925415</v>
+        <v>-31.30938529968262</v>
       </c>
       <c r="F195" t="n">
-        <v>41.10225296020508</v>
+        <v>13.98054981231689</v>
       </c>
       <c r="G195" t="n">
-        <v>71.79878997802734</v>
+        <v>57.43009567260742</v>
       </c>
       <c r="H195" t="n">
-        <v>-62.08037948608398</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>1.013762468920065</v>
-      </c>
+      <c r="A196" t="inlineStr"/>
       <c r="B196" t="n">
-        <v>0.9999999996855818</v>
+        <v>0.5301611341913055</v>
       </c>
       <c r="C196" t="n">
-        <v>38.44318771362305</v>
+        <v>53.21023559570312</v>
       </c>
       <c r="D196" t="n">
-        <v>26.16280364990234</v>
+        <v>23.23857307434082</v>
       </c>
       <c r="E196" t="n">
-        <v>-14.69625091552734</v>
+        <v>-31.30941200256348</v>
       </c>
       <c r="F196" t="n">
-        <v>41.10385513305664</v>
+        <v>13.98047256469727</v>
       </c>
       <c r="G196" t="n">
-        <v>71.79798126220703</v>
+        <v>57.43008041381836</v>
       </c>
       <c r="H196" t="n">
-        <v>-62.08205032348633</v>
+        <v>-77.74081420898438</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>0.9917214249647184</v>
-      </c>
+      <c r="A197" t="inlineStr"/>
       <c r="B197" t="n">
-        <v>1.000000000035898</v>
+        <v>0.5301712249657711</v>
       </c>
       <c r="C197" t="n">
-        <v>38.44244766235352</v>
+        <v>53.21025085449219</v>
       </c>
       <c r="D197" t="n">
-        <v>26.16371917724609</v>
+        <v>23.23856353759766</v>
       </c>
       <c r="E197" t="n">
-        <v>-14.6961669921875</v>
+        <v>-31.30943870544434</v>
       </c>
       <c r="F197" t="n">
-        <v>41.10541534423828</v>
+        <v>13.98040676116943</v>
       </c>
       <c r="G197" t="n">
-        <v>71.79718017578125</v>
+        <v>57.43004989624023</v>
       </c>
       <c r="H197" t="n">
-        <v>-62.08364486694336</v>
+        <v>-77.74079132080078</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>1.004978741189895</v>
-      </c>
+      <c r="A198" t="inlineStr"/>
       <c r="B198" t="n">
-        <v>0.9999999999958866</v>
+        <v>0.5301799094621911</v>
       </c>
       <c r="C198" t="n">
-        <v>38.44173812866211</v>
+        <v>53.21027755737305</v>
       </c>
       <c r="D198" t="n">
-        <v>26.16460609436035</v>
+        <v>23.23855209350586</v>
       </c>
       <c r="E198" t="n">
-        <v>-14.69608402252197</v>
+        <v>-31.30946731567383</v>
       </c>
       <c r="F198" t="n">
-        <v>41.10690689086914</v>
+        <v>13.98034191131592</v>
       </c>
       <c r="G198" t="n">
-        <v>71.79640960693359</v>
+        <v>57.43003463745117</v>
       </c>
       <c r="H198" t="n">
-        <v>-62.08518218994141</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>0.9970064135705101</v>
-      </c>
+      <c r="A199" t="inlineStr"/>
       <c r="B199" t="n">
-        <v>1.000000000000473</v>
+        <v>0.5301871050547876</v>
       </c>
       <c r="C199" t="n">
-        <v>38.44105529785156</v>
+        <v>53.21029663085938</v>
       </c>
       <c r="D199" t="n">
-        <v>26.16546249389648</v>
+        <v>23.23854064941406</v>
       </c>
       <c r="E199" t="n">
-        <v>-14.69600200653076</v>
+        <v>-31.30949211120605</v>
       </c>
       <c r="F199" t="n">
-        <v>41.10835266113281</v>
+        <v>13.98027515411377</v>
       </c>
       <c r="G199" t="n">
-        <v>71.79570007324219</v>
+        <v>57.43001937866211</v>
       </c>
       <c r="H199" t="n">
-        <v>-62.08668518066406</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>1.001799595440674</v>
-      </c>
+      <c r="A200" t="inlineStr"/>
       <c r="B200" t="n">
-        <v>0.9999999999999455</v>
+        <v>0.5301931012901138</v>
       </c>
       <c r="C200" t="n">
-        <v>38.44039154052734</v>
+        <v>53.21031188964844</v>
       </c>
       <c r="D200" t="n">
-        <v>26.16629028320312</v>
+        <v>23.2385311126709</v>
       </c>
       <c r="E200" t="n">
-        <v>-14.69592475891113</v>
+        <v>-31.30951309204102</v>
       </c>
       <c r="F200" t="n">
-        <v>41.10974502563477</v>
+        <v>13.9802188873291</v>
       </c>
       <c r="G200" t="n">
-        <v>71.79497528076172</v>
+        <v>57.42998886108398</v>
       </c>
       <c r="H200" t="n">
-        <v>-62.0881233215332</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>0.9989183883808355</v>
-      </c>
+      <c r="A201" t="inlineStr"/>
       <c r="B201" t="n">
-        <v>1.000000000000006</v>
+        <v>0.5301977328058735</v>
       </c>
       <c r="C201" t="n">
-        <v>38.43974685668945</v>
+        <v>53.2103385925293</v>
       </c>
       <c r="D201" t="n">
-        <v>26.16709136962891</v>
+        <v>23.2385196685791</v>
       </c>
       <c r="E201" t="n">
-        <v>-14.69584369659424</v>
+        <v>-31.30953407287598</v>
       </c>
       <c r="F201" t="n">
-        <v>41.1110954284668</v>
+        <v>13.98015689849854</v>
       </c>
       <c r="G201" t="n">
-        <v>71.79430389404297</v>
+        <v>57.42997741699219</v>
       </c>
       <c r="H201" t="n">
-        <v>-62.08953094482422</v>
+        <v>-77.74079132080078</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>1.000649957190261</v>
-      </c>
+      <c r="A202" t="inlineStr"/>
       <c r="B202" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.5302011650560374</v>
       </c>
       <c r="C202" t="n">
-        <v>38.43912887573242</v>
+        <v>53.21035766601562</v>
       </c>
       <c r="D202" t="n">
-        <v>26.1678638458252</v>
+        <v>23.2385082244873</v>
       </c>
       <c r="E202" t="n">
-        <v>-14.69576835632324</v>
+        <v>-31.30955696105957</v>
       </c>
       <c r="F202" t="n">
-        <v>41.11239242553711</v>
+        <v>13.98010063171387</v>
       </c>
       <c r="G202" t="n">
-        <v>71.79364013671875</v>
+        <v>57.42996978759766</v>
       </c>
       <c r="H202" t="n">
-        <v>-62.09090423583984</v>
+        <v>-77.74079132080078</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>0.9996095030393085</v>
-      </c>
+      <c r="A203" t="inlineStr"/>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0.5302033153657316</v>
       </c>
       <c r="C203" t="n">
-        <v>38.43852996826172</v>
+        <v>53.21037673950195</v>
       </c>
       <c r="D203" t="n">
-        <v>26.16861534118652</v>
+        <v>23.23850250244141</v>
       </c>
       <c r="E203" t="n">
-        <v>-14.69569110870361</v>
+        <v>-31.3095760345459</v>
       </c>
       <c r="F203" t="n">
-        <v>41.11365509033203</v>
+        <v>13.98004150390625</v>
       </c>
       <c r="G203" t="n">
-        <v>71.79299926757812</v>
+        <v>57.42995452880859</v>
       </c>
       <c r="H203" t="n">
-        <v>-62.09219741821289</v>
+        <v>-77.74080657958984</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>1.000234569799735</v>
-      </c>
+      <c r="A204" t="inlineStr"/>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0.5302043078118173</v>
       </c>
       <c r="C204" t="n">
-        <v>38.43794631958008</v>
+        <v>51.19043731689453</v>
       </c>
       <c r="D204" t="n">
-        <v>26.16933822631836</v>
+        <v>22.16803359985352</v>
       </c>
       <c r="E204" t="n">
-        <v>-16.82839584350586</v>
+        <v>-31.30960083007812</v>
       </c>
       <c r="F204" t="n">
-        <v>41.1148681640625</v>
+        <v>19.39728355407715</v>
       </c>
       <c r="G204" t="n">
-        <v>64.74807739257812</v>
+        <v>55.47224426269531</v>
       </c>
       <c r="H204" t="n">
-        <v>-59.45072937011719</v>
+        <v>-71.85015869140625</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>0.9998591197520041</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0.5302043078118173</v>
       </c>
       <c r="C205" t="n">
-        <v>36.82262420654297</v>
+        <v>51.19043731689453</v>
       </c>
       <c r="D205" t="n">
-        <v>26.1700439453125</v>
+        <v>22.16803359985352</v>
       </c>
       <c r="E205" t="n">
-        <v>-16.82839584350586</v>
+        <v>-29.72189903259277</v>
       </c>
       <c r="F205" t="n">
-        <v>41.11603546142578</v>
+        <v>19.39728355407715</v>
       </c>
       <c r="G205" t="n">
-        <v>64.74807739257812</v>
+        <v>55.47224426269531</v>
       </c>
       <c r="H205" t="n">
-        <v>-59.45072937011719</v>
+        <v>-71.85015869140625</v>
       </c>
     </row>
   </sheetData>
